--- a/data/05.local.xlsx
+++ b/data/05.local.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/63232F98-E1C1-4AFA-B050-8949B83951AC/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/59CA0C80-1B8E-4DB1-9279-44B421496297/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2CFB99-307F-F644-A86D-55E04D64669D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92412F2C-FD3D-0149-A4E4-06B6E0538CC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="460" windowWidth="17740" windowHeight="16580" firstSheet="8" activeTab="15" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
+    <workbookView xWindow="9720" yWindow="460" windowWidth="17740" windowHeight="16580" firstSheet="8" activeTab="13" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
   </bookViews>
   <sheets>
     <sheet name="sp014" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,8 @@
     <sheet name="sp056" sheetId="10" r:id="rId11"/>
     <sheet name="sp063" sheetId="11" r:id="rId12"/>
     <sheet name="sp064" sheetId="12" r:id="rId13"/>
-    <sheet name="me99d" sheetId="13" r:id="rId14"/>
-    <sheet name="me99e" sheetId="14" r:id="rId15"/>
+    <sheet name="rn99d" sheetId="13" r:id="rId14"/>
+    <sheet name="rn99e" sheetId="14" r:id="rId15"/>
     <sheet name="bmd" sheetId="16" r:id="rId16"/>
     <sheet name="bmr" sheetId="17" r:id="rId17"/>
   </sheets>
@@ -9489,7 +9489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F70A50-2A0B-7B49-81E8-846B986DBDDD}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -12332,7 +12332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4105E42-E498-DD4E-B612-1744FC6E661B}">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>

--- a/data/05.local.xlsx
+++ b/data/05.local.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/59CA0C80-1B8E-4DB1-9279-44B421496297/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/F1CDFC0B-0C69-429C-AD2C-37CD1695F408/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92412F2C-FD3D-0149-A4E4-06B6E0538CC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB850C0-A853-344D-91DE-991F7127231A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="460" windowWidth="17740" windowHeight="16580" firstSheet="8" activeTab="13" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
+    <workbookView xWindow="9520" yWindow="7540" windowWidth="17740" windowHeight="16580" firstSheet="6" activeTab="7" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
   </bookViews>
   <sheets>
     <sheet name="sp014" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6361" uniqueCount="2605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6332" uniqueCount="2607">
   <si>
     <t>SampleID</t>
   </si>
@@ -6457,9 +6457,6 @@
     <t>BR001</t>
   </si>
   <si>
-    <t>blade_v12</t>
-  </si>
-  <si>
     <t>/home/springer/data_release/umgc/hiseq/170127_D00635_0197_ACAC47ANXX/Springer_Project_052_Run1_Redemux</t>
   </si>
   <si>
@@ -6517,12 +6514,6 @@
     <t>BR010</t>
   </si>
   <si>
-    <t>stem</t>
-  </si>
-  <si>
-    <t>auricle_v12</t>
-  </si>
-  <si>
     <t>briggs_pool1_18_Index10_S10</t>
   </si>
   <si>
@@ -6577,9 +6568,6 @@
     <t>BR019</t>
   </si>
   <si>
-    <t>sheath_v12</t>
-  </si>
-  <si>
     <t>briggs_pool2_18_index2_S20</t>
   </si>
   <si>
@@ -6928,9 +6916,6 @@
     <t>BR073</t>
   </si>
   <si>
-    <t>husk_0DAP</t>
-  </si>
-  <si>
     <t>briggs_pool5_18_index2_S74</t>
   </si>
   <si>
@@ -6985,9 +6970,6 @@
     <t>BR082</t>
   </si>
   <si>
-    <t>tasselstem_0DAP</t>
-  </si>
-  <si>
     <t>briggs_pool5_18_index10_S82</t>
   </si>
   <si>
@@ -7180,9 +7162,6 @@
     <t>BR100</t>
   </si>
   <si>
-    <t>flag_0DAP</t>
-  </si>
-  <si>
     <t>briggs_pool7_18_index2_S30</t>
   </si>
   <si>
@@ -7513,9 +7492,6 @@
     <t>coleoptile</t>
   </si>
   <si>
-    <t>tip</t>
-  </si>
-  <si>
     <t>/home/springer/data_release/umgc/hiseq/180103_D00635_0319_ACC5PFANXX/Springer_Project_058</t>
   </si>
   <si>
@@ -7573,9 +7549,6 @@
     <t>BR175</t>
   </si>
   <si>
-    <t>radicle</t>
-  </si>
-  <si>
     <t>briggs_pool10_18_Index10_S10</t>
   </si>
   <si>
@@ -7630,9 +7603,6 @@
     <t>BR184</t>
   </si>
   <si>
-    <t>imbibedseed</t>
-  </si>
-  <si>
     <t>/home/springer/data_release/umgc/hiseq/180109_D00635_0322_BCATGLANXX/Springer_Project_058</t>
   </si>
   <si>
@@ -7690,9 +7660,6 @@
     <t>BR193</t>
   </si>
   <si>
-    <t>seedling_11DAS</t>
-  </si>
-  <si>
     <t>briggs_pool11_18_Index10_S2</t>
   </si>
   <si>
@@ -7801,9 +7768,6 @@
     <t>BR211</t>
   </si>
   <si>
-    <t>meristem</t>
-  </si>
-  <si>
     <t>briggs_pool12_18_Index10_S20</t>
   </si>
   <si>
@@ -7856,6 +7820,48 @@
   </si>
   <si>
     <t>/home/hirschc1/shared/reads_for_SRA_submission/wi_reseq_set2</t>
+  </si>
+  <si>
+    <t>blade_leaf</t>
+  </si>
+  <si>
+    <t>auricle</t>
+  </si>
+  <si>
+    <t>sheath</t>
+  </si>
+  <si>
+    <t>husk</t>
+  </si>
+  <si>
+    <t>tassel_stem</t>
+  </si>
+  <si>
+    <t>flag_leaf</t>
+  </si>
+  <si>
+    <t>endosperm14D</t>
+  </si>
+  <si>
+    <t>endosperm27D</t>
+  </si>
+  <si>
+    <t>radicle_root</t>
+  </si>
+  <si>
+    <t>seed_imbibed</t>
+  </si>
+  <si>
+    <t>seedling_leaf</t>
+  </si>
+  <si>
+    <t>11DAS</t>
+  </si>
+  <si>
+    <t>seedling_root</t>
+  </si>
+  <si>
+    <t>seedling_meristem</t>
   </si>
 </sst>
 </file>
@@ -9489,7 +9495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F70A50-2A0B-7B49-81E8-846B986DBDDD}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -12369,7 +12375,7 @@
         <v>874</v>
       </c>
       <c r="E2" t="s">
-        <v>2604</v>
+        <v>2592</v>
       </c>
       <c r="F2" t="s">
         <v>875</v>
@@ -27567,9 +27573,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CBEAC7-07D3-7A47-96CF-0BC4B3551ED8}">
   <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -27596,2404 +27606,2404 @@
         <v>2137</v>
       </c>
       <c r="B2" t="s">
-        <v>585</v>
+        <v>2593</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E2" t="s">
         <v>2138</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>2139</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2140</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B3" t="s">
-        <v>585</v>
+        <v>2593</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E3" t="s">
         <v>2138</v>
       </c>
-      <c r="E3" t="s">
-        <v>2139</v>
-      </c>
       <c r="F3" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B4" t="s">
-        <v>585</v>
+        <v>2593</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E4" t="s">
         <v>2138</v>
       </c>
-      <c r="E4" t="s">
-        <v>2139</v>
-      </c>
       <c r="F4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B5" t="s">
-        <v>585</v>
+        <v>2593</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E5" t="s">
         <v>2138</v>
       </c>
-      <c r="E5" t="s">
-        <v>2139</v>
-      </c>
       <c r="F5" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B6" t="s">
-        <v>585</v>
+        <v>2593</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E6" t="s">
         <v>2138</v>
       </c>
-      <c r="E6" t="s">
-        <v>2139</v>
-      </c>
       <c r="F6" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B7" t="s">
-        <v>585</v>
+        <v>2593</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E7" t="s">
         <v>2138</v>
       </c>
-      <c r="E7" t="s">
-        <v>2139</v>
-      </c>
       <c r="F7" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B8" t="s">
-        <v>585</v>
+        <v>2593</v>
       </c>
       <c r="C8" t="s">
         <v>581</v>
       </c>
       <c r="D8" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E8" t="s">
         <v>2138</v>
       </c>
-      <c r="E8" t="s">
-        <v>2139</v>
-      </c>
       <c r="F8" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B9" t="s">
-        <v>585</v>
+        <v>2593</v>
       </c>
       <c r="C9" t="s">
         <v>581</v>
       </c>
       <c r="D9" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E9" t="s">
         <v>2138</v>
       </c>
-      <c r="E9" t="s">
-        <v>2139</v>
-      </c>
       <c r="F9" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B10" t="s">
-        <v>585</v>
+        <v>2593</v>
       </c>
       <c r="C10" t="s">
         <v>581</v>
       </c>
       <c r="D10" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E10" t="s">
         <v>2138</v>
       </c>
-      <c r="E10" t="s">
-        <v>2139</v>
-      </c>
       <c r="F10" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B11" t="s">
-        <v>2158</v>
+        <v>2594</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>2159</v>
+        <v>2194</v>
       </c>
       <c r="E11" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F11" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="B12" t="s">
-        <v>2158</v>
+        <v>2594</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2138</v>
+      </c>
+      <c r="F12" t="s">
         <v>2159</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2139</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2162</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="B13" t="s">
-        <v>2158</v>
+        <v>2594</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>2159</v>
+        <v>2194</v>
       </c>
       <c r="E13" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F13" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="B14" t="s">
-        <v>2158</v>
+        <v>2594</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>2159</v>
+        <v>2194</v>
       </c>
       <c r="E14" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F14" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="B15" t="s">
-        <v>2158</v>
+        <v>2594</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>2159</v>
+        <v>2194</v>
       </c>
       <c r="E15" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F15" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="B16" t="s">
-        <v>2158</v>
+        <v>2594</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>2159</v>
+        <v>2194</v>
       </c>
       <c r="E16" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F16" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="B17" t="s">
-        <v>2158</v>
+        <v>2594</v>
       </c>
       <c r="C17" t="s">
         <v>581</v>
       </c>
       <c r="D17" t="s">
-        <v>2159</v>
+        <v>2194</v>
       </c>
       <c r="E17" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F17" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="B18" t="s">
-        <v>2158</v>
+        <v>2594</v>
       </c>
       <c r="C18" t="s">
         <v>581</v>
       </c>
       <c r="D18" t="s">
-        <v>2159</v>
+        <v>2194</v>
       </c>
       <c r="E18" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F18" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="B19" t="s">
-        <v>2158</v>
+        <v>2594</v>
       </c>
       <c r="C19" t="s">
         <v>581</v>
       </c>
       <c r="D19" t="s">
-        <v>2159</v>
+        <v>2194</v>
       </c>
       <c r="E19" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F19" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="B20" t="s">
-        <v>2158</v>
+        <v>2595</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>2178</v>
+        <v>2194</v>
       </c>
       <c r="E20" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F20" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
       <c r="B21" t="s">
-        <v>2158</v>
+        <v>2595</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>2178</v>
+        <v>2194</v>
       </c>
       <c r="E21" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F21" t="s">
-        <v>2181</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2182</v>
+        <v>2178</v>
       </c>
       <c r="B22" t="s">
-        <v>2158</v>
+        <v>2595</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>2178</v>
+        <v>2194</v>
       </c>
       <c r="E22" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F22" t="s">
-        <v>2183</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
       <c r="B23" t="s">
-        <v>2158</v>
+        <v>2595</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>2178</v>
+        <v>2194</v>
       </c>
       <c r="E23" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F23" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
       <c r="B24" t="s">
-        <v>2158</v>
+        <v>2595</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>2178</v>
+        <v>2194</v>
       </c>
       <c r="E24" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F24" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
       <c r="B25" t="s">
-        <v>2158</v>
+        <v>2595</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>2178</v>
+        <v>2194</v>
       </c>
       <c r="E25" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F25" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
       <c r="B26" t="s">
-        <v>2158</v>
+        <v>2595</v>
       </c>
       <c r="C26" t="s">
         <v>581</v>
       </c>
       <c r="D26" t="s">
-        <v>2178</v>
+        <v>2194</v>
       </c>
       <c r="E26" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F26" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
       <c r="B27" t="s">
-        <v>2158</v>
+        <v>2595</v>
       </c>
       <c r="C27" t="s">
         <v>581</v>
       </c>
       <c r="D27" t="s">
-        <v>2178</v>
+        <v>2194</v>
       </c>
       <c r="E27" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F27" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="B28" t="s">
-        <v>2158</v>
+        <v>2595</v>
       </c>
       <c r="C28" t="s">
         <v>581</v>
       </c>
       <c r="D28" t="s">
-        <v>2178</v>
+        <v>2194</v>
       </c>
       <c r="E28" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F28" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
       <c r="B29" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E29" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F29" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
       <c r="B30" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E30" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F30" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
       <c r="B31" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E31" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F31" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="B32" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E32" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F32" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="B33" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E33" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F33" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="B34" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E34" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F34" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
       <c r="B35" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="C35" t="s">
         <v>581</v>
       </c>
       <c r="D35" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E35" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F35" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="B36" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="C36" t="s">
         <v>581</v>
       </c>
       <c r="D36" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E36" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F36" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="B37" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="C37" t="s">
         <v>581</v>
       </c>
       <c r="D37" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E37" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F37" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="B38" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E38" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F38" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="B39" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E39" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F39" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="B40" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E40" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F40" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="B41" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E41" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F41" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
       <c r="B42" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E42" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F42" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="B43" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E43" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F43" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="B44" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="C44" t="s">
         <v>581</v>
       </c>
       <c r="D44" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E44" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F44" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="B45" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="C45" t="s">
         <v>581</v>
       </c>
       <c r="D45" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E45" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F45" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="B46" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="C46" t="s">
         <v>581</v>
       </c>
       <c r="D46" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="E46" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F46" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
       <c r="B47" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="E47" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F47" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
       <c r="B48" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="E48" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F48" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="B49" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="E49" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F49" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
       <c r="B50" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="C50" t="s">
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="E50" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F50" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="B51" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="E51" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F51" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
       <c r="B52" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="E52" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F52" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
       <c r="B53" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="C53" t="s">
         <v>581</v>
       </c>
       <c r="D53" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="E53" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F53" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
       <c r="B54" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="C54" t="s">
         <v>581</v>
       </c>
       <c r="D54" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="E54" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F54" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
       <c r="B55" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="C55" t="s">
         <v>581</v>
       </c>
       <c r="D55" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="E55" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F55" t="s">
-        <v>2254</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
       <c r="B56" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E56" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F56" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="B57" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E57" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F57" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="B58" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E58" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F58" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="B59" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E59" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F59" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
       <c r="B60" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E60" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F60" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
       <c r="B61" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E61" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F61" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
       <c r="B62" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C62" t="s">
         <v>581</v>
       </c>
       <c r="D62" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E62" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F62" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="B63" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C63" t="s">
         <v>581</v>
       </c>
       <c r="D63" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E63" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F63" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="B64" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C64" t="s">
         <v>581</v>
       </c>
       <c r="D64" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E64" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F64" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
       <c r="B65" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E65" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F65" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="B66" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E66" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F66" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="B67" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E67" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F67" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="B68" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E68" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F68" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
       <c r="B69" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E69" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F69" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
       <c r="B70" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E70" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F70" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="B71" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C71" t="s">
         <v>581</v>
       </c>
       <c r="D71" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E71" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F71" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="B72" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C72" t="s">
         <v>581</v>
       </c>
       <c r="D72" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E72" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F72" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>2292</v>
+        <v>2288</v>
       </c>
       <c r="B73" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C73" t="s">
         <v>581</v>
       </c>
       <c r="D73" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E73" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F73" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="B74" t="s">
-        <v>2158</v>
+        <v>2596</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>2295</v>
+        <v>2253</v>
       </c>
       <c r="E74" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F74" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="B75" t="s">
-        <v>2158</v>
+        <v>2596</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>2295</v>
+        <v>2253</v>
       </c>
       <c r="E75" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F75" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>2299</v>
+        <v>2294</v>
       </c>
       <c r="B76" t="s">
-        <v>2158</v>
+        <v>2596</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
       </c>
       <c r="D76" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2138</v>
+      </c>
+      <c r="F76" t="s">
         <v>2295</v>
-      </c>
-      <c r="E76" t="s">
-        <v>2139</v>
-      </c>
-      <c r="F76" t="s">
-        <v>2300</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>2301</v>
+        <v>2296</v>
       </c>
       <c r="B77" t="s">
-        <v>2158</v>
+        <v>2596</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>2295</v>
+        <v>2253</v>
       </c>
       <c r="E77" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F77" t="s">
-        <v>2302</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
       <c r="B78" t="s">
-        <v>2158</v>
+        <v>2596</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>2295</v>
+        <v>2253</v>
       </c>
       <c r="E78" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F78" t="s">
-        <v>2304</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>2305</v>
+        <v>2300</v>
       </c>
       <c r="B79" t="s">
-        <v>2158</v>
+        <v>2596</v>
       </c>
       <c r="C79" t="s">
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>2295</v>
+        <v>2253</v>
       </c>
       <c r="E79" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F79" t="s">
-        <v>2306</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>2307</v>
+        <v>2302</v>
       </c>
       <c r="B80" t="s">
-        <v>2158</v>
+        <v>2596</v>
       </c>
       <c r="C80" t="s">
         <v>581</v>
       </c>
       <c r="D80" t="s">
-        <v>2295</v>
+        <v>2253</v>
       </c>
       <c r="E80" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F80" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>2309</v>
+        <v>2304</v>
       </c>
       <c r="B81" t="s">
-        <v>2158</v>
+        <v>2596</v>
       </c>
       <c r="C81" t="s">
         <v>581</v>
       </c>
       <c r="D81" t="s">
-        <v>2295</v>
+        <v>2253</v>
       </c>
       <c r="E81" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F81" t="s">
-        <v>2310</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>2311</v>
+        <v>2306</v>
       </c>
       <c r="B82" t="s">
-        <v>2158</v>
+        <v>2596</v>
       </c>
       <c r="C82" t="s">
         <v>581</v>
       </c>
       <c r="D82" t="s">
-        <v>2295</v>
+        <v>2253</v>
       </c>
       <c r="E82" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F82" t="s">
-        <v>2312</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>2313</v>
+        <v>2308</v>
       </c>
       <c r="B83" t="s">
-        <v>2158</v>
+        <v>2597</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>2314</v>
+        <v>2253</v>
       </c>
       <c r="E83" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F83" t="s">
-        <v>2315</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>2316</v>
+        <v>2310</v>
       </c>
       <c r="B84" t="s">
-        <v>2158</v>
+        <v>2597</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>2314</v>
+        <v>2253</v>
       </c>
       <c r="E84" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F84" t="s">
-        <v>2317</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>2318</v>
+        <v>2312</v>
       </c>
       <c r="B85" t="s">
-        <v>2158</v>
+        <v>2597</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>2314</v>
+        <v>2253</v>
       </c>
       <c r="E85" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F85" t="s">
-        <v>2319</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>2320</v>
+        <v>2314</v>
       </c>
       <c r="B86" t="s">
-        <v>2158</v>
+        <v>2597</v>
       </c>
       <c r="C86" t="s">
         <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>2314</v>
+        <v>2253</v>
       </c>
       <c r="E86" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F86" t="s">
-        <v>2321</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>2322</v>
+        <v>2316</v>
       </c>
       <c r="B87" t="s">
-        <v>2158</v>
+        <v>2597</v>
       </c>
       <c r="C87" t="s">
         <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>2314</v>
+        <v>2253</v>
       </c>
       <c r="E87" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F87" t="s">
-        <v>2323</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>2324</v>
+        <v>2318</v>
       </c>
       <c r="B88" t="s">
-        <v>2158</v>
+        <v>2597</v>
       </c>
       <c r="C88" t="s">
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>2314</v>
+        <v>2253</v>
       </c>
       <c r="E88" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F88" t="s">
-        <v>2325</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>2326</v>
+        <v>2320</v>
       </c>
       <c r="B89" t="s">
-        <v>2158</v>
+        <v>2597</v>
       </c>
       <c r="C89" t="s">
         <v>581</v>
       </c>
       <c r="D89" t="s">
-        <v>2314</v>
+        <v>2253</v>
       </c>
       <c r="E89" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F89" t="s">
-        <v>2327</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>2328</v>
+        <v>2322</v>
       </c>
       <c r="B90" t="s">
-        <v>2158</v>
+        <v>2597</v>
       </c>
       <c r="C90" t="s">
         <v>581</v>
       </c>
       <c r="D90" t="s">
-        <v>2314</v>
+        <v>2253</v>
       </c>
       <c r="E90" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F90" t="s">
-        <v>2329</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>2330</v>
+        <v>2324</v>
       </c>
       <c r="B91" t="s">
-        <v>2158</v>
+        <v>2597</v>
       </c>
       <c r="C91" t="s">
         <v>581</v>
       </c>
       <c r="D91" t="s">
-        <v>2314</v>
+        <v>2253</v>
       </c>
       <c r="E91" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F91" t="s">
-        <v>2331</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>2332</v>
+        <v>2326</v>
       </c>
       <c r="B92" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E92" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F92" t="s">
-        <v>2335</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>2336</v>
+        <v>2330</v>
       </c>
       <c r="B93" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E93" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F93" t="s">
-        <v>2337</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>2338</v>
+        <v>2332</v>
       </c>
       <c r="B94" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E94" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F94" t="s">
-        <v>2339</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>2340</v>
+        <v>2334</v>
       </c>
       <c r="B95" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="C95" t="s">
         <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E95" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F95" t="s">
-        <v>2341</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>2342</v>
+        <v>2336</v>
       </c>
       <c r="B96" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="C96" t="s">
         <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E96" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F96" t="s">
-        <v>2343</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>2344</v>
+        <v>2338</v>
       </c>
       <c r="B97" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="C97" t="s">
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E97" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F97" t="s">
-        <v>2345</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>2346</v>
+        <v>2340</v>
       </c>
       <c r="B98" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="C98" t="s">
         <v>581</v>
       </c>
       <c r="D98" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E98" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F98" t="s">
-        <v>2347</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>2348</v>
+        <v>2342</v>
       </c>
       <c r="B99" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="C99" t="s">
         <v>581</v>
       </c>
       <c r="D99" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E99" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F99" t="s">
-        <v>2349</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>2350</v>
+        <v>2344</v>
       </c>
       <c r="B100" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="C100" t="s">
         <v>581</v>
       </c>
       <c r="D100" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E100" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F100" t="s">
-        <v>2351</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
       <c r="B101" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E101" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F101" t="s">
-        <v>2355</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>2356</v>
+        <v>2350</v>
       </c>
       <c r="B102" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E102" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F102" t="s">
-        <v>2357</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>2358</v>
+        <v>2352</v>
       </c>
       <c r="B103" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E103" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F103" t="s">
-        <v>2359</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>2360</v>
+        <v>2354</v>
       </c>
       <c r="B104" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="C104" t="s">
         <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E104" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F104" t="s">
-        <v>2361</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>2362</v>
+        <v>2356</v>
       </c>
       <c r="B105" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="C105" t="s">
         <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E105" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F105" t="s">
-        <v>2363</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="B106" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="C106" t="s">
         <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E106" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F106" t="s">
-        <v>2365</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>2366</v>
+        <v>2360</v>
       </c>
       <c r="B107" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="C107" t="s">
         <v>581</v>
       </c>
       <c r="D107" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E107" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F107" t="s">
-        <v>2367</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>2368</v>
+        <v>2362</v>
       </c>
       <c r="B108" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="C108" t="s">
         <v>581</v>
       </c>
       <c r="D108" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E108" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F108" t="s">
-        <v>2369</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>2370</v>
+        <v>2364</v>
       </c>
       <c r="B109" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="C109" t="s">
         <v>581</v>
       </c>
       <c r="D109" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E109" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F109" t="s">
-        <v>2371</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>2372</v>
+        <v>2366</v>
       </c>
       <c r="B110" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="C110" t="s">
         <v>1468</v>
       </c>
       <c r="D110" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E110" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F110" t="s">
-        <v>2373</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>2374</v>
+        <v>2368</v>
       </c>
       <c r="B111" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="C111" t="s">
         <v>1468</v>
       </c>
       <c r="D111" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E111" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F111" t="s">
-        <v>2375</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>2376</v>
+        <v>2370</v>
       </c>
       <c r="B112" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="C112" t="s">
         <v>1468</v>
       </c>
       <c r="D112" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E112" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F112" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>2378</v>
+        <v>2372</v>
       </c>
       <c r="B113" t="s">
-        <v>585</v>
+        <v>2598</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>2379</v>
+        <v>2253</v>
       </c>
       <c r="E113" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F113" t="s">
-        <v>2380</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>2381</v>
+        <v>2374</v>
       </c>
       <c r="B114" t="s">
-        <v>585</v>
+        <v>2598</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
       </c>
       <c r="D114" t="s">
-        <v>2379</v>
+        <v>2253</v>
       </c>
       <c r="E114" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F114" t="s">
-        <v>2382</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>2383</v>
+        <v>2376</v>
       </c>
       <c r="B115" t="s">
-        <v>585</v>
+        <v>2598</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>2379</v>
+        <v>2253</v>
       </c>
       <c r="E115" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F115" t="s">
-        <v>2384</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>2385</v>
+        <v>2378</v>
       </c>
       <c r="B116" t="s">
-        <v>585</v>
+        <v>2598</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
       </c>
       <c r="D116" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F116" t="s">
         <v>2379</v>
-      </c>
-      <c r="E116" t="s">
-        <v>2334</v>
-      </c>
-      <c r="F116" t="s">
-        <v>2386</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>2387</v>
+        <v>2380</v>
       </c>
       <c r="B117" t="s">
-        <v>585</v>
+        <v>2598</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>2379</v>
+        <v>2253</v>
       </c>
       <c r="E117" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F117" t="s">
-        <v>2388</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>2389</v>
+        <v>2382</v>
       </c>
       <c r="B118" t="s">
-        <v>585</v>
+        <v>2598</v>
       </c>
       <c r="C118" t="s">
         <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>2379</v>
+        <v>2253</v>
       </c>
       <c r="E118" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F118" t="s">
-        <v>2390</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>2391</v>
+        <v>2384</v>
       </c>
       <c r="B119" t="s">
-        <v>585</v>
+        <v>2598</v>
       </c>
       <c r="C119" t="s">
         <v>581</v>
       </c>
       <c r="D119" t="s">
-        <v>2379</v>
+        <v>2253</v>
       </c>
       <c r="E119" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F119" t="s">
-        <v>2392</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>2393</v>
+        <v>2386</v>
       </c>
       <c r="B120" t="s">
-        <v>585</v>
+        <v>2598</v>
       </c>
       <c r="C120" t="s">
         <v>581</v>
       </c>
       <c r="D120" t="s">
-        <v>2379</v>
+        <v>2253</v>
       </c>
       <c r="E120" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F120" t="s">
-        <v>2394</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>2395</v>
+        <v>2388</v>
       </c>
       <c r="B121" t="s">
-        <v>585</v>
+        <v>2598</v>
       </c>
       <c r="C121" t="s">
         <v>581</v>
       </c>
       <c r="D121" t="s">
-        <v>2379</v>
+        <v>2253</v>
       </c>
       <c r="E121" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F121" t="s">
-        <v>2396</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>2397</v>
+        <v>2390</v>
       </c>
       <c r="B122" t="s">
         <v>583</v>
@@ -30002,18 +30012,18 @@
         <v>5</v>
       </c>
       <c r="D122" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E122" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F122" t="s">
-        <v>2398</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>2399</v>
+        <v>2392</v>
       </c>
       <c r="B123" t="s">
         <v>583</v>
@@ -30022,18 +30032,18 @@
         <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E123" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F123" t="s">
-        <v>2400</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>2401</v>
+        <v>2394</v>
       </c>
       <c r="B124" t="s">
         <v>583</v>
@@ -30042,18 +30052,18 @@
         <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E124" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F124" t="s">
-        <v>2402</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>2403</v>
+        <v>2396</v>
       </c>
       <c r="B125" t="s">
         <v>583</v>
@@ -30062,18 +30072,18 @@
         <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E125" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F125" t="s">
-        <v>2404</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>2405</v>
+        <v>2398</v>
       </c>
       <c r="B126" t="s">
         <v>583</v>
@@ -30082,18 +30092,18 @@
         <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E126" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F126" t="s">
-        <v>2406</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>2407</v>
+        <v>2400</v>
       </c>
       <c r="B127" t="s">
         <v>583</v>
@@ -30102,18 +30112,18 @@
         <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E127" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F127" t="s">
-        <v>2408</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>2409</v>
+        <v>2402</v>
       </c>
       <c r="B128" t="s">
         <v>583</v>
@@ -30122,18 +30132,18 @@
         <v>581</v>
       </c>
       <c r="D128" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E128" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F128" t="s">
-        <v>2410</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>2411</v>
+        <v>2404</v>
       </c>
       <c r="B129" t="s">
         <v>583</v>
@@ -30142,18 +30152,18 @@
         <v>581</v>
       </c>
       <c r="D129" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E129" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F129" t="s">
-        <v>2412</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>2413</v>
+        <v>2406</v>
       </c>
       <c r="B130" t="s">
         <v>583</v>
@@ -30162,258 +30172,258 @@
         <v>581</v>
       </c>
       <c r="D130" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="E130" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F130" t="s">
-        <v>2414</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>2415</v>
+        <v>2408</v>
       </c>
       <c r="B131" t="s">
-        <v>614</v>
+        <v>2599</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E131" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F131" t="s">
-        <v>2416</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>2417</v>
+        <v>2410</v>
       </c>
       <c r="B132" t="s">
-        <v>614</v>
+        <v>2599</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E132" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F132" t="s">
-        <v>2418</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>2419</v>
+        <v>2412</v>
       </c>
       <c r="B133" t="s">
-        <v>614</v>
+        <v>2599</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E133" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F133" t="s">
-        <v>2420</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>2421</v>
+        <v>2414</v>
       </c>
       <c r="B134" t="s">
-        <v>614</v>
+        <v>2599</v>
       </c>
       <c r="C134" t="s">
         <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E134" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F134" t="s">
-        <v>2422</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>2423</v>
+        <v>2416</v>
       </c>
       <c r="B135" t="s">
-        <v>614</v>
+        <v>2599</v>
       </c>
       <c r="C135" t="s">
         <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E135" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F135" t="s">
-        <v>2424</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>2425</v>
+        <v>2418</v>
       </c>
       <c r="B136" t="s">
-        <v>614</v>
+        <v>2599</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E136" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F136" t="s">
-        <v>2426</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>2427</v>
+        <v>2420</v>
       </c>
       <c r="B137" t="s">
-        <v>614</v>
+        <v>2599</v>
       </c>
       <c r="C137" t="s">
         <v>581</v>
       </c>
       <c r="D137" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E137" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F137" t="s">
-        <v>2428</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>2429</v>
+        <v>2422</v>
       </c>
       <c r="B138" t="s">
-        <v>614</v>
+        <v>2599</v>
       </c>
       <c r="C138" t="s">
         <v>581</v>
       </c>
       <c r="D138" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E138" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F138" t="s">
-        <v>2430</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>2431</v>
+        <v>2424</v>
       </c>
       <c r="B139" t="s">
-        <v>614</v>
+        <v>2599</v>
       </c>
       <c r="C139" t="s">
         <v>581</v>
       </c>
       <c r="D139" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E139" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F139" t="s">
-        <v>2432</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>2433</v>
+        <v>2426</v>
       </c>
       <c r="B140" t="s">
-        <v>614</v>
+        <v>2599</v>
       </c>
       <c r="C140" t="s">
         <v>1468</v>
       </c>
       <c r="D140" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E140" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F140" t="s">
-        <v>2434</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>2435</v>
+        <v>2428</v>
       </c>
       <c r="B141" t="s">
-        <v>614</v>
+        <v>2599</v>
       </c>
       <c r="C141" t="s">
         <v>1468</v>
       </c>
       <c r="D141" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E141" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F141" t="s">
-        <v>2436</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2437</v>
+        <v>2430</v>
       </c>
       <c r="B142" t="s">
-        <v>614</v>
+        <v>2599</v>
       </c>
       <c r="C142" t="s">
         <v>1468</v>
       </c>
       <c r="D142" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="E142" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F142" t="s">
-        <v>2438</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>2439</v>
+        <v>2432</v>
       </c>
       <c r="B143" t="s">
         <v>777</v>
@@ -30422,18 +30432,18 @@
         <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E143" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F143" t="s">
-        <v>2441</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>2442</v>
+        <v>2435</v>
       </c>
       <c r="B144" t="s">
         <v>777</v>
@@ -30442,18 +30452,18 @@
         <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E144" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F144" t="s">
-        <v>2443</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>2444</v>
+        <v>2437</v>
       </c>
       <c r="B145" t="s">
         <v>777</v>
@@ -30462,18 +30472,18 @@
         <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E145" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F145" t="s">
-        <v>2445</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>2446</v>
+        <v>2439</v>
       </c>
       <c r="B146" t="s">
         <v>777</v>
@@ -30482,18 +30492,18 @@
         <v>15</v>
       </c>
       <c r="D146" t="s">
+        <v>2433</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F146" t="s">
         <v>2440</v>
-      </c>
-      <c r="E146" t="s">
-        <v>2334</v>
-      </c>
-      <c r="F146" t="s">
-        <v>2447</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>2448</v>
+        <v>2441</v>
       </c>
       <c r="B147" t="s">
         <v>777</v>
@@ -30502,18 +30512,18 @@
         <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E147" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F147" t="s">
-        <v>2449</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>2450</v>
+        <v>2443</v>
       </c>
       <c r="B148" t="s">
         <v>777</v>
@@ -30522,18 +30532,18 @@
         <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E148" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F148" t="s">
-        <v>2451</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>2452</v>
+        <v>2445</v>
       </c>
       <c r="B149" t="s">
         <v>777</v>
@@ -30542,18 +30552,18 @@
         <v>581</v>
       </c>
       <c r="D149" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E149" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F149" t="s">
-        <v>2453</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>2454</v>
+        <v>2447</v>
       </c>
       <c r="B150" t="s">
         <v>777</v>
@@ -30562,18 +30572,18 @@
         <v>581</v>
       </c>
       <c r="D150" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E150" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F150" t="s">
-        <v>2455</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>2456</v>
+        <v>2449</v>
       </c>
       <c r="B151" t="s">
         <v>777</v>
@@ -30582,18 +30592,18 @@
         <v>581</v>
       </c>
       <c r="D151" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E151" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F151" t="s">
-        <v>2457</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>2458</v>
+        <v>2451</v>
       </c>
       <c r="B152" t="s">
         <v>777</v>
@@ -30602,18 +30612,18 @@
         <v>1468</v>
       </c>
       <c r="D152" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E152" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F152" t="s">
-        <v>2459</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>2460</v>
+        <v>2453</v>
       </c>
       <c r="B153" t="s">
         <v>777</v>
@@ -30622,18 +30632,18 @@
         <v>1468</v>
       </c>
       <c r="D153" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E153" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F153" t="s">
-        <v>2461</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>2462</v>
+        <v>2455</v>
       </c>
       <c r="B154" t="s">
         <v>777</v>
@@ -30642,1333 +30652,1246 @@
         <v>1468</v>
       </c>
       <c r="D154" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E154" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F154" t="s">
-        <v>2463</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>2464</v>
+        <v>2457</v>
       </c>
       <c r="B155" t="s">
-        <v>614</v>
+        <v>2600</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
       </c>
       <c r="D155" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E155" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F155" t="s">
-        <v>2465</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>2466</v>
+        <v>2459</v>
       </c>
       <c r="B156" t="s">
-        <v>614</v>
+        <v>2600</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
       </c>
       <c r="D156" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E156" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F156" t="s">
-        <v>2467</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>2468</v>
+        <v>2461</v>
       </c>
       <c r="B157" t="s">
-        <v>614</v>
+        <v>2600</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
       </c>
       <c r="D157" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E157" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F157" t="s">
-        <v>2469</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>2470</v>
+        <v>2463</v>
       </c>
       <c r="B158" t="s">
-        <v>614</v>
+        <v>2600</v>
       </c>
       <c r="C158" t="s">
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E158" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F158" t="s">
-        <v>2471</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="B159" t="s">
-        <v>614</v>
+        <v>2600</v>
       </c>
       <c r="C159" t="s">
         <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E159" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F159" t="s">
-        <v>2473</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>2474</v>
+        <v>2467</v>
       </c>
       <c r="B160" t="s">
-        <v>614</v>
+        <v>2600</v>
       </c>
       <c r="C160" t="s">
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E160" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F160" t="s">
-        <v>2475</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>2476</v>
+        <v>2469</v>
       </c>
       <c r="B161" t="s">
-        <v>614</v>
+        <v>2600</v>
       </c>
       <c r="C161" t="s">
         <v>581</v>
       </c>
       <c r="D161" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E161" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F161" t="s">
-        <v>2477</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>2478</v>
+        <v>2471</v>
       </c>
       <c r="B162" t="s">
-        <v>614</v>
+        <v>2600</v>
       </c>
       <c r="C162" t="s">
         <v>581</v>
       </c>
       <c r="D162" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E162" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F162" t="s">
-        <v>2479</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>2480</v>
+        <v>2473</v>
       </c>
       <c r="B163" t="s">
-        <v>614</v>
+        <v>2600</v>
       </c>
       <c r="C163" t="s">
         <v>581</v>
       </c>
       <c r="D163" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E163" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F163" t="s">
-        <v>2481</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>2482</v>
+        <v>2475</v>
       </c>
       <c r="B164" t="s">
-        <v>614</v>
+        <v>2600</v>
       </c>
       <c r="C164" t="s">
         <v>1468</v>
       </c>
       <c r="D164" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E164" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F164" t="s">
-        <v>2483</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>2484</v>
+        <v>2477</v>
       </c>
       <c r="B165" t="s">
-        <v>614</v>
+        <v>2600</v>
       </c>
       <c r="C165" t="s">
         <v>1468</v>
       </c>
       <c r="D165" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E165" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F165" t="s">
-        <v>2485</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>2486</v>
+        <v>2479</v>
       </c>
       <c r="B166" t="s">
-        <v>614</v>
+        <v>2600</v>
       </c>
       <c r="C166" t="s">
         <v>1468</v>
       </c>
       <c r="D166" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="E166" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F166" t="s">
-        <v>2487</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>2488</v>
+        <v>2481</v>
       </c>
       <c r="B167" t="s">
-        <v>2489</v>
+        <v>2482</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
       </c>
-      <c r="D167" t="s">
-        <v>2490</v>
-      </c>
       <c r="E167" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="F167" t="s">
-        <v>2492</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>2493</v>
+        <v>2485</v>
       </c>
       <c r="B168" t="s">
-        <v>2489</v>
+        <v>2482</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
       </c>
-      <c r="D168" t="s">
-        <v>2490</v>
-      </c>
       <c r="E168" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="F168" t="s">
-        <v>2494</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>2495</v>
+        <v>2487</v>
       </c>
       <c r="B169" t="s">
-        <v>2489</v>
+        <v>2482</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
       </c>
-      <c r="D169" t="s">
-        <v>2490</v>
-      </c>
       <c r="E169" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="F169" t="s">
-        <v>2496</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>2497</v>
+        <v>2489</v>
       </c>
       <c r="B170" t="s">
-        <v>2489</v>
+        <v>2482</v>
       </c>
       <c r="C170" t="s">
         <v>15</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F170" t="s">
         <v>2490</v>
-      </c>
-      <c r="E170" t="s">
-        <v>2491</v>
-      </c>
-      <c r="F170" t="s">
-        <v>2498</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>2499</v>
+        <v>2491</v>
       </c>
       <c r="B171" t="s">
-        <v>2489</v>
+        <v>2482</v>
       </c>
       <c r="C171" t="s">
         <v>15</v>
       </c>
-      <c r="D171" t="s">
-        <v>2490</v>
-      </c>
       <c r="E171" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="F171" t="s">
-        <v>2500</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>2501</v>
+        <v>2493</v>
       </c>
       <c r="B172" t="s">
-        <v>2489</v>
+        <v>2482</v>
       </c>
       <c r="C172" t="s">
         <v>15</v>
       </c>
-      <c r="D172" t="s">
-        <v>2490</v>
-      </c>
       <c r="E172" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="F172" t="s">
-        <v>2502</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>2503</v>
+        <v>2495</v>
       </c>
       <c r="B173" t="s">
-        <v>2489</v>
+        <v>2482</v>
       </c>
       <c r="C173" t="s">
         <v>581</v>
       </c>
-      <c r="D173" t="s">
-        <v>2490</v>
-      </c>
       <c r="E173" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="F173" t="s">
-        <v>2504</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>2505</v>
+        <v>2497</v>
       </c>
       <c r="B174" t="s">
-        <v>2489</v>
+        <v>2482</v>
       </c>
       <c r="C174" t="s">
         <v>581</v>
       </c>
-      <c r="D174" t="s">
-        <v>2490</v>
-      </c>
       <c r="E174" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="F174" t="s">
-        <v>2506</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>2507</v>
+        <v>2499</v>
       </c>
       <c r="B175" t="s">
-        <v>2489</v>
+        <v>2482</v>
       </c>
       <c r="C175" t="s">
         <v>581</v>
       </c>
-      <c r="D175" t="s">
-        <v>2490</v>
-      </c>
       <c r="E175" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="F175" t="s">
-        <v>2508</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>2509</v>
+        <v>2501</v>
       </c>
       <c r="B176" t="s">
-        <v>583</v>
+        <v>2601</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
       </c>
-      <c r="D176" t="s">
-        <v>2510</v>
-      </c>
       <c r="E176" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="F176" t="s">
-        <v>2511</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>2512</v>
+        <v>2503</v>
       </c>
       <c r="B177" t="s">
-        <v>583</v>
+        <v>2601</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
       </c>
-      <c r="D177" t="s">
-        <v>2510</v>
-      </c>
       <c r="E177" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="F177" t="s">
-        <v>2513</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>2514</v>
+        <v>2505</v>
       </c>
       <c r="B178" t="s">
-        <v>583</v>
+        <v>2601</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
       </c>
-      <c r="D178" t="s">
-        <v>2510</v>
-      </c>
       <c r="E178" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="F178" t="s">
-        <v>2515</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>2516</v>
+        <v>2507</v>
       </c>
       <c r="B179" t="s">
-        <v>583</v>
+        <v>2601</v>
       </c>
       <c r="C179" t="s">
         <v>15</v>
       </c>
-      <c r="D179" t="s">
-        <v>2510</v>
-      </c>
       <c r="E179" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="F179" t="s">
-        <v>2517</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>2518</v>
+        <v>2509</v>
       </c>
       <c r="B180" t="s">
-        <v>583</v>
+        <v>2601</v>
       </c>
       <c r="C180" t="s">
         <v>15</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F180" t="s">
         <v>2510</v>
-      </c>
-      <c r="E180" t="s">
-        <v>2491</v>
-      </c>
-      <c r="F180" t="s">
-        <v>2519</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>2520</v>
+        <v>2511</v>
       </c>
       <c r="B181" t="s">
-        <v>583</v>
+        <v>2601</v>
       </c>
       <c r="C181" t="s">
         <v>15</v>
       </c>
-      <c r="D181" t="s">
-        <v>2510</v>
-      </c>
       <c r="E181" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="F181" t="s">
-        <v>2521</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>2522</v>
+        <v>2513</v>
       </c>
       <c r="B182" t="s">
-        <v>583</v>
+        <v>2601</v>
       </c>
       <c r="C182" t="s">
         <v>581</v>
       </c>
-      <c r="D182" t="s">
-        <v>2510</v>
-      </c>
       <c r="E182" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="F182" t="s">
-        <v>2523</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>2524</v>
+        <v>2515</v>
       </c>
       <c r="B183" t="s">
-        <v>583</v>
+        <v>2601</v>
       </c>
       <c r="C183" t="s">
         <v>581</v>
       </c>
-      <c r="D183" t="s">
-        <v>2510</v>
-      </c>
       <c r="E183" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="F183" t="s">
-        <v>2525</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>2526</v>
+        <v>2517</v>
       </c>
       <c r="B184" t="s">
-        <v>583</v>
+        <v>2601</v>
       </c>
       <c r="C184" t="s">
         <v>581</v>
       </c>
-      <c r="D184" t="s">
-        <v>2510</v>
-      </c>
       <c r="E184" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="F184" t="s">
-        <v>2527</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>2528</v>
+        <v>2519</v>
       </c>
       <c r="B185" t="s">
-        <v>777</v>
+        <v>2602</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
       </c>
-      <c r="D185" t="s">
-        <v>2529</v>
-      </c>
       <c r="E185" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F185" t="s">
-        <v>2531</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>2532</v>
+        <v>2522</v>
       </c>
       <c r="B186" t="s">
-        <v>777</v>
+        <v>2602</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
       </c>
-      <c r="D186" t="s">
-        <v>2529</v>
-      </c>
       <c r="E186" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F186" t="s">
-        <v>2533</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>2534</v>
+        <v>2524</v>
       </c>
       <c r="B187" t="s">
-        <v>777</v>
+        <v>2602</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
       </c>
-      <c r="D187" t="s">
-        <v>2529</v>
-      </c>
       <c r="E187" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F187" t="s">
-        <v>2535</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>2536</v>
+        <v>2526</v>
       </c>
       <c r="B188" t="s">
-        <v>777</v>
+        <v>2602</v>
       </c>
       <c r="C188" t="s">
         <v>15</v>
       </c>
-      <c r="D188" t="s">
-        <v>2529</v>
-      </c>
       <c r="E188" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F188" t="s">
-        <v>2537</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>2538</v>
+        <v>2528</v>
       </c>
       <c r="B189" t="s">
-        <v>777</v>
+        <v>2602</v>
       </c>
       <c r="C189" t="s">
         <v>15</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F189" t="s">
         <v>2529</v>
-      </c>
-      <c r="E189" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F189" t="s">
-        <v>2539</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>2540</v>
+        <v>2530</v>
       </c>
       <c r="B190" t="s">
-        <v>777</v>
+        <v>2602</v>
       </c>
       <c r="C190" t="s">
         <v>15</v>
       </c>
-      <c r="D190" t="s">
-        <v>2529</v>
-      </c>
       <c r="E190" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F190" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>2542</v>
+        <v>2532</v>
       </c>
       <c r="B191" t="s">
-        <v>777</v>
+        <v>2602</v>
       </c>
       <c r="C191" t="s">
         <v>581</v>
       </c>
-      <c r="D191" t="s">
-        <v>2529</v>
-      </c>
       <c r="E191" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F191" t="s">
-        <v>2543</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>2544</v>
+        <v>2534</v>
       </c>
       <c r="B192" t="s">
-        <v>777</v>
+        <v>2602</v>
       </c>
       <c r="C192" t="s">
         <v>581</v>
       </c>
-      <c r="D192" t="s">
-        <v>2529</v>
-      </c>
       <c r="E192" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F192" t="s">
-        <v>2545</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>2546</v>
+        <v>2536</v>
       </c>
       <c r="B193" t="s">
-        <v>777</v>
+        <v>2602</v>
       </c>
       <c r="C193" t="s">
         <v>581</v>
       </c>
-      <c r="D193" t="s">
-        <v>2529</v>
-      </c>
       <c r="E193" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F193" t="s">
-        <v>2547</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>2548</v>
+        <v>2538</v>
       </c>
       <c r="B194" t="s">
-        <v>585</v>
+        <v>2603</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
       </c>
       <c r="D194" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E194" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F194" t="s">
-        <v>2550</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>2551</v>
+        <v>2540</v>
       </c>
       <c r="B195" t="s">
-        <v>585</v>
+        <v>2603</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
       </c>
       <c r="D195" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E195" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F195" t="s">
-        <v>2552</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>2553</v>
+        <v>2542</v>
       </c>
       <c r="B196" t="s">
-        <v>585</v>
+        <v>2603</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E196" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F196" t="s">
-        <v>2554</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>2555</v>
+        <v>2544</v>
       </c>
       <c r="B197" t="s">
-        <v>585</v>
+        <v>2603</v>
       </c>
       <c r="C197" t="s">
         <v>15</v>
       </c>
       <c r="D197" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E197" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F197" t="s">
-        <v>2556</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>2557</v>
+        <v>2546</v>
       </c>
       <c r="B198" t="s">
-        <v>585</v>
+        <v>2603</v>
       </c>
       <c r="C198" t="s">
         <v>15</v>
       </c>
       <c r="D198" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E198" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F198" t="s">
-        <v>2558</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>2559</v>
+        <v>2548</v>
       </c>
       <c r="B199" t="s">
-        <v>585</v>
+        <v>2603</v>
       </c>
       <c r="C199" t="s">
         <v>15</v>
       </c>
       <c r="D199" t="s">
+        <v>2604</v>
+      </c>
+      <c r="E199" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F199" t="s">
         <v>2549</v>
-      </c>
-      <c r="E199" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F199" t="s">
-        <v>2560</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>2561</v>
+        <v>2550</v>
       </c>
       <c r="B200" t="s">
-        <v>585</v>
+        <v>2603</v>
       </c>
       <c r="C200" t="s">
         <v>581</v>
       </c>
       <c r="D200" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E200" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F200" t="s">
-        <v>2562</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>2563</v>
+        <v>2552</v>
       </c>
       <c r="B201" t="s">
-        <v>585</v>
+        <v>2603</v>
       </c>
       <c r="C201" t="s">
         <v>581</v>
       </c>
       <c r="D201" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E201" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F201" t="s">
-        <v>2564</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>2565</v>
+        <v>2554</v>
       </c>
       <c r="B202" t="s">
-        <v>585</v>
+        <v>2603</v>
       </c>
       <c r="C202" t="s">
         <v>581</v>
       </c>
       <c r="D202" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E202" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F202" t="s">
-        <v>2566</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>2567</v>
+        <v>2556</v>
       </c>
       <c r="B203" t="s">
-        <v>583</v>
+        <v>2605</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
       </c>
       <c r="D203" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E203" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F203" t="s">
-        <v>2568</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>2569</v>
+        <v>2558</v>
       </c>
       <c r="B204" t="s">
-        <v>583</v>
+        <v>2605</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
       </c>
       <c r="D204" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E204" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F204" t="s">
-        <v>2570</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>2571</v>
+        <v>2560</v>
       </c>
       <c r="B205" t="s">
-        <v>583</v>
+        <v>2605</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
       </c>
       <c r="D205" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E205" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F205" t="s">
-        <v>2572</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>2573</v>
+        <v>2562</v>
       </c>
       <c r="B206" t="s">
-        <v>777</v>
+        <v>2602</v>
       </c>
       <c r="C206" t="s">
         <v>15</v>
       </c>
-      <c r="D206" t="s">
-        <v>2529</v>
-      </c>
       <c r="E206" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F206" t="s">
-        <v>2574</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>2575</v>
+        <v>2564</v>
       </c>
       <c r="B207" t="s">
-        <v>583</v>
+        <v>2605</v>
       </c>
       <c r="C207" t="s">
         <v>15</v>
       </c>
       <c r="D207" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E207" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F207" t="s">
-        <v>2576</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>2577</v>
+        <v>2566</v>
       </c>
       <c r="B208" t="s">
-        <v>583</v>
+        <v>2605</v>
       </c>
       <c r="C208" t="s">
         <v>15</v>
       </c>
       <c r="D208" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E208" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F208" t="s">
-        <v>2578</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>2579</v>
+        <v>2568</v>
       </c>
       <c r="B209" t="s">
-        <v>583</v>
+        <v>2605</v>
       </c>
       <c r="C209" t="s">
         <v>581</v>
       </c>
       <c r="D209" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E209" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F209" t="s">
-        <v>2580</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>2581</v>
+        <v>2570</v>
       </c>
       <c r="B210" t="s">
-        <v>583</v>
+        <v>2605</v>
       </c>
       <c r="C210" t="s">
         <v>581</v>
       </c>
       <c r="D210" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E210" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F210" t="s">
-        <v>2582</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>2583</v>
+        <v>2572</v>
       </c>
       <c r="B211" t="s">
-        <v>777</v>
+        <v>2602</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
       </c>
-      <c r="D211" t="s">
-        <v>2529</v>
-      </c>
       <c r="E211" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F211" t="s">
-        <v>2584</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>2585</v>
+        <v>2574</v>
       </c>
       <c r="B212" t="s">
-        <v>2586</v>
+        <v>2606</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E212" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F212" t="s">
-        <v>2587</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>2588</v>
+        <v>2576</v>
       </c>
       <c r="B213" t="s">
-        <v>2586</v>
+        <v>2606</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
       </c>
       <c r="D213" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E213" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F213" t="s">
-        <v>2589</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>2590</v>
+        <v>2578</v>
       </c>
       <c r="B214" t="s">
-        <v>2586</v>
+        <v>2606</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
       </c>
       <c r="D214" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E214" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F214" t="s">
-        <v>2591</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>2592</v>
+        <v>2580</v>
       </c>
       <c r="B215" t="s">
-        <v>2586</v>
+        <v>2606</v>
       </c>
       <c r="C215" t="s">
         <v>15</v>
       </c>
       <c r="D215" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E215" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F215" t="s">
-        <v>2593</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>2594</v>
+        <v>2582</v>
       </c>
       <c r="B216" t="s">
-        <v>2586</v>
+        <v>2606</v>
       </c>
       <c r="C216" t="s">
         <v>15</v>
       </c>
       <c r="D216" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E216" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F216" t="s">
-        <v>2595</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>2596</v>
+        <v>2584</v>
       </c>
       <c r="B217" t="s">
-        <v>2586</v>
+        <v>2606</v>
       </c>
       <c r="C217" t="s">
         <v>15</v>
       </c>
       <c r="D217" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E217" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F217" t="s">
-        <v>2597</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>2598</v>
+        <v>2586</v>
       </c>
       <c r="B218" t="s">
-        <v>2586</v>
+        <v>2606</v>
       </c>
       <c r="C218" t="s">
         <v>581</v>
       </c>
       <c r="D218" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E218" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F218" t="s">
-        <v>2599</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>2600</v>
+        <v>2588</v>
       </c>
       <c r="B219" t="s">
-        <v>2586</v>
+        <v>2606</v>
       </c>
       <c r="C219" t="s">
         <v>581</v>
       </c>
       <c r="D219" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E219" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F219" t="s">
-        <v>2601</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>2602</v>
+        <v>2590</v>
       </c>
       <c r="B220" t="s">
-        <v>2586</v>
+        <v>2606</v>
       </c>
       <c r="C220" t="s">
         <v>581</v>
       </c>
       <c r="D220" t="s">
-        <v>2549</v>
+        <v>2604</v>
       </c>
       <c r="E220" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="F220" t="s">
-        <v>2603</v>
+        <v>2591</v>
       </c>
     </row>
   </sheetData>

--- a/data/05.local.xlsx
+++ b/data/05.local.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/F1CDFC0B-0C69-429C-AD2C-37CD1695F408/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/372CA70A-8579-4FD7-82D2-3B0EF88E7811/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB850C0-A853-344D-91DE-991F7127231A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E627EFA3-4A89-0B4C-AF24-7DEC61431AC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="7540" windowWidth="17740" windowHeight="16580" firstSheet="6" activeTab="7" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
+    <workbookView xWindow="3000" yWindow="4500" windowWidth="17740" windowHeight="19640" firstSheet="6" activeTab="13" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
   </bookViews>
   <sheets>
     <sheet name="sp014" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,14 @@
     <sheet name="sp056" sheetId="10" r:id="rId11"/>
     <sheet name="sp063" sheetId="11" r:id="rId12"/>
     <sheet name="sp064" sheetId="12" r:id="rId13"/>
-    <sheet name="rn99d" sheetId="13" r:id="rId14"/>
-    <sheet name="rn99e" sheetId="14" r:id="rId15"/>
-    <sheet name="bmd" sheetId="16" r:id="rId16"/>
-    <sheet name="bmr" sheetId="17" r:id="rId17"/>
+    <sheet name="sp065" sheetId="20" r:id="rId14"/>
+    <sheet name="rn99d" sheetId="13" r:id="rId15"/>
+    <sheet name="rn99e" sheetId="14" r:id="rId16"/>
+    <sheet name="bmd" sheetId="16" r:id="rId17"/>
+    <sheet name="bmr" sheetId="17" r:id="rId18"/>
+    <sheet name="ch001" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6332" uniqueCount="2607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8025" uniqueCount="3226">
   <si>
     <t>SampleID</t>
   </si>
@@ -7862,6 +7864,1863 @@
   </si>
   <si>
     <t>seedling_meristem</t>
+  </si>
+  <si>
+    <t>s001</t>
+  </si>
+  <si>
+    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001</t>
+  </si>
+  <si>
+    <t>s002</t>
+  </si>
+  <si>
+    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001</t>
+  </si>
+  <si>
+    <t>s003</t>
+  </si>
+  <si>
+    <t>s004</t>
+  </si>
+  <si>
+    <t>s005</t>
+  </si>
+  <si>
+    <t>s006</t>
+  </si>
+  <si>
+    <t>s007</t>
+  </si>
+  <si>
+    <t>s008</t>
+  </si>
+  <si>
+    <t>s009</t>
+  </si>
+  <si>
+    <t>s010</t>
+  </si>
+  <si>
+    <t>s011</t>
+  </si>
+  <si>
+    <t>s012</t>
+  </si>
+  <si>
+    <t>s013</t>
+  </si>
+  <si>
+    <t>s014</t>
+  </si>
+  <si>
+    <t>s015</t>
+  </si>
+  <si>
+    <t>s016</t>
+  </si>
+  <si>
+    <t>s017</t>
+  </si>
+  <si>
+    <t>s018</t>
+  </si>
+  <si>
+    <t>s019</t>
+  </si>
+  <si>
+    <t>s020</t>
+  </si>
+  <si>
+    <t>s021</t>
+  </si>
+  <si>
+    <t>leaf10</t>
+  </si>
+  <si>
+    <t>s022</t>
+  </si>
+  <si>
+    <t>s023</t>
+  </si>
+  <si>
+    <t>s024</t>
+  </si>
+  <si>
+    <t>s025</t>
+  </si>
+  <si>
+    <t>leaf30</t>
+  </si>
+  <si>
+    <t>s026</t>
+  </si>
+  <si>
+    <t>s027</t>
+  </si>
+  <si>
+    <t>s028</t>
+  </si>
+  <si>
+    <t>s029</t>
+  </si>
+  <si>
+    <t>s030</t>
+  </si>
+  <si>
+    <t>s031</t>
+  </si>
+  <si>
+    <t>s032</t>
+  </si>
+  <si>
+    <t>s033</t>
+  </si>
+  <si>
+    <t>shoot</t>
+  </si>
+  <si>
+    <t>s034</t>
+  </si>
+  <si>
+    <t>s035</t>
+  </si>
+  <si>
+    <t>s036</t>
+  </si>
+  <si>
+    <t>s037</t>
+  </si>
+  <si>
+    <t>s038</t>
+  </si>
+  <si>
+    <t>s039</t>
+  </si>
+  <si>
+    <t>s040</t>
+  </si>
+  <si>
+    <t>s041</t>
+  </si>
+  <si>
+    <t>s042</t>
+  </si>
+  <si>
+    <t>s043</t>
+  </si>
+  <si>
+    <t>s044</t>
+  </si>
+  <si>
+    <t>s045</t>
+  </si>
+  <si>
+    <t>s046</t>
+  </si>
+  <si>
+    <t>s047</t>
+  </si>
+  <si>
+    <t>s048</t>
+  </si>
+  <si>
+    <t>s049</t>
+  </si>
+  <si>
+    <t>s050</t>
+  </si>
+  <si>
+    <t>s051</t>
+  </si>
+  <si>
+    <t>s052</t>
+  </si>
+  <si>
+    <t>s053</t>
+  </si>
+  <si>
+    <t>s054</t>
+  </si>
+  <si>
+    <t>s055</t>
+  </si>
+  <si>
+    <t>s056</t>
+  </si>
+  <si>
+    <t>s057</t>
+  </si>
+  <si>
+    <t>s058</t>
+  </si>
+  <si>
+    <t>s059</t>
+  </si>
+  <si>
+    <t>s060</t>
+  </si>
+  <si>
+    <t>s061</t>
+  </si>
+  <si>
+    <t>s062</t>
+  </si>
+  <si>
+    <t>s063</t>
+  </si>
+  <si>
+    <t>s064</t>
+  </si>
+  <si>
+    <t>s065</t>
+  </si>
+  <si>
+    <t>s066</t>
+  </si>
+  <si>
+    <t>s067</t>
+  </si>
+  <si>
+    <t>s068</t>
+  </si>
+  <si>
+    <t>s069</t>
+  </si>
+  <si>
+    <t>s070</t>
+  </si>
+  <si>
+    <t>s071</t>
+  </si>
+  <si>
+    <t>s072</t>
+  </si>
+  <si>
+    <t>s073</t>
+  </si>
+  <si>
+    <t>s074</t>
+  </si>
+  <si>
+    <t>s075</t>
+  </si>
+  <si>
+    <t>s076</t>
+  </si>
+  <si>
+    <t>s077</t>
+  </si>
+  <si>
+    <t>s078</t>
+  </si>
+  <si>
+    <t>s079</t>
+  </si>
+  <si>
+    <t>s080</t>
+  </si>
+  <si>
+    <t>s081</t>
+  </si>
+  <si>
+    <t>s082</t>
+  </si>
+  <si>
+    <t>s083</t>
+  </si>
+  <si>
+    <t>s084</t>
+  </si>
+  <si>
+    <t>s085</t>
+  </si>
+  <si>
+    <t>s086</t>
+  </si>
+  <si>
+    <t>s087</t>
+  </si>
+  <si>
+    <t>s088</t>
+  </si>
+  <si>
+    <t>s089</t>
+  </si>
+  <si>
+    <t>s090</t>
+  </si>
+  <si>
+    <t>s091</t>
+  </si>
+  <si>
+    <t>s092</t>
+  </si>
+  <si>
+    <t>s093</t>
+  </si>
+  <si>
+    <t>s094</t>
+  </si>
+  <si>
+    <t>s095</t>
+  </si>
+  <si>
+    <t>s096</t>
+  </si>
+  <si>
+    <t>s097</t>
+  </si>
+  <si>
+    <t>s098</t>
+  </si>
+  <si>
+    <t>s099</t>
+  </si>
+  <si>
+    <t>s100</t>
+  </si>
+  <si>
+    <t>s101</t>
+  </si>
+  <si>
+    <t>s102</t>
+  </si>
+  <si>
+    <t>s103</t>
+  </si>
+  <si>
+    <t>s104</t>
+  </si>
+  <si>
+    <t>s105</t>
+  </si>
+  <si>
+    <t>s106</t>
+  </si>
+  <si>
+    <t>s107</t>
+  </si>
+  <si>
+    <t>s108</t>
+  </si>
+  <si>
+    <t>s109</t>
+  </si>
+  <si>
+    <t>s110</t>
+  </si>
+  <si>
+    <t>s111</t>
+  </si>
+  <si>
+    <t>s112</t>
+  </si>
+  <si>
+    <t>s113</t>
+  </si>
+  <si>
+    <t>s114</t>
+  </si>
+  <si>
+    <t>s115</t>
+  </si>
+  <si>
+    <t>s116</t>
+  </si>
+  <si>
+    <t>s117</t>
+  </si>
+  <si>
+    <t>s118</t>
+  </si>
+  <si>
+    <t>s119</t>
+  </si>
+  <si>
+    <t>s120</t>
+  </si>
+  <si>
+    <t>B-A-R1_S119</t>
+  </si>
+  <si>
+    <t>B-A-R1_S43</t>
+  </si>
+  <si>
+    <t>B-A-R2_S120</t>
+  </si>
+  <si>
+    <t>B-A-R2_S44</t>
+  </si>
+  <si>
+    <t>B-IE-R1_S113</t>
+  </si>
+  <si>
+    <t>B-IE-R1_S37</t>
+  </si>
+  <si>
+    <t>B-IE-R2_S114</t>
+  </si>
+  <si>
+    <t>B-IE-R2_S38</t>
+  </si>
+  <si>
+    <t>B-Em-R1_S131</t>
+  </si>
+  <si>
+    <t>B-Em-R1_S55</t>
+  </si>
+  <si>
+    <t>B-Em-R2_S132</t>
+  </si>
+  <si>
+    <t>B-Em-R2_S56</t>
+  </si>
+  <si>
+    <t>B-En-R1_S125</t>
+  </si>
+  <si>
+    <t>B-En-R1_S49</t>
+  </si>
+  <si>
+    <t>B-En-R2_S126</t>
+  </si>
+  <si>
+    <t>B-En-R2_S50</t>
+  </si>
+  <si>
+    <t>B-I-R1_S89</t>
+  </si>
+  <si>
+    <t>B-I-R1_S13</t>
+  </si>
+  <si>
+    <t>B-I-R2_S90</t>
+  </si>
+  <si>
+    <t>B-I-R2_S14</t>
+  </si>
+  <si>
+    <t>B-L10-R1_S95</t>
+  </si>
+  <si>
+    <t>B-L10-R1_S19</t>
+  </si>
+  <si>
+    <t>B-L10-R2_S96</t>
+  </si>
+  <si>
+    <t>B-L10-R2_S20</t>
+  </si>
+  <si>
+    <t>B-L-R1_S101</t>
+  </si>
+  <si>
+    <t>B-L-R1_S25</t>
+  </si>
+  <si>
+    <t>B-L-R2_S102</t>
+  </si>
+  <si>
+    <t>B-L-R2_S26</t>
+  </si>
+  <si>
+    <t>B-R-R1_S77</t>
+  </si>
+  <si>
+    <t>B-R-R1_S1</t>
+  </si>
+  <si>
+    <t>B-R-R2_S78</t>
+  </si>
+  <si>
+    <t>B-R-R2_S2</t>
+  </si>
+  <si>
+    <t>B-SC-R1_S83</t>
+  </si>
+  <si>
+    <t>B-SC-R1_S7</t>
+  </si>
+  <si>
+    <t>B-SC-R2_S84</t>
+  </si>
+  <si>
+    <t>B-SC-R2_S8</t>
+  </si>
+  <si>
+    <t>B-T-R1_S107</t>
+  </si>
+  <si>
+    <t>B-T-R1_S31</t>
+  </si>
+  <si>
+    <t>B-T-R2_S108</t>
+  </si>
+  <si>
+    <t>B-T-R2_S32</t>
+  </si>
+  <si>
+    <t>P-A-R1_S121</t>
+  </si>
+  <si>
+    <t>P-A-R1_S45</t>
+  </si>
+  <si>
+    <t>P-A-R2_S122</t>
+  </si>
+  <si>
+    <t>P-A-R2_S46</t>
+  </si>
+  <si>
+    <t>P-IE-R1_S115</t>
+  </si>
+  <si>
+    <t>P-IE-R1_S39</t>
+  </si>
+  <si>
+    <t>P-IE-R2_S116</t>
+  </si>
+  <si>
+    <t>P-IE-R2_S40</t>
+  </si>
+  <si>
+    <t>P-Em-R1_S133</t>
+  </si>
+  <si>
+    <t>P-Em-R1_S57</t>
+  </si>
+  <si>
+    <t>P-Em-R2_S134</t>
+  </si>
+  <si>
+    <t>P-Em-R2_S58</t>
+  </si>
+  <si>
+    <t>P-En-R1_S127</t>
+  </si>
+  <si>
+    <t>P-En-R1_S51</t>
+  </si>
+  <si>
+    <t>P-En-R2_S128</t>
+  </si>
+  <si>
+    <t>P-En-R2_S52</t>
+  </si>
+  <si>
+    <t>P-I-R1_S91</t>
+  </si>
+  <si>
+    <t>P-I-R1_S15</t>
+  </si>
+  <si>
+    <t>P-I-R2_S92</t>
+  </si>
+  <si>
+    <t>P-I-R2_S16</t>
+  </si>
+  <si>
+    <t>P-L10-R1_S97</t>
+  </si>
+  <si>
+    <t>P-L10-R1_S21</t>
+  </si>
+  <si>
+    <t>P-L10-R2_S98</t>
+  </si>
+  <si>
+    <t>P-L10-R2_S22</t>
+  </si>
+  <si>
+    <t>P-L-R1_S103</t>
+  </si>
+  <si>
+    <t>P-L-R1_S27</t>
+  </si>
+  <si>
+    <t>P-L-R2_S104</t>
+  </si>
+  <si>
+    <t>P-L-R2_S28</t>
+  </si>
+  <si>
+    <t>P-R-R1_S79</t>
+  </si>
+  <si>
+    <t>P-R-R1_S3</t>
+  </si>
+  <si>
+    <t>P-R-R2_S80</t>
+  </si>
+  <si>
+    <t>P-R-R2_S4</t>
+  </si>
+  <si>
+    <t>P-SC-R1_S85</t>
+  </si>
+  <si>
+    <t>P-SC-R1_S9</t>
+  </si>
+  <si>
+    <t>P-SC-R2_S86</t>
+  </si>
+  <si>
+    <t>P-SC-R2_S10</t>
+  </si>
+  <si>
+    <t>P-T-R1_S109</t>
+  </si>
+  <si>
+    <t>P-T-R1_S33</t>
+  </si>
+  <si>
+    <t>P-T-R2_S110</t>
+  </si>
+  <si>
+    <t>P-T-R2_S34</t>
+  </si>
+  <si>
+    <t>W-A-R1_S123</t>
+  </si>
+  <si>
+    <t>W-A-R1_S47</t>
+  </si>
+  <si>
+    <t>W-A-R2_S124</t>
+  </si>
+  <si>
+    <t>W-A-R2_S48</t>
+  </si>
+  <si>
+    <t>W-IE-R1_S117</t>
+  </si>
+  <si>
+    <t>W-IE-R1_S41</t>
+  </si>
+  <si>
+    <t>W-IE-R2_S118</t>
+  </si>
+  <si>
+    <t>W-IE-R2_S42</t>
+  </si>
+  <si>
+    <t>W-Em-R1_S135</t>
+  </si>
+  <si>
+    <t>W-Em-R1_S59</t>
+  </si>
+  <si>
+    <t>W-Em-R2_S136</t>
+  </si>
+  <si>
+    <t>W-Em-R2_S60</t>
+  </si>
+  <si>
+    <t>W-En-R1_S129</t>
+  </si>
+  <si>
+    <t>W-En-R1_S53</t>
+  </si>
+  <si>
+    <t>W-En-R2_S130</t>
+  </si>
+  <si>
+    <t>W-En-R2_S54</t>
+  </si>
+  <si>
+    <t>W-I-R1_S93</t>
+  </si>
+  <si>
+    <t>W-I-R1_S17</t>
+  </si>
+  <si>
+    <t>W-I-R2_S94</t>
+  </si>
+  <si>
+    <t>W-I-R2_S18</t>
+  </si>
+  <si>
+    <t>W-L10-R1_S99</t>
+  </si>
+  <si>
+    <t>W-L10-R1_S23</t>
+  </si>
+  <si>
+    <t>W-L10-R2_S100</t>
+  </si>
+  <si>
+    <t>W-L10-R2_S24</t>
+  </si>
+  <si>
+    <t>W-L-R1_S105</t>
+  </si>
+  <si>
+    <t>W-L-R1_S29</t>
+  </si>
+  <si>
+    <t>W-L-R2_S106</t>
+  </si>
+  <si>
+    <t>W-L-R2_S30</t>
+  </si>
+  <si>
+    <t>W-R-R1_S81</t>
+  </si>
+  <si>
+    <t>W-R-R1_S5</t>
+  </si>
+  <si>
+    <t>W-R-R2_S82</t>
+  </si>
+  <si>
+    <t>W-R-R2_S6</t>
+  </si>
+  <si>
+    <t>W-SC-R1_S87</t>
+  </si>
+  <si>
+    <t>W-SC-R1_S11</t>
+  </si>
+  <si>
+    <t>W-SC-R2_S88</t>
+  </si>
+  <si>
+    <t>W-SC-R2_S12</t>
+  </si>
+  <si>
+    <t>W-T-R1_S111</t>
+  </si>
+  <si>
+    <t>W-T-R1_S35</t>
+  </si>
+  <si>
+    <t>W-T-R2_S112</t>
+  </si>
+  <si>
+    <t>W-T-R2_S36</t>
+  </si>
+  <si>
+    <t>tBR502</t>
+  </si>
+  <si>
+    <t>tBR503</t>
+  </si>
+  <si>
+    <t>tBR504</t>
+  </si>
+  <si>
+    <t>tBR506</t>
+  </si>
+  <si>
+    <t>tBR512</t>
+  </si>
+  <si>
+    <t>tBR514</t>
+  </si>
+  <si>
+    <t>A682</t>
+  </si>
+  <si>
+    <t>tBR515</t>
+  </si>
+  <si>
+    <t>tBR516</t>
+  </si>
+  <si>
+    <t>tBR523</t>
+  </si>
+  <si>
+    <t>tBR524</t>
+  </si>
+  <si>
+    <t>tBR526</t>
+  </si>
+  <si>
+    <t>tBR527</t>
+  </si>
+  <si>
+    <t>tBR534</t>
+  </si>
+  <si>
+    <t>A682xB73</t>
+  </si>
+  <si>
+    <t>tBR535</t>
+  </si>
+  <si>
+    <t>tBR536</t>
+  </si>
+  <si>
+    <t>tBR538</t>
+  </si>
+  <si>
+    <t>A682xMo17</t>
+  </si>
+  <si>
+    <t>tBR544</t>
+  </si>
+  <si>
+    <t>tBR546</t>
+  </si>
+  <si>
+    <t>/home/springer/data_release/umgc/novaseq/191010_A00223_0227_AHG3TVDRXX/Springer_Project_065_Pool1</t>
+  </si>
+  <si>
+    <t>tBR502_S1</t>
+  </si>
+  <si>
+    <t>tBR503_S2</t>
+  </si>
+  <si>
+    <t>tBR504_S3</t>
+  </si>
+  <si>
+    <t>tBR506_S4</t>
+  </si>
+  <si>
+    <t>tBR512_S5</t>
+  </si>
+  <si>
+    <t>tBR514_S6</t>
+  </si>
+  <si>
+    <t>tBR515_S7</t>
+  </si>
+  <si>
+    <t>tBR516_S8</t>
+  </si>
+  <si>
+    <t>tBR523_S9</t>
+  </si>
+  <si>
+    <t>tBR524_S10</t>
+  </si>
+  <si>
+    <t>tBR526_S11</t>
+  </si>
+  <si>
+    <t>tBR527_S12</t>
+  </si>
+  <si>
+    <t>tBR534_S13</t>
+  </si>
+  <si>
+    <t>tBR535_S14</t>
+  </si>
+  <si>
+    <t>tBR536_S15</t>
+  </si>
+  <si>
+    <t>tBR538_S16</t>
+  </si>
+  <si>
+    <t>tBR544_S17</t>
+  </si>
+  <si>
+    <t>tBR546_S18</t>
+  </si>
+  <si>
+    <t>tBR507</t>
+  </si>
+  <si>
+    <t>/home/springer/data_release/umgc/novaseq/191010_A00223_0227_AHG3TVDRXX/Springer_Project_065_Pool2</t>
+  </si>
+  <si>
+    <t>tBR507_S19</t>
+  </si>
+  <si>
+    <t>tBR508</t>
+  </si>
+  <si>
+    <t>tBR508_S20</t>
+  </si>
+  <si>
+    <t>tBR510</t>
+  </si>
+  <si>
+    <t>tBR510_S21</t>
+  </si>
+  <si>
+    <t>tBR511</t>
+  </si>
+  <si>
+    <t>tBR511_S22</t>
+  </si>
+  <si>
+    <t>tBR518</t>
+  </si>
+  <si>
+    <t>tBR518_S23</t>
+  </si>
+  <si>
+    <t>tBR519</t>
+  </si>
+  <si>
+    <t>tBR519_S24</t>
+  </si>
+  <si>
+    <t>tBR520</t>
+  </si>
+  <si>
+    <t>tBR520_S25</t>
+  </si>
+  <si>
+    <t>tBR522</t>
+  </si>
+  <si>
+    <t>tBR522_S26</t>
+  </si>
+  <si>
+    <t>tBR528</t>
+  </si>
+  <si>
+    <t>tBR528_S27</t>
+  </si>
+  <si>
+    <t>tBR530</t>
+  </si>
+  <si>
+    <t>tBR530_S28</t>
+  </si>
+  <si>
+    <t>tBR531</t>
+  </si>
+  <si>
+    <t>tBR531_S29</t>
+  </si>
+  <si>
+    <t>tBR532</t>
+  </si>
+  <si>
+    <t>tBR532_S30</t>
+  </si>
+  <si>
+    <t>tBR539</t>
+  </si>
+  <si>
+    <t>tBR539_S31</t>
+  </si>
+  <si>
+    <t>tBR540</t>
+  </si>
+  <si>
+    <t>tBR540_S32</t>
+  </si>
+  <si>
+    <t>tBR542</t>
+  </si>
+  <si>
+    <t>tBR542_S33</t>
+  </si>
+  <si>
+    <t>tBR543</t>
+  </si>
+  <si>
+    <t>tBR543_S34</t>
+  </si>
+  <si>
+    <t>tBR550</t>
+  </si>
+  <si>
+    <t>tBR550_S35</t>
+  </si>
+  <si>
+    <t>tBR551</t>
+  </si>
+  <si>
+    <t>tBR551_S36</t>
+  </si>
+  <si>
+    <t>tBR547</t>
+  </si>
+  <si>
+    <t>/home/springer/data_release/umgc/novaseq/191014_A00223_0231_AHG22WDRXX/Springer_Project_065_Pool3</t>
+  </si>
+  <si>
+    <t>tBR547_S1</t>
+  </si>
+  <si>
+    <t>tBR548</t>
+  </si>
+  <si>
+    <t>tBR548_S2</t>
+  </si>
+  <si>
+    <t>tBR555</t>
+  </si>
+  <si>
+    <t>tBR555_S3</t>
+  </si>
+  <si>
+    <t>tBR556</t>
+  </si>
+  <si>
+    <t>tBR556_S4</t>
+  </si>
+  <si>
+    <t>tBR558</t>
+  </si>
+  <si>
+    <t>tBR558_S5</t>
+  </si>
+  <si>
+    <t>tBR559</t>
+  </si>
+  <si>
+    <t>tBR559_S6</t>
+  </si>
+  <si>
+    <t>tBR566</t>
+  </si>
+  <si>
+    <t>tBR566_S7</t>
+  </si>
+  <si>
+    <t>tBR567</t>
+  </si>
+  <si>
+    <t>tBR567_S8</t>
+  </si>
+  <si>
+    <t>tBR568</t>
+  </si>
+  <si>
+    <t>tBR568_S9</t>
+  </si>
+  <si>
+    <t>tBR570</t>
+  </si>
+  <si>
+    <t>tBR570_S10</t>
+  </si>
+  <si>
+    <t>tBR576</t>
+  </si>
+  <si>
+    <t>tBR576_S11</t>
+  </si>
+  <si>
+    <t>tBR578</t>
+  </si>
+  <si>
+    <t>tBR578_S12</t>
+  </si>
+  <si>
+    <t>tBR579</t>
+  </si>
+  <si>
+    <t>tBR579_S13</t>
+  </si>
+  <si>
+    <t>tBR580</t>
+  </si>
+  <si>
+    <t>tBR580_S14</t>
+  </si>
+  <si>
+    <t>tBR587</t>
+  </si>
+  <si>
+    <t>leaf_V2</t>
+  </si>
+  <si>
+    <t>tBR587_S15</t>
+  </si>
+  <si>
+    <t>tBR588</t>
+  </si>
+  <si>
+    <t>tBR588_S16</t>
+  </si>
+  <si>
+    <t>tBR590</t>
+  </si>
+  <si>
+    <t>tBR590_S17</t>
+  </si>
+  <si>
+    <t>tBR591</t>
+  </si>
+  <si>
+    <t>tBR591_S18</t>
+  </si>
+  <si>
+    <t>tBR552</t>
+  </si>
+  <si>
+    <t>/home/springer/data_release/umgc/novaseq/191014_A00223_0231_AHG22WDRXX/Springer_Project_065_Pool4</t>
+  </si>
+  <si>
+    <t>tBR552_S19</t>
+  </si>
+  <si>
+    <t>tBR554</t>
+  </si>
+  <si>
+    <t>tBR554_S20</t>
+  </si>
+  <si>
+    <t>tBR560</t>
+  </si>
+  <si>
+    <t>tBR560_S21</t>
+  </si>
+  <si>
+    <t>tBR562</t>
+  </si>
+  <si>
+    <t>tBR562_S22</t>
+  </si>
+  <si>
+    <t>tBR563</t>
+  </si>
+  <si>
+    <t>tBR563_S23</t>
+  </si>
+  <si>
+    <t>tBR564</t>
+  </si>
+  <si>
+    <t>tBR564_S24</t>
+  </si>
+  <si>
+    <t>tBR571</t>
+  </si>
+  <si>
+    <t>tBR571_S25</t>
+  </si>
+  <si>
+    <t>tBR572</t>
+  </si>
+  <si>
+    <t>tBR572_S26</t>
+  </si>
+  <si>
+    <t>tBR574</t>
+  </si>
+  <si>
+    <t>tBR574_S27</t>
+  </si>
+  <si>
+    <t>tBR575</t>
+  </si>
+  <si>
+    <t>tBR575_S28</t>
+  </si>
+  <si>
+    <t>tBR582</t>
+  </si>
+  <si>
+    <t>tBR582_S29</t>
+  </si>
+  <si>
+    <t>tBR583</t>
+  </si>
+  <si>
+    <t>tBR583_S30</t>
+  </si>
+  <si>
+    <t>tBR584</t>
+  </si>
+  <si>
+    <t>tBR584_S31</t>
+  </si>
+  <si>
+    <t>tBR586</t>
+  </si>
+  <si>
+    <t>tBR586_S32</t>
+  </si>
+  <si>
+    <t>tBR592</t>
+  </si>
+  <si>
+    <t>tBR592_S33</t>
+  </si>
+  <si>
+    <t>tBR594</t>
+  </si>
+  <si>
+    <t>tBR594_S34</t>
+  </si>
+  <si>
+    <t>tBR595</t>
+  </si>
+  <si>
+    <t>tBR595_S35</t>
+  </si>
+  <si>
+    <t>tBR596</t>
+  </si>
+  <si>
+    <t>tBR596_S36</t>
+  </si>
+  <si>
+    <t>mBR542</t>
+  </si>
+  <si>
+    <t>/home/springer/data_release/umgc/novaseq/191023_A00223_0238_BHG57FDRXX/Springer_Project_065_Pool7</t>
+  </si>
+  <si>
+    <t>mBR542_S1</t>
+  </si>
+  <si>
+    <t>mBR543</t>
+  </si>
+  <si>
+    <t>mBR543_S2</t>
+  </si>
+  <si>
+    <t>mBR544</t>
+  </si>
+  <si>
+    <t>mBR544_S3</t>
+  </si>
+  <si>
+    <t>mBR546</t>
+  </si>
+  <si>
+    <t>mBR546_S4</t>
+  </si>
+  <si>
+    <t>mBR547</t>
+  </si>
+  <si>
+    <t>mBR547_S5</t>
+  </si>
+  <si>
+    <t>mBR548</t>
+  </si>
+  <si>
+    <t>mBR548_S6</t>
+  </si>
+  <si>
+    <t>mBR550</t>
+  </si>
+  <si>
+    <t>mBR550_S7</t>
+  </si>
+  <si>
+    <t>mBR551</t>
+  </si>
+  <si>
+    <t>mBR551_S8</t>
+  </si>
+  <si>
+    <t>mBR552</t>
+  </si>
+  <si>
+    <t>mBR552_S9</t>
+  </si>
+  <si>
+    <t>mBR554</t>
+  </si>
+  <si>
+    <t>mBR554_S10</t>
+  </si>
+  <si>
+    <t>mBR555</t>
+  </si>
+  <si>
+    <t>mBR555_S11</t>
+  </si>
+  <si>
+    <t>mBR556</t>
+  </si>
+  <si>
+    <t>mBR556_S12</t>
+  </si>
+  <si>
+    <t>mBR558</t>
+  </si>
+  <si>
+    <t>mBR558_S13</t>
+  </si>
+  <si>
+    <t>mBR559</t>
+  </si>
+  <si>
+    <t>mBR559_S14</t>
+  </si>
+  <si>
+    <t>mBR560</t>
+  </si>
+  <si>
+    <t>mBR560_S15</t>
+  </si>
+  <si>
+    <t>mBR562</t>
+  </si>
+  <si>
+    <t>mBR562_S16</t>
+  </si>
+  <si>
+    <t>mBR563</t>
+  </si>
+  <si>
+    <t>mBR563_S17</t>
+  </si>
+  <si>
+    <t>mBR564</t>
+  </si>
+  <si>
+    <t>mBR564_S18</t>
+  </si>
+  <si>
+    <t>mBR566</t>
+  </si>
+  <si>
+    <t>mBR566_S19</t>
+  </si>
+  <si>
+    <t>mBR567</t>
+  </si>
+  <si>
+    <t>mBR567_S20</t>
+  </si>
+  <si>
+    <t>mBR568</t>
+  </si>
+  <si>
+    <t>mBR568_S21</t>
+  </si>
+  <si>
+    <t>mBR570</t>
+  </si>
+  <si>
+    <t>mBR570_S22</t>
+  </si>
+  <si>
+    <t>mBR571</t>
+  </si>
+  <si>
+    <t>mBR571_S23</t>
+  </si>
+  <si>
+    <t>mBR572</t>
+  </si>
+  <si>
+    <t>mBR572_S24</t>
+  </si>
+  <si>
+    <t>mBR574</t>
+  </si>
+  <si>
+    <t>mBR574_S25</t>
+  </si>
+  <si>
+    <t>mBR575</t>
+  </si>
+  <si>
+    <t>mBR575_S26</t>
+  </si>
+  <si>
+    <t>mBR576</t>
+  </si>
+  <si>
+    <t>mBR576_S27</t>
+  </si>
+  <si>
+    <t>mBR578</t>
+  </si>
+  <si>
+    <t>mBR578_S28</t>
+  </si>
+  <si>
+    <t>mBR579</t>
+  </si>
+  <si>
+    <t>mBR579_S29</t>
+  </si>
+  <si>
+    <t>mBR580</t>
+  </si>
+  <si>
+    <t>mBR580_S30</t>
+  </si>
+  <si>
+    <t>mBR582</t>
+  </si>
+  <si>
+    <t>/home/springer/data_release/umgc/novaseq/191023_A00223_0238_BHG57FDRXX/Springer_Project_065_Pool8</t>
+  </si>
+  <si>
+    <t>mBR582_S31</t>
+  </si>
+  <si>
+    <t>mBR583</t>
+  </si>
+  <si>
+    <t>mBR583_S32</t>
+  </si>
+  <si>
+    <t>mBR584</t>
+  </si>
+  <si>
+    <t>mBR584_S33</t>
+  </si>
+  <si>
+    <t>mBR586</t>
+  </si>
+  <si>
+    <t>mBR586_S34</t>
+  </si>
+  <si>
+    <t>mBR587</t>
+  </si>
+  <si>
+    <t>mBR587_S35</t>
+  </si>
+  <si>
+    <t>mBR588</t>
+  </si>
+  <si>
+    <t>mBR588_S36</t>
+  </si>
+  <si>
+    <t>mBR590</t>
+  </si>
+  <si>
+    <t>mBR590_S37</t>
+  </si>
+  <si>
+    <t>mBR591</t>
+  </si>
+  <si>
+    <t>mBR591_S38</t>
+  </si>
+  <si>
+    <t>mBR592</t>
+  </si>
+  <si>
+    <t>mBR592_S39</t>
+  </si>
+  <si>
+    <t>mBR594</t>
+  </si>
+  <si>
+    <t>mBR594_S40</t>
+  </si>
+  <si>
+    <t>mBR595</t>
+  </si>
+  <si>
+    <t>mBR595_S41</t>
+  </si>
+  <si>
+    <t>mBR596</t>
+  </si>
+  <si>
+    <t>mBR596_S42</t>
+  </si>
+  <si>
+    <t>mBR598</t>
+  </si>
+  <si>
+    <t>mBR598_S43</t>
+  </si>
+  <si>
+    <t>mBR599</t>
+  </si>
+  <si>
+    <t>mBR599_S44</t>
+  </si>
+  <si>
+    <t>mBR600</t>
+  </si>
+  <si>
+    <t>mBR600_S45</t>
+  </si>
+  <si>
+    <t>mBR602</t>
+  </si>
+  <si>
+    <t>mBR602_S46</t>
+  </si>
+  <si>
+    <t>mBR603</t>
+  </si>
+  <si>
+    <t>mBR603_S47</t>
+  </si>
+  <si>
+    <t>mBR604</t>
+  </si>
+  <si>
+    <t>mBR604_S48</t>
+  </si>
+  <si>
+    <t>mBR606</t>
+  </si>
+  <si>
+    <t>mBR606_S49</t>
+  </si>
+  <si>
+    <t>mBR607</t>
+  </si>
+  <si>
+    <t>mBR607_S50</t>
+  </si>
+  <si>
+    <t>mBR608</t>
+  </si>
+  <si>
+    <t>mBR608_S51</t>
+  </si>
+  <si>
+    <t>mBR610</t>
+  </si>
+  <si>
+    <t>mBR610_S52</t>
+  </si>
+  <si>
+    <t>mBR611</t>
+  </si>
+  <si>
+    <t>mBR611_S53</t>
+  </si>
+  <si>
+    <t>mBR612</t>
+  </si>
+  <si>
+    <t>mBR612_S54</t>
+  </si>
+  <si>
+    <t>mBR614</t>
+  </si>
+  <si>
+    <t>mBR614_S55</t>
+  </si>
+  <si>
+    <t>mBR615</t>
+  </si>
+  <si>
+    <t>mBR615_S56</t>
+  </si>
+  <si>
+    <t>mBR616</t>
+  </si>
+  <si>
+    <t>mBR616_S57</t>
+  </si>
+  <si>
+    <t>mBR618</t>
+  </si>
+  <si>
+    <t>mBR618_S58</t>
+  </si>
+  <si>
+    <t>mBR619</t>
+  </si>
+  <si>
+    <t>mBR619_S59</t>
+  </si>
+  <si>
+    <t>mBR620</t>
+  </si>
+  <si>
+    <t>mBR620_S60</t>
+  </si>
+  <si>
+    <t>tBR598</t>
+  </si>
+  <si>
+    <t>/home/springer/data_release/umgc/novaseq/191023_A00223_0239_AHGLLLDRXX/Springer_Project_065_Pool5</t>
+  </si>
+  <si>
+    <t>tBR598_S1</t>
+  </si>
+  <si>
+    <t>tBR599</t>
+  </si>
+  <si>
+    <t>tBR599_S2</t>
+  </si>
+  <si>
+    <t>tBR600</t>
+  </si>
+  <si>
+    <t>tBR600_S3</t>
+  </si>
+  <si>
+    <t>tBR602</t>
+  </si>
+  <si>
+    <t>tBR602_S4</t>
+  </si>
+  <si>
+    <t>tBR603</t>
+  </si>
+  <si>
+    <t>tBR603_S5</t>
+  </si>
+  <si>
+    <t>tBR604</t>
+  </si>
+  <si>
+    <t>tBR604_S6</t>
+  </si>
+  <si>
+    <t>tBR606</t>
+  </si>
+  <si>
+    <t>tBR606_S7</t>
+  </si>
+  <si>
+    <t>tBR607</t>
+  </si>
+  <si>
+    <t>tBR607_S8</t>
+  </si>
+  <si>
+    <t>tBR608</t>
+  </si>
+  <si>
+    <t>tBR608_S9</t>
+  </si>
+  <si>
+    <t>tBR610</t>
+  </si>
+  <si>
+    <t>tBR610_S10</t>
+  </si>
+  <si>
+    <t>tBR611</t>
+  </si>
+  <si>
+    <t>tBR611_S11</t>
+  </si>
+  <si>
+    <t>tBR612</t>
+  </si>
+  <si>
+    <t>tBR612_S12</t>
+  </si>
+  <si>
+    <t>tBR614</t>
+  </si>
+  <si>
+    <t>tBR614_S13</t>
+  </si>
+  <si>
+    <t>tBR615</t>
+  </si>
+  <si>
+    <t>tBR615_S14</t>
+  </si>
+  <si>
+    <t>tBR616</t>
+  </si>
+  <si>
+    <t>tBR616_S15</t>
+  </si>
+  <si>
+    <t>tBR618</t>
+  </si>
+  <si>
+    <t>tBR618_S16</t>
+  </si>
+  <si>
+    <t>tBR619</t>
+  </si>
+  <si>
+    <t>tBR619_S17</t>
+  </si>
+  <si>
+    <t>tBR620</t>
+  </si>
+  <si>
+    <t>tBR620_S18</t>
+  </si>
+  <si>
+    <t>mBR502</t>
+  </si>
+  <si>
+    <t>/home/springer/data_release/umgc/novaseq/191023_A00223_0239_AHGLLLDRXX/Springer_Project_065_Pool6</t>
+  </si>
+  <si>
+    <t>mBR502_S19</t>
+  </si>
+  <si>
+    <t>mBR503</t>
+  </si>
+  <si>
+    <t>mBR503_S20</t>
+  </si>
+  <si>
+    <t>mBR504</t>
+  </si>
+  <si>
+    <t>mBR504_S21</t>
+  </si>
+  <si>
+    <t>mBR506</t>
+  </si>
+  <si>
+    <t>mBR506_S22</t>
+  </si>
+  <si>
+    <t>mBR507</t>
+  </si>
+  <si>
+    <t>mBR507_S23</t>
+  </si>
+  <si>
+    <t>mBR508</t>
+  </si>
+  <si>
+    <t>mBR508_S24</t>
+  </si>
+  <si>
+    <t>mBR510</t>
+  </si>
+  <si>
+    <t>mBR510_S25</t>
+  </si>
+  <si>
+    <t>mBR511</t>
+  </si>
+  <si>
+    <t>mBR511_S26</t>
+  </si>
+  <si>
+    <t>mBR512</t>
+  </si>
+  <si>
+    <t>mBR512_S27</t>
+  </si>
+  <si>
+    <t>mBR514</t>
+  </si>
+  <si>
+    <t>mBR514_S28</t>
+  </si>
+  <si>
+    <t>mBR515</t>
+  </si>
+  <si>
+    <t>mBR515_S29</t>
+  </si>
+  <si>
+    <t>mBR516</t>
+  </si>
+  <si>
+    <t>mBR516_S30</t>
+  </si>
+  <si>
+    <t>mBR518</t>
+  </si>
+  <si>
+    <t>mBR518_S31</t>
+  </si>
+  <si>
+    <t>mBR519</t>
+  </si>
+  <si>
+    <t>mBR519_S32</t>
+  </si>
+  <si>
+    <t>mBR520</t>
+  </si>
+  <si>
+    <t>mBR520_S33</t>
+  </si>
+  <si>
+    <t>mBR522</t>
+  </si>
+  <si>
+    <t>mBR522_S34</t>
+  </si>
+  <si>
+    <t>mBR523</t>
+  </si>
+  <si>
+    <t>mBR523_S35</t>
+  </si>
+  <si>
+    <t>mBR524</t>
+  </si>
+  <si>
+    <t>mBR524_S36</t>
+  </si>
+  <si>
+    <t>mBR526</t>
+  </si>
+  <si>
+    <t>mBR526_S37</t>
+  </si>
+  <si>
+    <t>mBR527</t>
+  </si>
+  <si>
+    <t>mBR527_S38</t>
+  </si>
+  <si>
+    <t>mBR528</t>
+  </si>
+  <si>
+    <t>mBR528_S39</t>
+  </si>
+  <si>
+    <t>mBR530</t>
+  </si>
+  <si>
+    <t>mBR530_S40</t>
+  </si>
+  <si>
+    <t>mBR531</t>
+  </si>
+  <si>
+    <t>mBR531_S41</t>
+  </si>
+  <si>
+    <t>mBR532</t>
+  </si>
+  <si>
+    <t>mBR532_S42</t>
+  </si>
+  <si>
+    <t>mBR534</t>
+  </si>
+  <si>
+    <t>mBR534_S43</t>
+  </si>
+  <si>
+    <t>mBR535</t>
+  </si>
+  <si>
+    <t>mBR535_S44</t>
+  </si>
+  <si>
+    <t>mBR536</t>
+  </si>
+  <si>
+    <t>mBR536_S45</t>
+  </si>
+  <si>
+    <t>mBR538</t>
+  </si>
+  <si>
+    <t>mBR538_S46</t>
+  </si>
+  <si>
+    <t>mBR539</t>
+  </si>
+  <si>
+    <t>mBR539_S47</t>
+  </si>
+  <si>
+    <t>mBR540</t>
+  </si>
+  <si>
+    <t>mBR540_S48</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -8730,7 +10589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0B2E70-A4F6-3A45-9CD4-E504FBC2F58F}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9254,7 +11115,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9492,6 +11353,4188 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA90F984-542C-5142-8148-3C55133D92D0}">
+  <dimension ref="A1:G181"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G182"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C5" t="s">
+        <v>958</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C19" t="s">
+        <v>958</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C20" t="s">
+        <v>958</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C21" t="s">
+        <v>958</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C25" t="s">
+        <v>581</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C26" t="s">
+        <v>581</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C38" t="s">
+        <v>958</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C39" t="s">
+        <v>958</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C42" t="s">
+        <v>581</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C43" t="s">
+        <v>581</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C52" t="s">
+        <v>958</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C53" t="s">
+        <v>958</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G56" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C58" t="s">
+        <v>581</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G60" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G62" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G63" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G64" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G65" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G66" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G67" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G68" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C69" t="s">
+        <v>958</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G69" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G70" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G71" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G72" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G73" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G74" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G75" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G76" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C77" t="s">
+        <v>958</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G77" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C78" t="s">
+        <v>958</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G78" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C79" t="s">
+        <v>958</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G79" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G80" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G81" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G82" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G83" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G84" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G85" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C86" t="s">
+        <v>581</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G86" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C87" t="s">
+        <v>581</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G87" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C88" t="s">
+        <v>581</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G88" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G89" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G90" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G91" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G92" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G93" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G94" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G95" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G96" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G97" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G98" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G99" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G100" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G101" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G102" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G103" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G104" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G106" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C107" t="s">
+        <v>958</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G107" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C108" t="s">
+        <v>958</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G108" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C109" t="s">
+        <v>958</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="F109" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G109" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G110" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G111" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G112" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G113" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G114" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G115" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C116" t="s">
+        <v>581</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G116" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C117" t="s">
+        <v>581</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G117" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C118" t="s">
+        <v>581</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="F118" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G118" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G119" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D120" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G120" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G121" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G122" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D123" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G123" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D124" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G124" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G125" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="F126" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G126" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G127" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G128" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D129" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="F129" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G129" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+      <c r="F130" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G130" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G131" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G132" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G133" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C134" t="s">
+        <v>581</v>
+      </c>
+      <c r="D134" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G134" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C135" t="s">
+        <v>581</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G135" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C136" t="s">
+        <v>581</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="F136" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G136" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G137" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="F138" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G138" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D139" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E139">
+        <v>4</v>
+      </c>
+      <c r="F139" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G139" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G140" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D141" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="F141" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G141" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
+      <c r="F142" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G142" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G143" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G144" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D145" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+      <c r="F145" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G145" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D146" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G146" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D147" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G147" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D148" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E148">
+        <v>4</v>
+      </c>
+      <c r="F148" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G148" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G149" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D150" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E150">
+        <v>3</v>
+      </c>
+      <c r="F150" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G150" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D151" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E151">
+        <v>4</v>
+      </c>
+      <c r="F151" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G151" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G152" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E153">
+        <v>3</v>
+      </c>
+      <c r="F153" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G153" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E154">
+        <v>4</v>
+      </c>
+      <c r="F154" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G154" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C155" t="s">
+        <v>958</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G155" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C156" t="s">
+        <v>958</v>
+      </c>
+      <c r="D156" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E156">
+        <v>3</v>
+      </c>
+      <c r="F156" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G156" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C157" t="s">
+        <v>958</v>
+      </c>
+      <c r="D157" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E157">
+        <v>4</v>
+      </c>
+      <c r="F157" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G157" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G158" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E159">
+        <v>3</v>
+      </c>
+      <c r="F159" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G159" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E160">
+        <v>4</v>
+      </c>
+      <c r="F160" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G160" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D161" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G161" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D162" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="F162" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G162" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D163" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E163">
+        <v>4</v>
+      </c>
+      <c r="F163" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G163" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C164" t="s">
+        <v>581</v>
+      </c>
+      <c r="D164" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G164" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C165" t="s">
+        <v>581</v>
+      </c>
+      <c r="D165" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E165">
+        <v>3</v>
+      </c>
+      <c r="F165" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G165" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C166" t="s">
+        <v>581</v>
+      </c>
+      <c r="D166" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E166">
+        <v>4</v>
+      </c>
+      <c r="F166" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G166" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D167" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G167" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D168" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E168">
+        <v>3</v>
+      </c>
+      <c r="F168" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G168" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E169">
+        <v>4</v>
+      </c>
+      <c r="F169" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G169" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D170" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G170" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D171" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E171">
+        <v>3</v>
+      </c>
+      <c r="F171" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G171" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+      <c r="F172" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G172" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G173" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D174" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+      <c r="F174" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G174" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D175" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E175">
+        <v>4</v>
+      </c>
+      <c r="F175" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G175" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D176" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G176" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D177" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E177">
+        <v>3</v>
+      </c>
+      <c r="F177" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G177" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D178" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E178">
+        <v>4</v>
+      </c>
+      <c r="F178" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G178" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B179" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D179" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G179" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D180" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E180">
+        <v>3</v>
+      </c>
+      <c r="F180" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G180" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D181" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E181">
+        <v>4</v>
+      </c>
+      <c r="F181" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G181" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F70A50-2A0B-7B49-81E8-846B986DBDDD}">
   <dimension ref="A1:G95"/>
   <sheetViews>
@@ -11418,7 +17461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEEF6E7-D5AF-FF45-8301-F32B5937210B}">
   <dimension ref="A1:H41"/>
   <sheetViews>
@@ -12334,7 +18377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4105E42-E498-DD4E-B612-1744FC6E661B}">
   <dimension ref="A1:F120"/>
   <sheetViews>
@@ -13384,7 +19427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CE52BF-3A22-3245-B0A4-337E63B32AFB}">
   <dimension ref="A1:H468"/>
   <sheetViews>
@@ -25042,6 +31085,2441 @@
       </c>
       <c r="H468" t="s">
         <v>2135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F1875A-8185-0F4D-99A2-78882AE521F7}">
+  <dimension ref="A1:F121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>777</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>777</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>777</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>777</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>614</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>614</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>614</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>614</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>583</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>583</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>583</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>583</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>554</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>554</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>554</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>554</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
+        <v>777</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" t="s">
+        <v>777</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>777</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>777</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
+        <v>614</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>614</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" t="s">
+        <v>614</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>614</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F61" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F64" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F66" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F67" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F68" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F69" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>583</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F70" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>583</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F71" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" t="s">
+        <v>583</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>583</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F75" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F76" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F77" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F78" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F79" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F80" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F81" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" t="s">
+        <v>554</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F82" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" t="s">
+        <v>554</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F83" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" t="s">
+        <v>554</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F84" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B85" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" t="s">
+        <v>554</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F85" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F86" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B87" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F87" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B88" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F88" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F89" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B90" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" t="s">
+        <v>777</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F90" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" t="s">
+        <v>777</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F91" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" t="s">
+        <v>777</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F92" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" t="s">
+        <v>777</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F93" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B94" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" t="s">
+        <v>614</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F94" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B95" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" t="s">
+        <v>614</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F95" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B96" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" t="s">
+        <v>614</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F96" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B97" t="s">
+        <v>79</v>
+      </c>
+      <c r="C97" t="s">
+        <v>614</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F97" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F98" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B99" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F99" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B100" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F100" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B101" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F101" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F102" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B103" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F103" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F104" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F105" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B106" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F106" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B107" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F107" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B108" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F108" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B109" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F109" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B110" t="s">
+        <v>79</v>
+      </c>
+      <c r="C110" t="s">
+        <v>583</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F110" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B111" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" t="s">
+        <v>583</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F111" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" t="s">
+        <v>583</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F112" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B113" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" t="s">
+        <v>583</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F113" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B114" t="s">
+        <v>79</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F114" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B115" t="s">
+        <v>79</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F115" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B116" t="s">
+        <v>79</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F116" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B117" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F117" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B118" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F118" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B119" t="s">
+        <v>79</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F119" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B120" t="s">
+        <v>79</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F120" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B121" t="s">
+        <v>79</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F121" t="s">
+        <v>2851</v>
       </c>
     </row>
   </sheetData>
@@ -27573,7 +36051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CBEAC7-07D3-7A47-96CF-0BC4B3551ED8}">
   <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/05.local.xlsx
+++ b/data/05.local.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/B75CC017-1787-4DAC-8C64-E276EC9900FD/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/F012FA18-7384-4774-9FD8-1F8599C213BE/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F5AAEC-EF92-3740-877D-E7548C933E49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA7519B-8673-F245-9380-1205C3FCE2DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13580" yWindow="6640" windowWidth="24260" windowHeight="19960" firstSheet="11" activeTab="16" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
+    <workbookView xWindow="19760" yWindow="6320" windowWidth="24260" windowHeight="19960" firstSheet="11" activeTab="16" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
   </bookViews>
   <sheets>
     <sheet name="sp014" sheetId="1" r:id="rId1"/>
@@ -29,16 +29,17 @@
     <sheet name="sp064" sheetId="12" r:id="rId14"/>
     <sheet name="sp065" sheetId="20" r:id="rId15"/>
     <sheet name="sp067" sheetId="26" r:id="rId16"/>
-    <sheet name="sp070" sheetId="27" r:id="rId17"/>
-    <sheet name="sp068a" sheetId="24" r:id="rId18"/>
-    <sheet name="sp068b" sheetId="25" r:id="rId19"/>
-    <sheet name="rn19f" sheetId="22" r:id="rId20"/>
-    <sheet name="rn20a2" sheetId="23" r:id="rId21"/>
-    <sheet name="rn20a3" sheetId="13" r:id="rId22"/>
-    <sheet name="rn99e" sheetId="14" r:id="rId23"/>
-    <sheet name="bmd" sheetId="16" r:id="rId24"/>
-    <sheet name="bmr" sheetId="17" r:id="rId25"/>
-    <sheet name="ch001" sheetId="19" r:id="rId26"/>
+    <sheet name="sp069" sheetId="28" r:id="rId17"/>
+    <sheet name="sp070" sheetId="27" r:id="rId18"/>
+    <sheet name="sp068a" sheetId="24" r:id="rId19"/>
+    <sheet name="sp068b" sheetId="25" r:id="rId20"/>
+    <sheet name="rn19f" sheetId="22" r:id="rId21"/>
+    <sheet name="rn20a2" sheetId="23" r:id="rId22"/>
+    <sheet name="rn20a3" sheetId="13" r:id="rId23"/>
+    <sheet name="rn99e" sheetId="14" r:id="rId24"/>
+    <sheet name="bmd" sheetId="16" r:id="rId25"/>
+    <sheet name="bmr" sheetId="17" r:id="rId26"/>
+    <sheet name="ch001" sheetId="19" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10516" uniqueCount="4202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11106" uniqueCount="4593">
   <si>
     <t>SampleID</t>
   </si>
@@ -12656,13 +12657,1186 @@
   </si>
   <si>
     <t>BN4</t>
+  </si>
+  <si>
+    <t>/home/springer/data_release/umgc/novaseq/200128_A00223_0311_AHLCMJDSXX/Springer_Project_069</t>
+  </si>
+  <si>
+    <t>HY100_S178</t>
+  </si>
+  <si>
+    <t>HY101_S179</t>
+  </si>
+  <si>
+    <t>HY102_S180</t>
+  </si>
+  <si>
+    <t>HY103_S181</t>
+  </si>
+  <si>
+    <t>HY104_S182</t>
+  </si>
+  <si>
+    <t>HY105_S183</t>
+  </si>
+  <si>
+    <t>HY106_S184</t>
+  </si>
+  <si>
+    <t>HY107_S185</t>
+  </si>
+  <si>
+    <t>HY108_S186</t>
+  </si>
+  <si>
+    <t>HY109_S187</t>
+  </si>
+  <si>
+    <t>HY10_S88</t>
+  </si>
+  <si>
+    <t>HY110_S188</t>
+  </si>
+  <si>
+    <t>HY111_S189</t>
+  </si>
+  <si>
+    <t>HY112_S190</t>
+  </si>
+  <si>
+    <t>HY113_S191</t>
+  </si>
+  <si>
+    <t>HY114_S192</t>
+  </si>
+  <si>
+    <t>HY115_S193</t>
+  </si>
+  <si>
+    <t>HY116_S194</t>
+  </si>
+  <si>
+    <t>HY117_S195</t>
+  </si>
+  <si>
+    <t>HY118_S196</t>
+  </si>
+  <si>
+    <t>HY119_S283</t>
+  </si>
+  <si>
+    <t>HY11_S89</t>
+  </si>
+  <si>
+    <t>HY120_S284</t>
+  </si>
+  <si>
+    <t>HY121_S285</t>
+  </si>
+  <si>
+    <t>HY122_S286</t>
+  </si>
+  <si>
+    <t>HY123_S287</t>
+  </si>
+  <si>
+    <t>HY124_S288</t>
+  </si>
+  <si>
+    <t>HY125_S289</t>
+  </si>
+  <si>
+    <t>HY126_S290</t>
+  </si>
+  <si>
+    <t>HY12_S90</t>
+  </si>
+  <si>
+    <t>HY13_S91</t>
+  </si>
+  <si>
+    <t>HY14_S92</t>
+  </si>
+  <si>
+    <t>HY15_S93</t>
+  </si>
+  <si>
+    <t>HY16_S94</t>
+  </si>
+  <si>
+    <t>HY17_S95</t>
+  </si>
+  <si>
+    <t>HY18_S96</t>
+  </si>
+  <si>
+    <t>HY19_S98</t>
+  </si>
+  <si>
+    <t>HY1_S79</t>
+  </si>
+  <si>
+    <t>HY20_S99</t>
+  </si>
+  <si>
+    <t>HY21_S100</t>
+  </si>
+  <si>
+    <t>HY22_S101</t>
+  </si>
+  <si>
+    <t>HY23_S102</t>
+  </si>
+  <si>
+    <t>HY24_S103</t>
+  </si>
+  <si>
+    <t>HY25_S104</t>
+  </si>
+  <si>
+    <t>HY26_S105</t>
+  </si>
+  <si>
+    <t>HY27_S106</t>
+  </si>
+  <si>
+    <t>HY28_S107</t>
+  </si>
+  <si>
+    <t>HY29_S108</t>
+  </si>
+  <si>
+    <t>HY2_S80</t>
+  </si>
+  <si>
+    <t>HY30_S109</t>
+  </si>
+  <si>
+    <t>HY31_S110</t>
+  </si>
+  <si>
+    <t>HY32_S111</t>
+  </si>
+  <si>
+    <t>HY33_S112</t>
+  </si>
+  <si>
+    <t>HY34_S291</t>
+  </si>
+  <si>
+    <t>HY35_S113</t>
+  </si>
+  <si>
+    <t>HY36_S114</t>
+  </si>
+  <si>
+    <t>HY37_S115</t>
+  </si>
+  <si>
+    <t>HY38_S116</t>
+  </si>
+  <si>
+    <t>HY39_S117</t>
+  </si>
+  <si>
+    <t>HY3_S81</t>
+  </si>
+  <si>
+    <t>HY40_S118</t>
+  </si>
+  <si>
+    <t>HY41_S119</t>
+  </si>
+  <si>
+    <t>HY42_S120</t>
+  </si>
+  <si>
+    <t>HY43_S121</t>
+  </si>
+  <si>
+    <t>HY44_S122</t>
+  </si>
+  <si>
+    <t>HY45_S123</t>
+  </si>
+  <si>
+    <t>HY46_S124</t>
+  </si>
+  <si>
+    <t>HY47_S125</t>
+  </si>
+  <si>
+    <t>HY48_S126</t>
+  </si>
+  <si>
+    <t>HY49_S127</t>
+  </si>
+  <si>
+    <t>HY4_S82</t>
+  </si>
+  <si>
+    <t>HY50_S128</t>
+  </si>
+  <si>
+    <t>HY51_S129</t>
+  </si>
+  <si>
+    <t>HY52_S130</t>
+  </si>
+  <si>
+    <t>HY53_S131</t>
+  </si>
+  <si>
+    <t>HY54_S132</t>
+  </si>
+  <si>
+    <t>HY55_S133</t>
+  </si>
+  <si>
+    <t>HY56_S134</t>
+  </si>
+  <si>
+    <t>HY57_S135</t>
+  </si>
+  <si>
+    <t>HY58_S136</t>
+  </si>
+  <si>
+    <t>HY59_S137</t>
+  </si>
+  <si>
+    <t>HY5_S83</t>
+  </si>
+  <si>
+    <t>HY60_S138</t>
+  </si>
+  <si>
+    <t>HY61_S139</t>
+  </si>
+  <si>
+    <t>HY62_S140</t>
+  </si>
+  <si>
+    <t>HY63_S141</t>
+  </si>
+  <si>
+    <t>HY64_S142</t>
+  </si>
+  <si>
+    <t>HY65_S143</t>
+  </si>
+  <si>
+    <t>HY66_S144</t>
+  </si>
+  <si>
+    <t>HY67_S145</t>
+  </si>
+  <si>
+    <t>HY68_S146</t>
+  </si>
+  <si>
+    <t>HY69_S147</t>
+  </si>
+  <si>
+    <t>HY6_S84</t>
+  </si>
+  <si>
+    <t>HY70_S148</t>
+  </si>
+  <si>
+    <t>HY71_S149</t>
+  </si>
+  <si>
+    <t>HY72_S150</t>
+  </si>
+  <si>
+    <t>HY73_S151</t>
+  </si>
+  <si>
+    <t>HY74_S152</t>
+  </si>
+  <si>
+    <t>HY75_S153</t>
+  </si>
+  <si>
+    <t>HY76_S154</t>
+  </si>
+  <si>
+    <t>HY77_S155</t>
+  </si>
+  <si>
+    <t>HY78_S156</t>
+  </si>
+  <si>
+    <t>HY79_S157</t>
+  </si>
+  <si>
+    <t>HY7_S85</t>
+  </si>
+  <si>
+    <t>HY80_S158</t>
+  </si>
+  <si>
+    <t>HY81_S159</t>
+  </si>
+  <si>
+    <t>HY82_S160</t>
+  </si>
+  <si>
+    <t>HY83_S161</t>
+  </si>
+  <si>
+    <t>HY84_S162</t>
+  </si>
+  <si>
+    <t>HY85_S163</t>
+  </si>
+  <si>
+    <t>HY86_S164</t>
+  </si>
+  <si>
+    <t>HY87_S165</t>
+  </si>
+  <si>
+    <t>HY88_S166</t>
+  </si>
+  <si>
+    <t>HY89_S167</t>
+  </si>
+  <si>
+    <t>HY8_S86</t>
+  </si>
+  <si>
+    <t>HY90_S168</t>
+  </si>
+  <si>
+    <t>HY91_S169</t>
+  </si>
+  <si>
+    <t>HY92_S170</t>
+  </si>
+  <si>
+    <t>HY93_S171</t>
+  </si>
+  <si>
+    <t>HY94_S172</t>
+  </si>
+  <si>
+    <t>HY95_S173</t>
+  </si>
+  <si>
+    <t>HY96_S174</t>
+  </si>
+  <si>
+    <t>HY97_S175</t>
+  </si>
+  <si>
+    <t>HY98_S176</t>
+  </si>
+  <si>
+    <t>HY99_S177</t>
+  </si>
+  <si>
+    <t>HY9_S87</t>
+  </si>
+  <si>
+    <t>NM100_S78</t>
+  </si>
+  <si>
+    <t>NM10_S206</t>
+  </si>
+  <si>
+    <t>NM12_S207</t>
+  </si>
+  <si>
+    <t>NM13_S208</t>
+  </si>
+  <si>
+    <t>NM14_S209</t>
+  </si>
+  <si>
+    <t>NM15_S210</t>
+  </si>
+  <si>
+    <t>NM16_S211</t>
+  </si>
+  <si>
+    <t>NM17_S212</t>
+  </si>
+  <si>
+    <t>NM18_S213</t>
+  </si>
+  <si>
+    <t>NM19_S214</t>
+  </si>
+  <si>
+    <t>NM1_S197</t>
+  </si>
+  <si>
+    <t>NM20_S215</t>
+  </si>
+  <si>
+    <t>NM21_S216</t>
+  </si>
+  <si>
+    <t>NM22_S217</t>
+  </si>
+  <si>
+    <t>NM23_S218</t>
+  </si>
+  <si>
+    <t>NM24_S219</t>
+  </si>
+  <si>
+    <t>NM25_S220</t>
+  </si>
+  <si>
+    <t>NM26_S221</t>
+  </si>
+  <si>
+    <t>NM27_S222</t>
+  </si>
+  <si>
+    <t>NM28_S223</t>
+  </si>
+  <si>
+    <t>NM29_S224</t>
+  </si>
+  <si>
+    <t>NM2_S198</t>
+  </si>
+  <si>
+    <t>NM30_S225</t>
+  </si>
+  <si>
+    <t>NM31_S226</t>
+  </si>
+  <si>
+    <t>NM32_S227</t>
+  </si>
+  <si>
+    <t>NM33_S228</t>
+  </si>
+  <si>
+    <t>NM34_S229</t>
+  </si>
+  <si>
+    <t>NM35_S230</t>
+  </si>
+  <si>
+    <t>NM36_S231</t>
+  </si>
+  <si>
+    <t>NM37_S232</t>
+  </si>
+  <si>
+    <t>NM38_S233</t>
+  </si>
+  <si>
+    <t>NM39_S234</t>
+  </si>
+  <si>
+    <t>NM3_S199</t>
+  </si>
+  <si>
+    <t>NM40_S235</t>
+  </si>
+  <si>
+    <t>NM41_S236</t>
+  </si>
+  <si>
+    <t>NM42_S237</t>
+  </si>
+  <si>
+    <t>NM43_S238</t>
+  </si>
+  <si>
+    <t>NM44_S239</t>
+  </si>
+  <si>
+    <t>NM45_S240</t>
+  </si>
+  <si>
+    <t>NM46_S241</t>
+  </si>
+  <si>
+    <t>NM47_S242</t>
+  </si>
+  <si>
+    <t>NM48_S243</t>
+  </si>
+  <si>
+    <t>NM49_S244</t>
+  </si>
+  <si>
+    <t>NM4_S200</t>
+  </si>
+  <si>
+    <t>NM50_S245</t>
+  </si>
+  <si>
+    <t>NM51_S246</t>
+  </si>
+  <si>
+    <t>NM52_S247</t>
+  </si>
+  <si>
+    <t>NM53_S248</t>
+  </si>
+  <si>
+    <t>NM54_S249</t>
+  </si>
+  <si>
+    <t>NM55_S250</t>
+  </si>
+  <si>
+    <t>NM56_S251</t>
+  </si>
+  <si>
+    <t>NM57_S252</t>
+  </si>
+  <si>
+    <t>NM58_S253</t>
+  </si>
+  <si>
+    <t>NM59_S254</t>
+  </si>
+  <si>
+    <t>NM5_S201</t>
+  </si>
+  <si>
+    <t>NM60_S255</t>
+  </si>
+  <si>
+    <t>NM61_S256</t>
+  </si>
+  <si>
+    <t>NM62_S257</t>
+  </si>
+  <si>
+    <t>NM63_S258</t>
+  </si>
+  <si>
+    <t>NM64_S259</t>
+  </si>
+  <si>
+    <t>NM65_S260</t>
+  </si>
+  <si>
+    <t>NM66_S261</t>
+  </si>
+  <si>
+    <t>NM67_S262</t>
+  </si>
+  <si>
+    <t>NM68_S263</t>
+  </si>
+  <si>
+    <t>NM69_S264</t>
+  </si>
+  <si>
+    <t>NM6_S202</t>
+  </si>
+  <si>
+    <t>NM70_S265</t>
+  </si>
+  <si>
+    <t>NM71_S266</t>
+  </si>
+  <si>
+    <t>NM72_S267</t>
+  </si>
+  <si>
+    <t>NM73_S268</t>
+  </si>
+  <si>
+    <t>NM74_S269</t>
+  </si>
+  <si>
+    <t>NM75_S270</t>
+  </si>
+  <si>
+    <t>NM76_S271</t>
+  </si>
+  <si>
+    <t>NM77_S272</t>
+  </si>
+  <si>
+    <t>NM78_S273</t>
+  </si>
+  <si>
+    <t>NM79_S274</t>
+  </si>
+  <si>
+    <t>NM7_S203</t>
+  </si>
+  <si>
+    <t>NM80_S275</t>
+  </si>
+  <si>
+    <t>NM81_S276</t>
+  </si>
+  <si>
+    <t>NM82_S277</t>
+  </si>
+  <si>
+    <t>NM83_S278</t>
+  </si>
+  <si>
+    <t>NM84_S279</t>
+  </si>
+  <si>
+    <t>NM85_S280</t>
+  </si>
+  <si>
+    <t>NM86_S281</t>
+  </si>
+  <si>
+    <t>NM87_S282</t>
+  </si>
+  <si>
+    <t>NM88_S1</t>
+  </si>
+  <si>
+    <t>NM89_S2</t>
+  </si>
+  <si>
+    <t>NM8_S204</t>
+  </si>
+  <si>
+    <t>NM90_S3</t>
+  </si>
+  <si>
+    <t>NM91_S4</t>
+  </si>
+  <si>
+    <t>NM92_S5</t>
+  </si>
+  <si>
+    <t>NM93_S6</t>
+  </si>
+  <si>
+    <t>NM94_S7</t>
+  </si>
+  <si>
+    <t>NM95_S8</t>
+  </si>
+  <si>
+    <t>NM96_S9</t>
+  </si>
+  <si>
+    <t>NM97_S75</t>
+  </si>
+  <si>
+    <t>NM98_S76</t>
+  </si>
+  <si>
+    <t>NM99_S77</t>
+  </si>
+  <si>
+    <t>NM9_S205</t>
+  </si>
+  <si>
+    <t>TC10_S19</t>
+  </si>
+  <si>
+    <t>TC11_S20</t>
+  </si>
+  <si>
+    <t>TC12_S21</t>
+  </si>
+  <si>
+    <t>TC13_S22</t>
+  </si>
+  <si>
+    <t>TC14_S23</t>
+  </si>
+  <si>
+    <t>TC15_S24</t>
+  </si>
+  <si>
+    <t>TC16_S25</t>
+  </si>
+  <si>
+    <t>TC17_S26</t>
+  </si>
+  <si>
+    <t>TC18_S27</t>
+  </si>
+  <si>
+    <t>TC19_S28</t>
+  </si>
+  <si>
+    <t>TC1_S10</t>
+  </si>
+  <si>
+    <t>TC20_S29</t>
+  </si>
+  <si>
+    <t>TC21_S30</t>
+  </si>
+  <si>
+    <t>TC22_S31</t>
+  </si>
+  <si>
+    <t>TC23_S32</t>
+  </si>
+  <si>
+    <t>TC24_S33</t>
+  </si>
+  <si>
+    <t>TC25_S34</t>
+  </si>
+  <si>
+    <t>TC26_S35</t>
+  </si>
+  <si>
+    <t>TC27_S36</t>
+  </si>
+  <si>
+    <t>TC28_S37</t>
+  </si>
+  <si>
+    <t>TC29_S38</t>
+  </si>
+  <si>
+    <t>TC2_S11</t>
+  </si>
+  <si>
+    <t>TC30_S39</t>
+  </si>
+  <si>
+    <t>TC31_S40</t>
+  </si>
+  <si>
+    <t>TC32_S41</t>
+  </si>
+  <si>
+    <t>TC33_S42</t>
+  </si>
+  <si>
+    <t>TC34_S43</t>
+  </si>
+  <si>
+    <t>TC35_S44</t>
+  </si>
+  <si>
+    <t>TC36_S45</t>
+  </si>
+  <si>
+    <t>TC37_S46</t>
+  </si>
+  <si>
+    <t>TC38_S47</t>
+  </si>
+  <si>
+    <t>TC39_S48</t>
+  </si>
+  <si>
+    <t>TC3_S12</t>
+  </si>
+  <si>
+    <t>TC40_S49</t>
+  </si>
+  <si>
+    <t>TC41_S50</t>
+  </si>
+  <si>
+    <t>TC42_S51</t>
+  </si>
+  <si>
+    <t>TC43_S52</t>
+  </si>
+  <si>
+    <t>TC44_S53</t>
+  </si>
+  <si>
+    <t>TC45_S54</t>
+  </si>
+  <si>
+    <t>TC46_S55</t>
+  </si>
+  <si>
+    <t>TC47_S56</t>
+  </si>
+  <si>
+    <t>TC48_S57</t>
+  </si>
+  <si>
+    <t>TC49_S58</t>
+  </si>
+  <si>
+    <t>TC4_S13</t>
+  </si>
+  <si>
+    <t>TC50_S59</t>
+  </si>
+  <si>
+    <t>TC51_S60</t>
+  </si>
+  <si>
+    <t>TC52_S61</t>
+  </si>
+  <si>
+    <t>TC53_S62</t>
+  </si>
+  <si>
+    <t>TC54_S63</t>
+  </si>
+  <si>
+    <t>TC55_S64</t>
+  </si>
+  <si>
+    <t>TC56_S65</t>
+  </si>
+  <si>
+    <t>TC57_S66</t>
+  </si>
+  <si>
+    <t>TC58_S67</t>
+  </si>
+  <si>
+    <t>TC59_S68</t>
+  </si>
+  <si>
+    <t>TC5_S14</t>
+  </si>
+  <si>
+    <t>TC60_S69</t>
+  </si>
+  <si>
+    <t>TC61_S70</t>
+  </si>
+  <si>
+    <t>TC62_S71</t>
+  </si>
+  <si>
+    <t>TC63_S72</t>
+  </si>
+  <si>
+    <t>TC64_S97</t>
+  </si>
+  <si>
+    <t>TC65_S73</t>
+  </si>
+  <si>
+    <t>TC66_S74</t>
+  </si>
+  <si>
+    <t>TC6_S15</t>
+  </si>
+  <si>
+    <t>TC7_S16</t>
+  </si>
+  <si>
+    <t>TC8_S17</t>
+  </si>
+  <si>
+    <t>TC9_S18</t>
+  </si>
+  <si>
+    <t>NM100</t>
+  </si>
+  <si>
+    <t>NM10</t>
+  </si>
+  <si>
+    <t>NM12</t>
+  </si>
+  <si>
+    <t>NM13</t>
+  </si>
+  <si>
+    <t>NM14</t>
+  </si>
+  <si>
+    <t>NM15</t>
+  </si>
+  <si>
+    <t>NM16</t>
+  </si>
+  <si>
+    <t>NM17</t>
+  </si>
+  <si>
+    <t>NM18</t>
+  </si>
+  <si>
+    <t>NM19</t>
+  </si>
+  <si>
+    <t>NM1</t>
+  </si>
+  <si>
+    <t>NM20</t>
+  </si>
+  <si>
+    <t>NM21</t>
+  </si>
+  <si>
+    <t>NM22</t>
+  </si>
+  <si>
+    <t>NM23</t>
+  </si>
+  <si>
+    <t>NM24</t>
+  </si>
+  <si>
+    <t>NM25</t>
+  </si>
+  <si>
+    <t>NM26</t>
+  </si>
+  <si>
+    <t>NM27</t>
+  </si>
+  <si>
+    <t>NM28</t>
+  </si>
+  <si>
+    <t>NM29</t>
+  </si>
+  <si>
+    <t>NM2</t>
+  </si>
+  <si>
+    <t>NM30</t>
+  </si>
+  <si>
+    <t>NM31</t>
+  </si>
+  <si>
+    <t>NM32</t>
+  </si>
+  <si>
+    <t>NM33</t>
+  </si>
+  <si>
+    <t>NM34</t>
+  </si>
+  <si>
+    <t>NM35</t>
+  </si>
+  <si>
+    <t>NM36</t>
+  </si>
+  <si>
+    <t>NM37</t>
+  </si>
+  <si>
+    <t>NM38</t>
+  </si>
+  <si>
+    <t>NM39</t>
+  </si>
+  <si>
+    <t>NM3</t>
+  </si>
+  <si>
+    <t>NM40</t>
+  </si>
+  <si>
+    <t>NM41</t>
+  </si>
+  <si>
+    <t>NM42</t>
+  </si>
+  <si>
+    <t>NM43</t>
+  </si>
+  <si>
+    <t>NM44</t>
+  </si>
+  <si>
+    <t>NM45</t>
+  </si>
+  <si>
+    <t>NM46</t>
+  </si>
+  <si>
+    <t>NM47</t>
+  </si>
+  <si>
+    <t>NM48</t>
+  </si>
+  <si>
+    <t>NM49</t>
+  </si>
+  <si>
+    <t>NM4</t>
+  </si>
+  <si>
+    <t>NM50</t>
+  </si>
+  <si>
+    <t>NM51</t>
+  </si>
+  <si>
+    <t>NM52</t>
+  </si>
+  <si>
+    <t>NM53</t>
+  </si>
+  <si>
+    <t>NM54</t>
+  </si>
+  <si>
+    <t>NM55</t>
+  </si>
+  <si>
+    <t>NM56</t>
+  </si>
+  <si>
+    <t>NM57</t>
+  </si>
+  <si>
+    <t>NM58</t>
+  </si>
+  <si>
+    <t>NM59</t>
+  </si>
+  <si>
+    <t>NM5</t>
+  </si>
+  <si>
+    <t>NM60</t>
+  </si>
+  <si>
+    <t>NM61</t>
+  </si>
+  <si>
+    <t>NM62</t>
+  </si>
+  <si>
+    <t>NM63</t>
+  </si>
+  <si>
+    <t>NM64</t>
+  </si>
+  <si>
+    <t>NM65</t>
+  </si>
+  <si>
+    <t>NM66</t>
+  </si>
+  <si>
+    <t>NM67</t>
+  </si>
+  <si>
+    <t>NM68</t>
+  </si>
+  <si>
+    <t>NM69</t>
+  </si>
+  <si>
+    <t>NM6</t>
+  </si>
+  <si>
+    <t>NM70</t>
+  </si>
+  <si>
+    <t>NM71</t>
+  </si>
+  <si>
+    <t>NM72</t>
+  </si>
+  <si>
+    <t>NM73</t>
+  </si>
+  <si>
+    <t>NM74</t>
+  </si>
+  <si>
+    <t>NM75</t>
+  </si>
+  <si>
+    <t>NM76</t>
+  </si>
+  <si>
+    <t>NM77</t>
+  </si>
+  <si>
+    <t>NM78</t>
+  </si>
+  <si>
+    <t>NM79</t>
+  </si>
+  <si>
+    <t>NM7</t>
+  </si>
+  <si>
+    <t>NM80</t>
+  </si>
+  <si>
+    <t>NM81</t>
+  </si>
+  <si>
+    <t>NM82</t>
+  </si>
+  <si>
+    <t>NM83</t>
+  </si>
+  <si>
+    <t>NM84</t>
+  </si>
+  <si>
+    <t>NM85</t>
+  </si>
+  <si>
+    <t>NM86</t>
+  </si>
+  <si>
+    <t>NM87</t>
+  </si>
+  <si>
+    <t>NM88</t>
+  </si>
+  <si>
+    <t>NM89</t>
+  </si>
+  <si>
+    <t>NM8</t>
+  </si>
+  <si>
+    <t>NM90</t>
+  </si>
+  <si>
+    <t>NM91</t>
+  </si>
+  <si>
+    <t>NM92</t>
+  </si>
+  <si>
+    <t>NM93</t>
+  </si>
+  <si>
+    <t>NM94</t>
+  </si>
+  <si>
+    <t>NM95</t>
+  </si>
+  <si>
+    <t>NM96</t>
+  </si>
+  <si>
+    <t>NM97</t>
+  </si>
+  <si>
+    <t>NM98</t>
+  </si>
+  <si>
+    <t>NM99</t>
+  </si>
+  <si>
+    <t>NM9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -12682,6 +13856,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -12704,10 +13884,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19580,7 +20761,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H10"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19757,10 +20938,2379 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A2E0E7-B24A-E545-A8AB-EE5C932ADD80}">
+  <dimension ref="A1:G292"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3602</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4202</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3603</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3604</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3605</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3607</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3608</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3610</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3611</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3511</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3612</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3613</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3614</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3615</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3616</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3617</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3618</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3619</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3620</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3621</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3512</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3622</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3623</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3624</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3625</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3626</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3627</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3628</v>
+      </c>
+      <c r="G30" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3513</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3514</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3515</v>
+      </c>
+      <c r="G33" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3516</v>
+      </c>
+      <c r="G34" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3517</v>
+      </c>
+      <c r="G35" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3518</v>
+      </c>
+      <c r="G36" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3519</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3520</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3502</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3521</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3522</v>
+      </c>
+      <c r="G41" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3523</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3524</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3525</v>
+      </c>
+      <c r="G44" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3526</v>
+      </c>
+      <c r="G45" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3527</v>
+      </c>
+      <c r="G46" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3528</v>
+      </c>
+      <c r="G47" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3529</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G49" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>3503</v>
+      </c>
+      <c r="G50" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3531</v>
+      </c>
+      <c r="G51" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>3532</v>
+      </c>
+      <c r="G52" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3533</v>
+      </c>
+      <c r="G53" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>3534</v>
+      </c>
+      <c r="G54" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>3535</v>
+      </c>
+      <c r="G55" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>3536</v>
+      </c>
+      <c r="G56" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3537</v>
+      </c>
+      <c r="G57" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>3538</v>
+      </c>
+      <c r="G58" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>3539</v>
+      </c>
+      <c r="G59" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>3540</v>
+      </c>
+      <c r="G60" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>3504</v>
+      </c>
+      <c r="G61" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>3541</v>
+      </c>
+      <c r="G62" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>3542</v>
+      </c>
+      <c r="G63" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>3543</v>
+      </c>
+      <c r="G64" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>3544</v>
+      </c>
+      <c r="G65" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>3545</v>
+      </c>
+      <c r="G66" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>3546</v>
+      </c>
+      <c r="G67" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>3547</v>
+      </c>
+      <c r="G68" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>3548</v>
+      </c>
+      <c r="G69" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>3549</v>
+      </c>
+      <c r="G70" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>3550</v>
+      </c>
+      <c r="G71" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>3505</v>
+      </c>
+      <c r="G72" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>3551</v>
+      </c>
+      <c r="G73" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>3552</v>
+      </c>
+      <c r="G74" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>3553</v>
+      </c>
+      <c r="G75" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>3554</v>
+      </c>
+      <c r="G76" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>3555</v>
+      </c>
+      <c r="G77" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>3556</v>
+      </c>
+      <c r="G78" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>3557</v>
+      </c>
+      <c r="G79" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>3558</v>
+      </c>
+      <c r="G80" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>3559</v>
+      </c>
+      <c r="G81" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>3560</v>
+      </c>
+      <c r="G82" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>3506</v>
+      </c>
+      <c r="G83" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>3561</v>
+      </c>
+      <c r="G84" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>3562</v>
+      </c>
+      <c r="G85" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>3563</v>
+      </c>
+      <c r="G86" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>3564</v>
+      </c>
+      <c r="G87" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>3565</v>
+      </c>
+      <c r="G88" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>3567</v>
+      </c>
+      <c r="G89" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>3568</v>
+      </c>
+      <c r="G90" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>3569</v>
+      </c>
+      <c r="G91" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>3570</v>
+      </c>
+      <c r="G92" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>3571</v>
+      </c>
+      <c r="G93" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>3507</v>
+      </c>
+      <c r="G94" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>3572</v>
+      </c>
+      <c r="G95" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>3573</v>
+      </c>
+      <c r="G96" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>3574</v>
+      </c>
+      <c r="G97" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>3575</v>
+      </c>
+      <c r="G98" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>3576</v>
+      </c>
+      <c r="G99" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>3577</v>
+      </c>
+      <c r="G100" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G101" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>3579</v>
+      </c>
+      <c r="G102" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>3580</v>
+      </c>
+      <c r="G103" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>3581</v>
+      </c>
+      <c r="G104" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>3508</v>
+      </c>
+      <c r="G105" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>3582</v>
+      </c>
+      <c r="G106" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>3583</v>
+      </c>
+      <c r="G107" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>3584</v>
+      </c>
+      <c r="G108" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>3585</v>
+      </c>
+      <c r="G109" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>3586</v>
+      </c>
+      <c r="G110" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>3587</v>
+      </c>
+      <c r="G111" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>3588</v>
+      </c>
+      <c r="G112" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>3589</v>
+      </c>
+      <c r="G113" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>3590</v>
+      </c>
+      <c r="G114" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>3591</v>
+      </c>
+      <c r="G115" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G116" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>3592</v>
+      </c>
+      <c r="G117" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>3593</v>
+      </c>
+      <c r="G118" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>3594</v>
+      </c>
+      <c r="G119" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G120" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>3596</v>
+      </c>
+      <c r="G121" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>3597</v>
+      </c>
+      <c r="G122" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>3598</v>
+      </c>
+      <c r="G123" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>3599</v>
+      </c>
+      <c r="G124" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G125" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>3601</v>
+      </c>
+      <c r="G126" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>3510</v>
+      </c>
+      <c r="G127" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>4494</v>
+      </c>
+      <c r="G128" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>4495</v>
+      </c>
+      <c r="G129" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>4496</v>
+      </c>
+      <c r="G130" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>4497</v>
+      </c>
+      <c r="G131" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>4498</v>
+      </c>
+      <c r="G132" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>4499</v>
+      </c>
+      <c r="G133" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>4500</v>
+      </c>
+      <c r="G134" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>4501</v>
+      </c>
+      <c r="G135" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>4502</v>
+      </c>
+      <c r="G136" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>4503</v>
+      </c>
+      <c r="G137" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>4504</v>
+      </c>
+      <c r="G138" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>4505</v>
+      </c>
+      <c r="G139" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>4506</v>
+      </c>
+      <c r="G140" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>4507</v>
+      </c>
+      <c r="G141" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>4508</v>
+      </c>
+      <c r="G142" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>4509</v>
+      </c>
+      <c r="G143" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>4510</v>
+      </c>
+      <c r="G144" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>4511</v>
+      </c>
+      <c r="G145" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>4512</v>
+      </c>
+      <c r="G146" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>4513</v>
+      </c>
+      <c r="G147" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>4514</v>
+      </c>
+      <c r="G148" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>4515</v>
+      </c>
+      <c r="G149" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>4516</v>
+      </c>
+      <c r="G150" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>4517</v>
+      </c>
+      <c r="G151" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>4518</v>
+      </c>
+      <c r="G152" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>4519</v>
+      </c>
+      <c r="G153" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>4520</v>
+      </c>
+      <c r="G154" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>4521</v>
+      </c>
+      <c r="G155" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>4522</v>
+      </c>
+      <c r="G156" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>4523</v>
+      </c>
+      <c r="G157" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>4524</v>
+      </c>
+      <c r="G158" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>4525</v>
+      </c>
+      <c r="G159" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>4526</v>
+      </c>
+      <c r="G160" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>4527</v>
+      </c>
+      <c r="G161" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>4528</v>
+      </c>
+      <c r="G162" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>4529</v>
+      </c>
+      <c r="G163" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>4530</v>
+      </c>
+      <c r="G164" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>4531</v>
+      </c>
+      <c r="G165" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>4532</v>
+      </c>
+      <c r="G166" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>4533</v>
+      </c>
+      <c r="G167" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>4534</v>
+      </c>
+      <c r="G168" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>4535</v>
+      </c>
+      <c r="G169" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>4536</v>
+      </c>
+      <c r="G170" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>4537</v>
+      </c>
+      <c r="G171" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>4538</v>
+      </c>
+      <c r="G172" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>4539</v>
+      </c>
+      <c r="G173" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>4540</v>
+      </c>
+      <c r="G174" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>4541</v>
+      </c>
+      <c r="G175" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>4542</v>
+      </c>
+      <c r="G176" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>4543</v>
+      </c>
+      <c r="G177" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>4544</v>
+      </c>
+      <c r="G178" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>4545</v>
+      </c>
+      <c r="G179" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>4546</v>
+      </c>
+      <c r="G180" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>4547</v>
+      </c>
+      <c r="G181" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>4548</v>
+      </c>
+      <c r="G182" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>4549</v>
+      </c>
+      <c r="G183" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>4550</v>
+      </c>
+      <c r="G184" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>4551</v>
+      </c>
+      <c r="G185" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>4552</v>
+      </c>
+      <c r="G186" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>4553</v>
+      </c>
+      <c r="G187" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>4554</v>
+      </c>
+      <c r="G188" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>4555</v>
+      </c>
+      <c r="G189" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>4556</v>
+      </c>
+      <c r="G190" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>4557</v>
+      </c>
+      <c r="G191" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>4558</v>
+      </c>
+      <c r="G192" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>4559</v>
+      </c>
+      <c r="G193" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>4560</v>
+      </c>
+      <c r="G194" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>4561</v>
+      </c>
+      <c r="G195" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>4562</v>
+      </c>
+      <c r="G196" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>4563</v>
+      </c>
+      <c r="G197" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>4564</v>
+      </c>
+      <c r="G198" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>4565</v>
+      </c>
+      <c r="G199" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>4566</v>
+      </c>
+      <c r="G200" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>4567</v>
+      </c>
+      <c r="G201" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>4568</v>
+      </c>
+      <c r="G202" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>4569</v>
+      </c>
+      <c r="G203" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>4570</v>
+      </c>
+      <c r="G204" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>4571</v>
+      </c>
+      <c r="G205" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>4572</v>
+      </c>
+      <c r="G206" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>4573</v>
+      </c>
+      <c r="G207" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>4574</v>
+      </c>
+      <c r="G208" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>4575</v>
+      </c>
+      <c r="G209" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>4576</v>
+      </c>
+      <c r="G210" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>4577</v>
+      </c>
+      <c r="G211" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>4578</v>
+      </c>
+      <c r="G212" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>4579</v>
+      </c>
+      <c r="G213" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>4580</v>
+      </c>
+      <c r="G214" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>4581</v>
+      </c>
+      <c r="G215" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>4582</v>
+      </c>
+      <c r="G216" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>4583</v>
+      </c>
+      <c r="G217" t="s">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>4584</v>
+      </c>
+      <c r="G218" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>4585</v>
+      </c>
+      <c r="G219" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>4586</v>
+      </c>
+      <c r="G220" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>4587</v>
+      </c>
+      <c r="G221" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>4588</v>
+      </c>
+      <c r="G222" t="s">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>4589</v>
+      </c>
+      <c r="G223" t="s">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>4590</v>
+      </c>
+      <c r="G224" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>4591</v>
+      </c>
+      <c r="G225" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>4592</v>
+      </c>
+      <c r="G226" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>3388</v>
+      </c>
+      <c r="G227" t="s">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>3390</v>
+      </c>
+      <c r="G228" t="s">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>3391</v>
+      </c>
+      <c r="G229" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>3393</v>
+      </c>
+      <c r="G230" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G231" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>3397</v>
+      </c>
+      <c r="G232" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>3399</v>
+      </c>
+      <c r="G233" t="s">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>3401</v>
+      </c>
+      <c r="G234" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>3403</v>
+      </c>
+      <c r="G235" t="s">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G236" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>3370</v>
+      </c>
+      <c r="G237" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>3407</v>
+      </c>
+      <c r="G238" t="s">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>3409</v>
+      </c>
+      <c r="G239" t="s">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>3411</v>
+      </c>
+      <c r="G240" t="s">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>3413</v>
+      </c>
+      <c r="G241" t="s">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>3415</v>
+      </c>
+      <c r="G242" t="s">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>3417</v>
+      </c>
+      <c r="G243" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>3419</v>
+      </c>
+      <c r="G244" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>3421</v>
+      </c>
+      <c r="G245" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>3423</v>
+      </c>
+      <c r="G246" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>3425</v>
+      </c>
+      <c r="G247" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>3372</v>
+      </c>
+      <c r="G248" t="s">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>3427</v>
+      </c>
+      <c r="G249" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>3429</v>
+      </c>
+      <c r="G250" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>3431</v>
+      </c>
+      <c r="G251" t="s">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>3433</v>
+      </c>
+      <c r="G252" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>3435</v>
+      </c>
+      <c r="G253" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>3437</v>
+      </c>
+      <c r="G254" t="s">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>3439</v>
+      </c>
+      <c r="G255" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>3441</v>
+      </c>
+      <c r="G256" t="s">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>3443</v>
+      </c>
+      <c r="G257" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>3445</v>
+      </c>
+      <c r="G258" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>3374</v>
+      </c>
+      <c r="G259" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>3447</v>
+      </c>
+      <c r="G260" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>3449</v>
+      </c>
+      <c r="G261" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>3451</v>
+      </c>
+      <c r="G262" t="s">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>3453</v>
+      </c>
+      <c r="G263" t="s">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>3455</v>
+      </c>
+      <c r="G264" t="s">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>3457</v>
+      </c>
+      <c r="G265" t="s">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>3459</v>
+      </c>
+      <c r="G266" t="s">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>3461</v>
+      </c>
+      <c r="G267" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>3463</v>
+      </c>
+      <c r="G268" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>3465</v>
+      </c>
+      <c r="G269" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>3376</v>
+      </c>
+      <c r="G270" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>3467</v>
+      </c>
+      <c r="G271" t="s">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>3469</v>
+      </c>
+      <c r="G272" t="s">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>3471</v>
+      </c>
+      <c r="G273" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>3473</v>
+      </c>
+      <c r="G274" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>3475</v>
+      </c>
+      <c r="G275" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>3477</v>
+      </c>
+      <c r="G276" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>3479</v>
+      </c>
+      <c r="G277" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G278" t="s">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>3483</v>
+      </c>
+      <c r="G279" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>3485</v>
+      </c>
+      <c r="G280" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>3378</v>
+      </c>
+      <c r="G281" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>3487</v>
+      </c>
+      <c r="G282" t="s">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>3489</v>
+      </c>
+      <c r="G283" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>3491</v>
+      </c>
+      <c r="G284" t="s">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>3493</v>
+      </c>
+      <c r="G285" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>3495</v>
+      </c>
+      <c r="G286" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>3497</v>
+      </c>
+      <c r="G287" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G288" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>3380</v>
+      </c>
+      <c r="G289" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>3382</v>
+      </c>
+      <c r="G290" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>3384</v>
+      </c>
+      <c r="G291" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>3386</v>
+      </c>
+      <c r="G292" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1719A86-4CAE-C044-8E87-F8C3B3913274}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -19970,7 +23520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639C946B-FA72-0C4F-A64D-399443773781}">
   <dimension ref="A1:G60"/>
   <sheetViews>
@@ -21008,877 +24558,6 @@
       </c>
       <c r="G60" t="s">
         <v>3755</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FACFF37-6C1A-CC4D-A397-A9CAF9C864BE}">
-  <dimension ref="A1:G60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46:D60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3758</v>
-      </c>
-      <c r="B2" t="s">
-        <v>585</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3638</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3757</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3760</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>578</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3762</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>578</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3761</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3764</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3763</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3766</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>578</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3765</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3768</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>580</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3770</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>580</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3769</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3772</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>580</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3774</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>580</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3773</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3776</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>580</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3775</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3778</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>579</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3777</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>3780</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>579</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3779</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>3782</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>579</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3781</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>3784</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>579</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3783</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>3786</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>578</v>
-      </c>
-      <c r="G16" t="s">
-        <v>3785</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>3788</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>578</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3787</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>3790</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>578</v>
-      </c>
-      <c r="G18" t="s">
-        <v>3789</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>3792</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>578</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3791</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>3794</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>578</v>
-      </c>
-      <c r="G20" t="s">
-        <v>3793</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>3796</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>580</v>
-      </c>
-      <c r="G21" t="s">
-        <v>3795</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>3798</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>580</v>
-      </c>
-      <c r="G22" t="s">
-        <v>3797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>3800</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>580</v>
-      </c>
-      <c r="G23" t="s">
-        <v>3799</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>3802</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>580</v>
-      </c>
-      <c r="G24" t="s">
-        <v>3801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>3804</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>580</v>
-      </c>
-      <c r="G25" t="s">
-        <v>3803</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>3806</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>579</v>
-      </c>
-      <c r="G26" t="s">
-        <v>3805</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>3808</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>579</v>
-      </c>
-      <c r="G27" t="s">
-        <v>3807</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>3810</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>579</v>
-      </c>
-      <c r="G28" t="s">
-        <v>3809</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>3812</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>579</v>
-      </c>
-      <c r="G29" t="s">
-        <v>3811</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>3814</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" t="s">
-        <v>579</v>
-      </c>
-      <c r="G30" t="s">
-        <v>3813</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>3816</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s">
-        <v>578</v>
-      </c>
-      <c r="G31" t="s">
-        <v>3815</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>3818</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" t="s">
-        <v>578</v>
-      </c>
-      <c r="G32" t="s">
-        <v>3817</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>3820</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" t="s">
-        <v>578</v>
-      </c>
-      <c r="G33" t="s">
-        <v>3819</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>3822</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s">
-        <v>578</v>
-      </c>
-      <c r="G34" t="s">
-        <v>3821</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>3824</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s">
-        <v>578</v>
-      </c>
-      <c r="G35" t="s">
-        <v>3823</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>3826</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s">
-        <v>580</v>
-      </c>
-      <c r="G36" t="s">
-        <v>3825</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>3828</v>
-      </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" t="s">
-        <v>580</v>
-      </c>
-      <c r="G37" t="s">
-        <v>3827</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>3830</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" t="s">
-        <v>580</v>
-      </c>
-      <c r="G38" t="s">
-        <v>3829</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>3832</v>
-      </c>
-      <c r="C39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" t="s">
-        <v>580</v>
-      </c>
-      <c r="G39" t="s">
-        <v>3831</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>3834</v>
-      </c>
-      <c r="C40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" t="s">
-        <v>580</v>
-      </c>
-      <c r="G40" t="s">
-        <v>3833</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>3836</v>
-      </c>
-      <c r="C41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" t="s">
-        <v>579</v>
-      </c>
-      <c r="G41" t="s">
-        <v>3835</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>3838</v>
-      </c>
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" t="s">
-        <v>579</v>
-      </c>
-      <c r="G42" t="s">
-        <v>3837</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>3840</v>
-      </c>
-      <c r="C43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" t="s">
-        <v>579</v>
-      </c>
-      <c r="G43" t="s">
-        <v>3839</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>3842</v>
-      </c>
-      <c r="C44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" t="s">
-        <v>579</v>
-      </c>
-      <c r="G44" t="s">
-        <v>3841</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>3844</v>
-      </c>
-      <c r="C45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" t="s">
-        <v>579</v>
-      </c>
-      <c r="G45" t="s">
-        <v>3843</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>3846</v>
-      </c>
-      <c r="C46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" t="s">
-        <v>578</v>
-      </c>
-      <c r="G46" t="s">
-        <v>3845</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>3848</v>
-      </c>
-      <c r="C47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" t="s">
-        <v>578</v>
-      </c>
-      <c r="G47" t="s">
-        <v>3847</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>3850</v>
-      </c>
-      <c r="C48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" t="s">
-        <v>578</v>
-      </c>
-      <c r="G48" t="s">
-        <v>3849</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>3852</v>
-      </c>
-      <c r="C49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" t="s">
-        <v>578</v>
-      </c>
-      <c r="G49" t="s">
-        <v>3851</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>3854</v>
-      </c>
-      <c r="C50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" t="s">
-        <v>578</v>
-      </c>
-      <c r="G50" t="s">
-        <v>3853</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>3856</v>
-      </c>
-      <c r="C51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" t="s">
-        <v>580</v>
-      </c>
-      <c r="G51" t="s">
-        <v>3855</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>3858</v>
-      </c>
-      <c r="C52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" t="s">
-        <v>580</v>
-      </c>
-      <c r="G52" t="s">
-        <v>3857</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>3860</v>
-      </c>
-      <c r="C53" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" t="s">
-        <v>580</v>
-      </c>
-      <c r="G53" t="s">
-        <v>3859</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>3862</v>
-      </c>
-      <c r="C54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" t="s">
-        <v>580</v>
-      </c>
-      <c r="G54" t="s">
-        <v>3861</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>3864</v>
-      </c>
-      <c r="C55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" t="s">
-        <v>580</v>
-      </c>
-      <c r="G55" t="s">
-        <v>3863</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>3866</v>
-      </c>
-      <c r="C56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" t="s">
-        <v>579</v>
-      </c>
-      <c r="G56" t="s">
-        <v>3865</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>3868</v>
-      </c>
-      <c r="C57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" t="s">
-        <v>579</v>
-      </c>
-      <c r="G57" t="s">
-        <v>3867</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>3870</v>
-      </c>
-      <c r="C58" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" t="s">
-        <v>579</v>
-      </c>
-      <c r="G58" t="s">
-        <v>3869</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>3872</v>
-      </c>
-      <c r="C59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" t="s">
-        <v>579</v>
-      </c>
-      <c r="G59" t="s">
-        <v>3871</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>3874</v>
-      </c>
-      <c r="C60" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" t="s">
-        <v>579</v>
-      </c>
-      <c r="G60" t="s">
-        <v>3873</v>
       </c>
     </row>
   </sheetData>
@@ -22219,6 +24898,877 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FACFF37-6C1A-CC4D-A397-A9CAF9C864BE}">
+  <dimension ref="A1:G60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46:D60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3638</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3760</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>578</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3762</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3764</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>578</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3768</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>580</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>580</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3774</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>580</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3776</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>580</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3778</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>579</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3780</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>579</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3782</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>579</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3784</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>579</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3786</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>578</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3788</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>578</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>578</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3792</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>578</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>578</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3796</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>580</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>580</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3800</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>580</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3802</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>580</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3804</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>580</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3806</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>579</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>579</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3810</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>579</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3812</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>579</v>
+      </c>
+      <c r="G29" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3814</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>579</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3816</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>578</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3818</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>578</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3820</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>578</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3822</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>578</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3824</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>578</v>
+      </c>
+      <c r="G35" t="s">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3826</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>580</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3828</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>580</v>
+      </c>
+      <c r="G37" t="s">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3830</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>580</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3832</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>580</v>
+      </c>
+      <c r="G39" t="s">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3834</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>580</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3836</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>579</v>
+      </c>
+      <c r="G41" t="s">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3838</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>579</v>
+      </c>
+      <c r="G42" t="s">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3840</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>579</v>
+      </c>
+      <c r="G43" t="s">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
+        <v>579</v>
+      </c>
+      <c r="G44" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3844</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>579</v>
+      </c>
+      <c r="G45" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>578</v>
+      </c>
+      <c r="G46" t="s">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>578</v>
+      </c>
+      <c r="G47" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3850</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>578</v>
+      </c>
+      <c r="G48" t="s">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3852</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" t="s">
+        <v>578</v>
+      </c>
+      <c r="G49" t="s">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>3854</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" t="s">
+        <v>578</v>
+      </c>
+      <c r="G50" t="s">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3856</v>
+      </c>
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s">
+        <v>580</v>
+      </c>
+      <c r="G51" t="s">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>3858</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" t="s">
+        <v>580</v>
+      </c>
+      <c r="G52" t="s">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" t="s">
+        <v>580</v>
+      </c>
+      <c r="G53" t="s">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" t="s">
+        <v>580</v>
+      </c>
+      <c r="G54" t="s">
+        <v>3861</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>3864</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" t="s">
+        <v>580</v>
+      </c>
+      <c r="G55" t="s">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>3866</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" t="s">
+        <v>579</v>
+      </c>
+      <c r="G56" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3868</v>
+      </c>
+      <c r="C57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" t="s">
+        <v>579</v>
+      </c>
+      <c r="G57" t="s">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>3870</v>
+      </c>
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" t="s">
+        <v>579</v>
+      </c>
+      <c r="G58" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>3872</v>
+      </c>
+      <c r="C59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" t="s">
+        <v>579</v>
+      </c>
+      <c r="G59" t="s">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>3874</v>
+      </c>
+      <c r="C60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" t="s">
+        <v>579</v>
+      </c>
+      <c r="G60" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBACF57-374B-AC4E-A308-E0257330EB3A}">
   <dimension ref="A1:G49"/>
   <sheetViews>
@@ -22932,7 +26482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FD13E6-1C48-3B4B-B99B-EB0CB9A86A5D}">
   <dimension ref="A1:G289"/>
   <sheetViews>
@@ -28730,7 +32280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F70A50-2A0B-7B49-81E8-846B986DBDDD}">
   <dimension ref="A1:G95"/>
   <sheetViews>
@@ -30657,7 +34207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEEF6E7-D5AF-FF45-8301-F32B5937210B}">
   <dimension ref="A1:H41"/>
   <sheetViews>
@@ -31573,7 +35123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4105E42-E498-DD4E-B612-1744FC6E661B}">
   <dimension ref="A1:F120"/>
   <sheetViews>
@@ -32623,7 +36173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CE52BF-3A22-3245-B0A4-337E63B32AFB}">
   <dimension ref="A1:H468"/>
   <sheetViews>
@@ -44288,7 +47838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F1875A-8185-0F4D-99A2-78882AE521F7}">
   <dimension ref="A1:F121"/>
   <sheetViews>

--- a/data/05.local.xlsx
+++ b/data/05.local.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/F012FA18-7384-4774-9FD8-1F8599C213BE/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/590175CC-3AC2-4A78-89EE-519DE9F95424/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA7519B-8673-F245-9380-1205C3FCE2DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808BE549-90E9-4445-9BFA-39D8380B5803}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19760" yWindow="6320" windowWidth="24260" windowHeight="19960" firstSheet="11" activeTab="16" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
+    <workbookView xWindow="19380" yWindow="4540" windowWidth="24260" windowHeight="19960" firstSheet="11" activeTab="16" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
   </bookViews>
   <sheets>
     <sheet name="sp014" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11106" uniqueCount="4593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11104" uniqueCount="4592">
   <si>
     <t>SampleID</t>
   </si>
@@ -12819,9 +12819,6 @@
   </si>
   <si>
     <t>HY33_S112</t>
-  </si>
-  <si>
-    <t>HY34_S291</t>
   </si>
   <si>
     <t>HY35_S113</t>
@@ -20939,10 +20936,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A2E0E7-B24A-E545-A8AB-EE5C932ADD80}">
-  <dimension ref="A1:G292"/>
+  <dimension ref="A1:G291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21399,7 +21396,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="G55" t="s">
         <v>4256</v>
@@ -21407,7 +21404,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="G56" t="s">
         <v>4257</v>
@@ -21415,7 +21412,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="G57" t="s">
         <v>4258</v>
@@ -21423,7 +21420,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="G58" t="s">
         <v>4259</v>
@@ -21431,7 +21428,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="G59" t="s">
         <v>4260</v>
@@ -21439,7 +21436,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>3540</v>
+        <v>3504</v>
       </c>
       <c r="G60" t="s">
         <v>4261</v>
@@ -21447,7 +21444,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>3504</v>
+        <v>3541</v>
       </c>
       <c r="G61" t="s">
         <v>4262</v>
@@ -21455,7 +21452,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="G62" t="s">
         <v>4263</v>
@@ -21463,7 +21460,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="G63" t="s">
         <v>4264</v>
@@ -21471,7 +21468,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="G64" t="s">
         <v>4265</v>
@@ -21479,7 +21476,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="G65" t="s">
         <v>4266</v>
@@ -21487,7 +21484,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="G66" t="s">
         <v>4267</v>
@@ -21495,7 +21492,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="G67" t="s">
         <v>4268</v>
@@ -21503,7 +21500,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="G68" t="s">
         <v>4269</v>
@@ -21511,7 +21508,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="G69" t="s">
         <v>4270</v>
@@ -21519,7 +21516,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="G70" t="s">
         <v>4271</v>
@@ -21527,7 +21524,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>3550</v>
+        <v>3505</v>
       </c>
       <c r="G71" t="s">
         <v>4272</v>
@@ -21535,7 +21532,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>3505</v>
+        <v>3551</v>
       </c>
       <c r="G72" t="s">
         <v>4273</v>
@@ -21543,7 +21540,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="G73" t="s">
         <v>4274</v>
@@ -21551,7 +21548,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="G74" t="s">
         <v>4275</v>
@@ -21559,7 +21556,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="G75" t="s">
         <v>4276</v>
@@ -21567,7 +21564,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="G76" t="s">
         <v>4277</v>
@@ -21575,7 +21572,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="G77" t="s">
         <v>4278</v>
@@ -21583,7 +21580,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
       <c r="G78" t="s">
         <v>4279</v>
@@ -21591,7 +21588,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="G79" t="s">
         <v>4280</v>
@@ -21599,7 +21596,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="G80" t="s">
         <v>4281</v>
@@ -21607,7 +21604,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="G81" t="s">
         <v>4282</v>
@@ -21615,7 +21612,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>3560</v>
+        <v>3506</v>
       </c>
       <c r="G82" t="s">
         <v>4283</v>
@@ -21623,7 +21620,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>3506</v>
+        <v>3561</v>
       </c>
       <c r="G83" t="s">
         <v>4284</v>
@@ -21631,7 +21628,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="G84" t="s">
         <v>4285</v>
@@ -21639,7 +21636,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="G85" t="s">
         <v>4286</v>
@@ -21647,7 +21644,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="G86" t="s">
         <v>4287</v>
@@ -21655,7 +21652,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="G87" t="s">
         <v>4288</v>
@@ -21663,7 +21660,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>3565</v>
+        <v>3567</v>
       </c>
       <c r="G88" t="s">
         <v>4289</v>
@@ -21671,7 +21668,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="G89" t="s">
         <v>4290</v>
@@ -21679,7 +21676,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="G90" t="s">
         <v>4291</v>
@@ -21687,7 +21684,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="G91" t="s">
         <v>4292</v>
@@ -21695,7 +21692,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="G92" t="s">
         <v>4293</v>
@@ -21703,7 +21700,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>3571</v>
+        <v>3507</v>
       </c>
       <c r="G93" t="s">
         <v>4294</v>
@@ -21711,7 +21708,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>3507</v>
+        <v>3572</v>
       </c>
       <c r="G94" t="s">
         <v>4295</v>
@@ -21719,7 +21716,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="G95" t="s">
         <v>4296</v>
@@ -21727,7 +21724,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="G96" t="s">
         <v>4297</v>
@@ -21735,7 +21732,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="G97" t="s">
         <v>4298</v>
@@ -21743,7 +21740,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="G98" t="s">
         <v>4299</v>
@@ -21751,7 +21748,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="G99" t="s">
         <v>4300</v>
@@ -21759,7 +21756,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="G100" t="s">
         <v>4301</v>
@@ -21767,7 +21764,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>3578</v>
+        <v>3579</v>
       </c>
       <c r="G101" t="s">
         <v>4302</v>
@@ -21775,7 +21772,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="G102" t="s">
         <v>4303</v>
@@ -21783,7 +21780,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="G103" t="s">
         <v>4304</v>
@@ -21791,7 +21788,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>3581</v>
+        <v>3508</v>
       </c>
       <c r="G104" t="s">
         <v>4305</v>
@@ -21799,7 +21796,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>3508</v>
+        <v>3582</v>
       </c>
       <c r="G105" t="s">
         <v>4306</v>
@@ -21807,7 +21804,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="G106" t="s">
         <v>4307</v>
@@ -21815,7 +21812,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="G107" t="s">
         <v>4308</v>
@@ -21823,7 +21820,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="G108" t="s">
         <v>4309</v>
@@ -21831,7 +21828,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="G109" t="s">
         <v>4310</v>
@@ -21839,7 +21836,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="G110" t="s">
         <v>4311</v>
@@ -21847,7 +21844,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="G111" t="s">
         <v>4312</v>
@@ -21855,7 +21852,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="G112" t="s">
         <v>4313</v>
@@ -21863,7 +21860,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="G113" t="s">
         <v>4314</v>
@@ -21871,7 +21868,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="G114" t="s">
         <v>4315</v>
@@ -21879,7 +21876,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>3591</v>
+        <v>3509</v>
       </c>
       <c r="G115" t="s">
         <v>4316</v>
@@ -21887,7 +21884,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>3509</v>
+        <v>3592</v>
       </c>
       <c r="G116" t="s">
         <v>4317</v>
@@ -21895,7 +21892,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="G117" t="s">
         <v>4318</v>
@@ -21903,7 +21900,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="G118" t="s">
         <v>4319</v>
@@ -21911,7 +21908,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="G119" t="s">
         <v>4320</v>
@@ -21919,7 +21916,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="G120" t="s">
         <v>4321</v>
@@ -21927,7 +21924,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="G121" t="s">
         <v>4322</v>
@@ -21935,7 +21932,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="G122" t="s">
         <v>4323</v>
@@ -21943,7 +21940,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="G123" t="s">
         <v>4324</v>
@@ -21951,7 +21948,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="G124" t="s">
         <v>4325</v>
@@ -21959,7 +21956,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="G125" t="s">
         <v>4326</v>
@@ -21967,7 +21964,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>3601</v>
+        <v>3510</v>
       </c>
       <c r="G126" t="s">
         <v>4327</v>
@@ -21975,7 +21972,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>3510</v>
+        <v>4493</v>
       </c>
       <c r="G127" t="s">
         <v>4328</v>
@@ -22767,7 +22764,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>4592</v>
+        <v>3388</v>
       </c>
       <c r="G226" t="s">
         <v>4427</v>
@@ -22775,7 +22772,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>3388</v>
+        <v>3390</v>
       </c>
       <c r="G227" t="s">
         <v>4428</v>
@@ -22783,7 +22780,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="G228" t="s">
         <v>4429</v>
@@ -22791,7 +22788,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>3391</v>
+        <v>3393</v>
       </c>
       <c r="G229" t="s">
         <v>4430</v>
@@ -22799,7 +22796,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>3393</v>
+        <v>3395</v>
       </c>
       <c r="G230" t="s">
         <v>4431</v>
@@ -22807,7 +22804,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>3395</v>
+        <v>3397</v>
       </c>
       <c r="G231" t="s">
         <v>4432</v>
@@ -22815,7 +22812,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>3397</v>
+        <v>3399</v>
       </c>
       <c r="G232" t="s">
         <v>4433</v>
@@ -22823,7 +22820,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>3399</v>
+        <v>3401</v>
       </c>
       <c r="G233" t="s">
         <v>4434</v>
@@ -22831,7 +22828,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>3401</v>
+        <v>3403</v>
       </c>
       <c r="G234" t="s">
         <v>4435</v>
@@ -22839,7 +22836,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>3403</v>
+        <v>3405</v>
       </c>
       <c r="G235" t="s">
         <v>4436</v>
@@ -22847,7 +22844,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>3405</v>
+        <v>3370</v>
       </c>
       <c r="G236" t="s">
         <v>4437</v>
@@ -22855,7 +22852,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>3370</v>
+        <v>3407</v>
       </c>
       <c r="G237" t="s">
         <v>4438</v>
@@ -22863,7 +22860,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>3407</v>
+        <v>3409</v>
       </c>
       <c r="G238" t="s">
         <v>4439</v>
@@ -22871,7 +22868,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>3409</v>
+        <v>3411</v>
       </c>
       <c r="G239" t="s">
         <v>4440</v>
@@ -22879,7 +22876,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>3411</v>
+        <v>3413</v>
       </c>
       <c r="G240" t="s">
         <v>4441</v>
@@ -22887,7 +22884,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>3413</v>
+        <v>3415</v>
       </c>
       <c r="G241" t="s">
         <v>4442</v>
@@ -22895,7 +22892,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>3415</v>
+        <v>3417</v>
       </c>
       <c r="G242" t="s">
         <v>4443</v>
@@ -22903,7 +22900,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>3417</v>
+        <v>3419</v>
       </c>
       <c r="G243" t="s">
         <v>4444</v>
@@ -22911,7 +22908,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>3419</v>
+        <v>3421</v>
       </c>
       <c r="G244" t="s">
         <v>4445</v>
@@ -22919,7 +22916,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>3421</v>
+        <v>3423</v>
       </c>
       <c r="G245" t="s">
         <v>4446</v>
@@ -22927,7 +22924,7 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>3423</v>
+        <v>3425</v>
       </c>
       <c r="G246" t="s">
         <v>4447</v>
@@ -22935,7 +22932,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>3425</v>
+        <v>3372</v>
       </c>
       <c r="G247" t="s">
         <v>4448</v>
@@ -22943,7 +22940,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>3372</v>
+        <v>3427</v>
       </c>
       <c r="G248" t="s">
         <v>4449</v>
@@ -22951,7 +22948,7 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>3427</v>
+        <v>3429</v>
       </c>
       <c r="G249" t="s">
         <v>4450</v>
@@ -22959,7 +22956,7 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>3429</v>
+        <v>3431</v>
       </c>
       <c r="G250" t="s">
         <v>4451</v>
@@ -22967,7 +22964,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>3431</v>
+        <v>3433</v>
       </c>
       <c r="G251" t="s">
         <v>4452</v>
@@ -22975,7 +22972,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>3433</v>
+        <v>3435</v>
       </c>
       <c r="G252" t="s">
         <v>4453</v>
@@ -22983,7 +22980,7 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>3435</v>
+        <v>3437</v>
       </c>
       <c r="G253" t="s">
         <v>4454</v>
@@ -22991,7 +22988,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>3437</v>
+        <v>3439</v>
       </c>
       <c r="G254" t="s">
         <v>4455</v>
@@ -22999,7 +22996,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>3439</v>
+        <v>3441</v>
       </c>
       <c r="G255" t="s">
         <v>4456</v>
@@ -23007,7 +23004,7 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>3441</v>
+        <v>3443</v>
       </c>
       <c r="G256" t="s">
         <v>4457</v>
@@ -23015,7 +23012,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>3443</v>
+        <v>3445</v>
       </c>
       <c r="G257" t="s">
         <v>4458</v>
@@ -23023,7 +23020,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>3445</v>
+        <v>3374</v>
       </c>
       <c r="G258" t="s">
         <v>4459</v>
@@ -23031,7 +23028,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>3374</v>
+        <v>3447</v>
       </c>
       <c r="G259" t="s">
         <v>4460</v>
@@ -23039,7 +23036,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>3447</v>
+        <v>3449</v>
       </c>
       <c r="G260" t="s">
         <v>4461</v>
@@ -23047,7 +23044,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>3449</v>
+        <v>3451</v>
       </c>
       <c r="G261" t="s">
         <v>4462</v>
@@ -23055,7 +23052,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>3451</v>
+        <v>3453</v>
       </c>
       <c r="G262" t="s">
         <v>4463</v>
@@ -23063,7 +23060,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>3453</v>
+        <v>3455</v>
       </c>
       <c r="G263" t="s">
         <v>4464</v>
@@ -23071,7 +23068,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>3455</v>
+        <v>3457</v>
       </c>
       <c r="G264" t="s">
         <v>4465</v>
@@ -23079,7 +23076,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="G265" t="s">
         <v>4466</v>
@@ -23087,7 +23084,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>3459</v>
+        <v>3461</v>
       </c>
       <c r="G266" t="s">
         <v>4467</v>
@@ -23095,7 +23092,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>3461</v>
+        <v>3463</v>
       </c>
       <c r="G267" t="s">
         <v>4468</v>
@@ -23103,7 +23100,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>3463</v>
+        <v>3465</v>
       </c>
       <c r="G268" t="s">
         <v>4469</v>
@@ -23111,7 +23108,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>3465</v>
+        <v>3376</v>
       </c>
       <c r="G269" t="s">
         <v>4470</v>
@@ -23119,7 +23116,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>3376</v>
+        <v>3467</v>
       </c>
       <c r="G270" t="s">
         <v>4471</v>
@@ -23127,7 +23124,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>3467</v>
+        <v>3469</v>
       </c>
       <c r="G271" t="s">
         <v>4472</v>
@@ -23135,7 +23132,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>3469</v>
+        <v>3471</v>
       </c>
       <c r="G272" t="s">
         <v>4473</v>
@@ -23143,7 +23140,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>3471</v>
+        <v>3473</v>
       </c>
       <c r="G273" t="s">
         <v>4474</v>
@@ -23151,7 +23148,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>3473</v>
+        <v>3475</v>
       </c>
       <c r="G274" t="s">
         <v>4475</v>
@@ -23159,7 +23156,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>3475</v>
+        <v>3477</v>
       </c>
       <c r="G275" t="s">
         <v>4476</v>
@@ -23167,7 +23164,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>3477</v>
+        <v>3479</v>
       </c>
       <c r="G276" t="s">
         <v>4477</v>
@@ -23175,7 +23172,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>3479</v>
+        <v>3481</v>
       </c>
       <c r="G277" t="s">
         <v>4478</v>
@@ -23183,7 +23180,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>3481</v>
+        <v>3483</v>
       </c>
       <c r="G278" t="s">
         <v>4479</v>
@@ -23191,7 +23188,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>3483</v>
+        <v>3485</v>
       </c>
       <c r="G279" t="s">
         <v>4480</v>
@@ -23199,7 +23196,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>3485</v>
+        <v>3378</v>
       </c>
       <c r="G280" t="s">
         <v>4481</v>
@@ -23207,7 +23204,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>3378</v>
+        <v>3487</v>
       </c>
       <c r="G281" t="s">
         <v>4482</v>
@@ -23215,7 +23212,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>3487</v>
+        <v>3489</v>
       </c>
       <c r="G282" t="s">
         <v>4483</v>
@@ -23223,7 +23220,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>3489</v>
+        <v>3491</v>
       </c>
       <c r="G283" t="s">
         <v>4484</v>
@@ -23231,7 +23228,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>3491</v>
+        <v>3493</v>
       </c>
       <c r="G284" t="s">
         <v>4485</v>
@@ -23239,7 +23236,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>3493</v>
+        <v>3495</v>
       </c>
       <c r="G285" t="s">
         <v>4486</v>
@@ -23247,7 +23244,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>3495</v>
+        <v>3497</v>
       </c>
       <c r="G286" t="s">
         <v>4487</v>
@@ -23255,7 +23252,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>3497</v>
+        <v>3499</v>
       </c>
       <c r="G287" t="s">
         <v>4488</v>
@@ -23263,7 +23260,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>3499</v>
+        <v>3380</v>
       </c>
       <c r="G288" t="s">
         <v>4489</v>
@@ -23271,7 +23268,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>3380</v>
+        <v>3382</v>
       </c>
       <c r="G289" t="s">
         <v>4490</v>
@@ -23279,7 +23276,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>3382</v>
+        <v>3384</v>
       </c>
       <c r="G290" t="s">
         <v>4491</v>
@@ -23287,18 +23284,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>3384</v>
+        <v>3386</v>
       </c>
       <c r="G291" t="s">
         <v>4492</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
-        <v>3386</v>
-      </c>
-      <c r="G292" t="s">
-        <v>4493</v>
       </c>
     </row>
   </sheetData>

--- a/data/05.local.xlsx
+++ b/data/05.local.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/590175CC-3AC2-4A78-89EE-519DE9F95424/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/22D28208-F609-440A-B67C-CF5B61D4FD92/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808BE549-90E9-4445-9BFA-39D8380B5803}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6E5789-7635-D84A-A245-6E6DD35DB6E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19380" yWindow="4540" windowWidth="24260" windowHeight="19960" firstSheet="11" activeTab="16" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
+    <workbookView xWindow="16760" yWindow="4420" windowWidth="24260" windowHeight="19960" firstSheet="11" activeTab="16" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
   </bookViews>
   <sheets>
     <sheet name="sp014" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11104" uniqueCount="4592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11107" uniqueCount="4594">
   <si>
     <t>SampleID</t>
   </si>
@@ -13827,6 +13827,12 @@
   </si>
   <si>
     <t>NM9</t>
+  </si>
+  <si>
+    <t>/home/springer/data_release/umgc/novaseq/200226_A00223_0330_BH2WT2DSXY/Springer_Project_069</t>
+  </si>
+  <si>
+    <t>HY34_S88</t>
   </si>
 </sst>
 </file>
@@ -20936,10 +20942,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A2E0E7-B24A-E545-A8AB-EE5C932ADD80}">
-  <dimension ref="A1:G291"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G292" sqref="G292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23288,6 +23294,17 @@
       </c>
       <c r="G291" t="s">
         <v>4492</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>3535</v>
+      </c>
+      <c r="F292" t="s">
+        <v>4592</v>
+      </c>
+      <c r="G292" t="s">
+        <v>4593</v>
       </c>
     </row>
   </sheetData>

--- a/data/05.local.xlsx
+++ b/data/05.local.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/22D28208-F609-440A-B67C-CF5B61D4FD92/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/39C2B150-0750-4BE5-B5AB-F0DA8D75D436/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6E5789-7635-D84A-A245-6E6DD35DB6E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F189CA-A588-1740-8669-4BAB9E49E918}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16760" yWindow="4420" windowWidth="24260" windowHeight="19960" firstSheet="11" activeTab="16" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
+    <workbookView xWindow="13980" yWindow="4780" windowWidth="24260" windowHeight="19960" firstSheet="11" activeTab="16" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
   </bookViews>
   <sheets>
     <sheet name="sp014" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11107" uniqueCount="4594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11984" uniqueCount="4616">
   <si>
     <t>SampleID</t>
   </si>
@@ -13833,13 +13833,79 @@
   </si>
   <si>
     <t>HY34_S88</t>
+  </si>
+  <si>
+    <t>HY</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>Il14H</t>
+  </si>
+  <si>
+    <t>Ki3</t>
+  </si>
+  <si>
+    <t>M162W</t>
+  </si>
+  <si>
+    <t>M37W</t>
+  </si>
+  <si>
+    <t>Mo18W</t>
+  </si>
+  <si>
+    <t>MS71</t>
+  </si>
+  <si>
+    <t>NC350</t>
+  </si>
+  <si>
+    <t>NC358</t>
+  </si>
+  <si>
+    <t>Oh7B</t>
+  </si>
+  <si>
+    <t>CML333</t>
+  </si>
+  <si>
+    <t>CML52</t>
+  </si>
+  <si>
+    <t>CML69</t>
+  </si>
+  <si>
+    <t>DK105</t>
+  </si>
+  <si>
+    <t>EP1</t>
+  </si>
+  <si>
+    <t>Ki11</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Timepiont</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>W22xMo17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -13866,13 +13932,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -13887,11 +13965,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20942,15 +21022,16 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A2E0E7-B24A-E545-A8AB-EE5C932ADD80}">
-  <dimension ref="A1:G292"/>
+  <dimension ref="A1:I292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G292" sqref="G292"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20964,2350 +21045,6730 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4613</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4202</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3602</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E4" s="4">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3603</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E5" s="4">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3604</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E6" s="4">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3605</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E7" s="4">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3606</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E8" s="4">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3607</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E9" s="4">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3608</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E10" s="4">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E11" s="4">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3610</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E12" s="4">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3611</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E13" s="4">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3612</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E15" s="4">
+        <v>25</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3613</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E16" s="4">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3614</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E17" s="4">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3615</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E18" s="4">
+        <v>25</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3616</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E19" s="4">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3617</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E20" s="4">
+        <v>25</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3618</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E21" s="4">
+        <v>25</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3619</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E22" s="4">
+        <v>25</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3620</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E23" s="4">
+        <v>25</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3621</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E24" s="4">
+        <v>25</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3513</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3622</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E26" s="4">
+        <v>25</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3623</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E27" s="4">
+        <v>25</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3624</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E28" s="4">
+        <v>25</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E29" s="4">
+        <v>25</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G29" s="4">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3626</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E30" s="4">
+        <v>25</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3627</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E31" s="4">
+        <v>25</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G31" s="4">
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3628</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E32" s="4">
+        <v>25</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G32" s="4">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G33" s="4">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G34" s="4">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G35" s="4">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3517</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G36" s="4">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3518</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G37" s="4">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3519</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G38" s="4">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3521</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3523</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3524</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3525</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G46" s="4">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G47" s="4">
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G48" s="4">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3529</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G49" s="4">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G50" s="4">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3504</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G52" s="4">
+        <v>2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G53" s="4">
+        <v>3</v>
+      </c>
+      <c r="I53" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>3533</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G54" s="4">
+        <v>3</v>
+      </c>
+      <c r="I54" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>3534</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G55" s="4">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>3535</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G56" s="4">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4592</v>
+      </c>
+      <c r="I56" t="s">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3536</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G57" s="4">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>4202</v>
       </c>
-      <c r="G2" t="s">
-        <v>4203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3603</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3604</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3605</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3607</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3608</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3609</v>
-      </c>
-      <c r="G9" t="s">
-        <v>4210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3610</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3611</v>
-      </c>
-      <c r="G11" t="s">
-        <v>4212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3511</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>3612</v>
-      </c>
-      <c r="G13" t="s">
-        <v>4214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>3613</v>
-      </c>
-      <c r="G14" t="s">
-        <v>4215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>3614</v>
-      </c>
-      <c r="G15" t="s">
-        <v>4216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>3615</v>
-      </c>
-      <c r="G16" t="s">
-        <v>4217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>3616</v>
-      </c>
-      <c r="G17" t="s">
-        <v>4218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>3617</v>
-      </c>
-      <c r="G18" t="s">
-        <v>4219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>3618</v>
-      </c>
-      <c r="G19" t="s">
-        <v>4220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>3619</v>
-      </c>
-      <c r="G20" t="s">
-        <v>4221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>3620</v>
-      </c>
-      <c r="G21" t="s">
-        <v>4222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>3621</v>
-      </c>
-      <c r="G22" t="s">
-        <v>4223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>3512</v>
-      </c>
-      <c r="G23" t="s">
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>3622</v>
-      </c>
-      <c r="G24" t="s">
-        <v>4225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>3623</v>
-      </c>
-      <c r="G25" t="s">
-        <v>4226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>3624</v>
-      </c>
-      <c r="G26" t="s">
-        <v>4227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>3625</v>
-      </c>
-      <c r="G27" t="s">
-        <v>4228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>3626</v>
-      </c>
-      <c r="G28" t="s">
-        <v>4229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>3627</v>
-      </c>
-      <c r="G29" t="s">
-        <v>4230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>3628</v>
-      </c>
-      <c r="G30" t="s">
-        <v>4231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>3513</v>
-      </c>
-      <c r="G31" t="s">
-        <v>4232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>3514</v>
-      </c>
-      <c r="G32" t="s">
-        <v>4233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>3515</v>
-      </c>
-      <c r="G33" t="s">
-        <v>4234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>3516</v>
-      </c>
-      <c r="G34" t="s">
-        <v>4235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>3517</v>
-      </c>
-      <c r="G35" t="s">
-        <v>4236</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>3518</v>
-      </c>
-      <c r="G36" t="s">
-        <v>4237</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>3519</v>
-      </c>
-      <c r="G37" t="s">
-        <v>4238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>3520</v>
-      </c>
-      <c r="G38" t="s">
-        <v>4239</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>3502</v>
-      </c>
-      <c r="G39" t="s">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>3521</v>
-      </c>
-      <c r="G40" t="s">
-        <v>4241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>3522</v>
-      </c>
-      <c r="G41" t="s">
-        <v>4242</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>3523</v>
-      </c>
-      <c r="G42" t="s">
-        <v>4243</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>3524</v>
-      </c>
-      <c r="G43" t="s">
-        <v>4244</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>3525</v>
-      </c>
-      <c r="G44" t="s">
-        <v>4245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>3526</v>
-      </c>
-      <c r="G45" t="s">
-        <v>4246</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>3527</v>
-      </c>
-      <c r="G46" t="s">
-        <v>4247</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>3528</v>
-      </c>
-      <c r="G47" t="s">
-        <v>4248</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>3529</v>
-      </c>
-      <c r="G48" t="s">
-        <v>4249</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>3530</v>
-      </c>
-      <c r="G49" t="s">
-        <v>4250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>3503</v>
-      </c>
-      <c r="G50" t="s">
-        <v>4251</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>3531</v>
-      </c>
-      <c r="G51" t="s">
-        <v>4252</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>3532</v>
-      </c>
-      <c r="G52" t="s">
-        <v>4253</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>3533</v>
-      </c>
-      <c r="G53" t="s">
-        <v>4254</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>3534</v>
-      </c>
-      <c r="G54" t="s">
-        <v>4255</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>3536</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="I57" t="s">
         <v>4256</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>3537</v>
       </c>
-      <c r="G56" t="s">
+      <c r="C58" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G58" s="4">
+        <v>3</v>
+      </c>
+      <c r="I58" t="s">
         <v>4257</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>3538</v>
       </c>
-      <c r="G57" t="s">
+      <c r="C59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
         <v>4258</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>3539</v>
       </c>
-      <c r="G58" t="s">
+      <c r="C60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
         <v>4259</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>3540</v>
       </c>
-      <c r="G59" t="s">
+      <c r="C61" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
         <v>4260</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>3504</v>
-      </c>
-      <c r="G60" t="s">
-        <v>4261</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>3541</v>
       </c>
-      <c r="G61" t="s">
+      <c r="C63" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
         <v>4262</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>3542</v>
       </c>
-      <c r="G62" t="s">
+      <c r="C64" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
         <v>4263</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>3543</v>
       </c>
-      <c r="G63" t="s">
+      <c r="C65" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
         <v>4264</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>3544</v>
       </c>
-      <c r="G64" t="s">
+      <c r="C66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G66" s="4">
+        <v>2</v>
+      </c>
+      <c r="I66" t="s">
         <v>4265</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>3545</v>
       </c>
-      <c r="G65" t="s">
+      <c r="C67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G67" s="4">
+        <v>2</v>
+      </c>
+      <c r="I67" t="s">
         <v>4266</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>3546</v>
       </c>
-      <c r="G66" t="s">
+      <c r="C68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G68" s="4">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
         <v>4267</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>3547</v>
       </c>
-      <c r="G67" t="s">
+      <c r="C69" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G69" s="4">
+        <v>2</v>
+      </c>
+      <c r="I69" t="s">
         <v>4268</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>3548</v>
       </c>
-      <c r="G68" t="s">
+      <c r="C70" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G70" s="4">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
         <v>4269</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>3549</v>
       </c>
-      <c r="G69" t="s">
+      <c r="C71" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G71" s="4">
+        <v>2</v>
+      </c>
+      <c r="I71" t="s">
         <v>4270</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>3550</v>
       </c>
-      <c r="G70" t="s">
+      <c r="C72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G72" s="4">
+        <v>3</v>
+      </c>
+      <c r="I72" t="s">
         <v>4271</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>3505</v>
-      </c>
-      <c r="G71" t="s">
-        <v>4272</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>3506</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>3551</v>
       </c>
-      <c r="G72" t="s">
+      <c r="C74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G74" s="4">
+        <v>3</v>
+      </c>
+      <c r="I74" t="s">
         <v>4273</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>3552</v>
       </c>
-      <c r="G73" t="s">
+      <c r="C75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G75" s="4">
+        <v>3</v>
+      </c>
+      <c r="I75" t="s">
         <v>4274</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>3553</v>
       </c>
-      <c r="G74" t="s">
+      <c r="C76" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G76" s="4">
+        <v>3</v>
+      </c>
+      <c r="I76" t="s">
         <v>4275</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>3554</v>
       </c>
-      <c r="G75" t="s">
+      <c r="C77" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G77" s="4">
+        <v>3</v>
+      </c>
+      <c r="I77" t="s">
         <v>4276</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>3555</v>
       </c>
-      <c r="G76" t="s">
+      <c r="C78" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G78" s="4">
+        <v>3</v>
+      </c>
+      <c r="I78" t="s">
         <v>4277</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>3556</v>
       </c>
-      <c r="G77" t="s">
+      <c r="C79" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G79" s="4">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
         <v>4278</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>3557</v>
       </c>
-      <c r="G78" t="s">
+      <c r="C80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
         <v>4279</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>3558</v>
       </c>
-      <c r="G79" t="s">
+      <c r="C81" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
         <v>4280</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>3559</v>
       </c>
-      <c r="G80" t="s">
+      <c r="C82" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
         <v>4281</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>3560</v>
       </c>
-      <c r="G81" t="s">
+      <c r="C83" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
         <v>4282</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>3506</v>
-      </c>
-      <c r="G82" t="s">
-        <v>4283</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>3561</v>
       </c>
-      <c r="G83" t="s">
+      <c r="C85" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G85" s="4">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
         <v>4284</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>3562</v>
       </c>
-      <c r="G84" t="s">
+      <c r="C86" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G86" s="4">
+        <v>2</v>
+      </c>
+      <c r="I86" t="s">
         <v>4285</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>3563</v>
       </c>
-      <c r="G85" t="s">
+      <c r="C87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G87" s="4">
+        <v>2</v>
+      </c>
+      <c r="I87" t="s">
         <v>4286</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>3564</v>
       </c>
-      <c r="G86" t="s">
+      <c r="C88" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G88" s="4">
+        <v>2</v>
+      </c>
+      <c r="I88" t="s">
         <v>4287</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>3565</v>
       </c>
-      <c r="G87" t="s">
+      <c r="C89" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G89" s="4">
+        <v>2</v>
+      </c>
+      <c r="I89" t="s">
         <v>4288</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>3567</v>
       </c>
-      <c r="G88" t="s">
+      <c r="C90" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G90" s="4">
+        <v>2</v>
+      </c>
+      <c r="I90" t="s">
         <v>4289</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>3568</v>
       </c>
-      <c r="G89" t="s">
+      <c r="C91" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G91" s="4">
+        <v>2</v>
+      </c>
+      <c r="I91" t="s">
         <v>4290</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>3569</v>
       </c>
-      <c r="G90" t="s">
+      <c r="C92" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G92" s="4">
+        <v>3</v>
+      </c>
+      <c r="I92" t="s">
         <v>4291</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>3570</v>
       </c>
-      <c r="G91" t="s">
+      <c r="C93" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G93" s="4">
+        <v>3</v>
+      </c>
+      <c r="I93" t="s">
         <v>4292</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>3571</v>
       </c>
-      <c r="G92" t="s">
+      <c r="C94" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G94" s="4">
+        <v>3</v>
+      </c>
+      <c r="I94" t="s">
         <v>4293</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>3507</v>
-      </c>
-      <c r="G93" t="s">
-        <v>4294</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G95" s="4">
+        <v>2</v>
+      </c>
+      <c r="I95" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>3572</v>
       </c>
-      <c r="G94" t="s">
+      <c r="C96" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E96" s="4">
+        <v>1</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G96" s="4">
+        <v>3</v>
+      </c>
+      <c r="I96" t="s">
         <v>4295</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>3573</v>
       </c>
-      <c r="G95" t="s">
+      <c r="C97" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E97" s="4">
+        <v>1</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G97" s="4">
+        <v>3</v>
+      </c>
+      <c r="I97" t="s">
         <v>4296</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>3574</v>
       </c>
-      <c r="G96" t="s">
+      <c r="C98" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G98" s="4">
+        <v>3</v>
+      </c>
+      <c r="I98" t="s">
         <v>4297</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>3575</v>
       </c>
-      <c r="G97" t="s">
+      <c r="C99" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E99" s="4">
+        <v>25</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
         <v>4298</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>3576</v>
       </c>
-      <c r="G98" t="s">
+      <c r="C100" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E100" s="4">
+        <v>25</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G100" s="4">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
         <v>4299</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>3577</v>
       </c>
-      <c r="G99" t="s">
+      <c r="C101" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E101" s="4">
+        <v>25</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G101" s="4">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
         <v>4300</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>3578</v>
       </c>
-      <c r="G100" t="s">
+      <c r="C102" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E102" s="4">
+        <v>25</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G102" s="4">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
         <v>4301</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>3579</v>
       </c>
-      <c r="G101" t="s">
+      <c r="C103" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E103" s="4">
+        <v>25</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G103" s="4">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
         <v>4302</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>3580</v>
       </c>
-      <c r="G102" t="s">
+      <c r="C104" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E104" s="4">
+        <v>25</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G104" s="4">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
         <v>4303</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>3581</v>
       </c>
-      <c r="G103" t="s">
+      <c r="C105" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E105" s="4">
+        <v>25</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G105" s="4">
+        <v>2</v>
+      </c>
+      <c r="I105" t="s">
         <v>4304</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>3508</v>
-      </c>
-      <c r="G104" t="s">
-        <v>4305</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G106" s="4">
+        <v>2</v>
+      </c>
+      <c r="I106" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>3582</v>
       </c>
-      <c r="G105" t="s">
+      <c r="C107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E107" s="4">
+        <v>25</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G107" s="4">
+        <v>2</v>
+      </c>
+      <c r="I107" t="s">
         <v>4306</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>3583</v>
       </c>
-      <c r="G106" t="s">
+      <c r="C108" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E108" s="4">
+        <v>25</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G108" s="4">
+        <v>2</v>
+      </c>
+      <c r="I108" t="s">
         <v>4307</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>3584</v>
       </c>
-      <c r="G107" t="s">
+      <c r="C109" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E109" s="4">
+        <v>25</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G109" s="4">
+        <v>2</v>
+      </c>
+      <c r="I109" t="s">
         <v>4308</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>3585</v>
       </c>
-      <c r="G108" t="s">
+      <c r="C110" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E110" s="4">
+        <v>25</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G110" s="4">
+        <v>2</v>
+      </c>
+      <c r="I110" t="s">
         <v>4309</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>3586</v>
       </c>
-      <c r="G109" t="s">
+      <c r="C111" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E111" s="4">
+        <v>25</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G111" s="4">
+        <v>2</v>
+      </c>
+      <c r="I111" t="s">
         <v>4310</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>3587</v>
       </c>
-      <c r="G110" t="s">
+      <c r="C112" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E112" s="4">
+        <v>25</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G112" s="4">
+        <v>3</v>
+      </c>
+      <c r="I112" t="s">
         <v>4311</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>3588</v>
       </c>
-      <c r="G111" t="s">
+      <c r="C113" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E113" s="4">
+        <v>25</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G113" s="4">
+        <v>3</v>
+      </c>
+      <c r="I113" t="s">
         <v>4312</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>3589</v>
       </c>
-      <c r="G112" t="s">
+      <c r="C114" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E114" s="4">
+        <v>25</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G114" s="4">
+        <v>3</v>
+      </c>
+      <c r="I114" t="s">
         <v>4313</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>3590</v>
       </c>
-      <c r="G113" t="s">
+      <c r="C115" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E115" s="4">
+        <v>25</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G115" s="4">
+        <v>3</v>
+      </c>
+      <c r="I115" t="s">
         <v>4314</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>3591</v>
       </c>
-      <c r="G114" t="s">
+      <c r="C116" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E116" s="4">
+        <v>25</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G116" s="4">
+        <v>3</v>
+      </c>
+      <c r="I116" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>3509</v>
-      </c>
-      <c r="G115" t="s">
-        <v>4316</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G117" s="4">
+        <v>2</v>
+      </c>
+      <c r="I117" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>3592</v>
       </c>
-      <c r="G116" t="s">
+      <c r="C118" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E118" s="4">
+        <v>25</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G118" s="4">
+        <v>3</v>
+      </c>
+      <c r="I118" t="s">
         <v>4317</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>3593</v>
       </c>
-      <c r="G117" t="s">
+      <c r="C119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E119" s="4">
+        <v>25</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G119" s="4">
+        <v>1</v>
+      </c>
+      <c r="I119" t="s">
         <v>4318</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>3594</v>
       </c>
-      <c r="G118" t="s">
+      <c r="C120" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E120" s="4">
+        <v>25</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G120" s="4">
+        <v>1</v>
+      </c>
+      <c r="I120" t="s">
         <v>4319</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>3595</v>
       </c>
-      <c r="G119" t="s">
+      <c r="C121" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E121" s="4">
+        <v>25</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G121" s="4">
+        <v>1</v>
+      </c>
+      <c r="I121" t="s">
         <v>4320</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>3596</v>
       </c>
-      <c r="G120" t="s">
+      <c r="C122" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E122" s="4">
+        <v>25</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G122" s="4">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
         <v>4321</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>3597</v>
       </c>
-      <c r="G121" t="s">
+      <c r="C123" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E123" s="4">
+        <v>25</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G123" s="4">
+        <v>1</v>
+      </c>
+      <c r="I123" t="s">
         <v>4322</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>3598</v>
       </c>
-      <c r="G122" t="s">
+      <c r="C124" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E124" s="4">
+        <v>25</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G124" s="4">
+        <v>1</v>
+      </c>
+      <c r="I124" t="s">
         <v>4323</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>3599</v>
       </c>
-      <c r="G123" t="s">
+      <c r="C125" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E125" s="4">
+        <v>25</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G125" s="4">
+        <v>2</v>
+      </c>
+      <c r="I125" t="s">
         <v>4324</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>3600</v>
       </c>
-      <c r="G124" t="s">
+      <c r="C126" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E126" s="4">
+        <v>25</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G126" s="4">
+        <v>2</v>
+      </c>
+      <c r="I126" t="s">
         <v>4325</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>3601</v>
       </c>
-      <c r="G125" t="s">
+      <c r="C127" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E127" s="4">
+        <v>25</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="G127" s="4">
+        <v>2</v>
+      </c>
+      <c r="I127" t="s">
         <v>4326</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>3510</v>
-      </c>
-      <c r="G126" t="s">
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E128" s="4">
+        <v>1</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G128" s="4">
+        <v>1</v>
+      </c>
+      <c r="I128" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>4494</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>4597</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E129" s="4">
+        <v>1</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G129" s="4">
+        <v>1</v>
+      </c>
+      <c r="I129" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>4493</v>
       </c>
-      <c r="G127" t="s">
+      <c r="C130" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E130" s="4">
+        <v>25</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G130" s="4">
+        <v>1</v>
+      </c>
+      <c r="I130" t="s">
         <v>4328</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>4494</v>
-      </c>
-      <c r="G128" t="s">
-        <v>4329</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>4495</v>
       </c>
-      <c r="G129" t="s">
+      <c r="C131" s="4" t="s">
+        <v>4598</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E131" s="4">
+        <v>1</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G131" s="4">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
         <v>4330</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>4496</v>
       </c>
-      <c r="G130" t="s">
+      <c r="C132" s="4" t="s">
+        <v>4599</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E132" s="4">
+        <v>1</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G132" s="4">
+        <v>1</v>
+      </c>
+      <c r="I132" t="s">
         <v>4331</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>4497</v>
       </c>
-      <c r="G131" t="s">
+      <c r="C133" s="4" t="s">
+        <v>4600</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E133" s="4">
+        <v>1</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G133" s="4">
+        <v>1</v>
+      </c>
+      <c r="I133" t="s">
         <v>4332</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>4498</v>
       </c>
-      <c r="G132" t="s">
+      <c r="C134" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E134" s="4">
+        <v>1</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G134" s="4">
+        <v>1</v>
+      </c>
+      <c r="I134" t="s">
         <v>4333</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>4499</v>
       </c>
-      <c r="G133" t="s">
+      <c r="C135" s="4" t="s">
+        <v>4601</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E135" s="4">
+        <v>1</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G135" s="4">
+        <v>1</v>
+      </c>
+      <c r="I135" t="s">
         <v>4334</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>4500</v>
       </c>
-      <c r="G134" t="s">
+      <c r="C136" s="4" t="s">
+        <v>4602</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E136" s="4">
+        <v>1</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G136" s="4">
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
         <v>4335</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>4501</v>
       </c>
-      <c r="G135" t="s">
+      <c r="C137" s="4" t="s">
+        <v>4603</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E137" s="4">
+        <v>1</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G137" s="4">
+        <v>1</v>
+      </c>
+      <c r="I137" t="s">
         <v>4336</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>4502</v>
       </c>
-      <c r="G136" t="s">
+      <c r="C138" s="4" t="s">
+        <v>4604</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E138" s="4">
+        <v>1</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G138" s="4">
+        <v>1</v>
+      </c>
+      <c r="I138" t="s">
         <v>4337</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>4503</v>
-      </c>
-      <c r="G137" t="s">
-        <v>4338</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E139" s="4">
+        <v>1</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G139" s="4">
+        <v>1</v>
+      </c>
+      <c r="I139" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>4504</v>
       </c>
-      <c r="G138" t="s">
+      <c r="C140" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E140" s="4">
+        <v>1</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G140" s="4">
+        <v>1</v>
+      </c>
+      <c r="I140" t="s">
         <v>4339</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>4505</v>
       </c>
-      <c r="G139" t="s">
+      <c r="C141" s="4" t="s">
+        <v>4605</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E141" s="4">
+        <v>1</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G141" s="4">
+        <v>1</v>
+      </c>
+      <c r="I141" t="s">
         <v>4340</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>4506</v>
       </c>
-      <c r="G140" t="s">
+      <c r="C142" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E142" s="4">
+        <v>1</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G142" s="4">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
         <v>4341</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>4507</v>
       </c>
-      <c r="G141" t="s">
+      <c r="C143" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E143" s="4">
+        <v>1</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G143" s="4">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
         <v>4342</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>4508</v>
       </c>
-      <c r="G142" t="s">
+      <c r="C144" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E144" s="4">
+        <v>1</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G144" s="4">
+        <v>1</v>
+      </c>
+      <c r="I144" t="s">
         <v>4343</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>4509</v>
       </c>
-      <c r="G143" t="s">
+      <c r="C145" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E145" s="4">
+        <v>1</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G145" s="4">
+        <v>1</v>
+      </c>
+      <c r="I145" t="s">
         <v>4344</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>4510</v>
       </c>
-      <c r="G144" t="s">
+      <c r="C146" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E146" s="4">
+        <v>1</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G146" s="4">
+        <v>1</v>
+      </c>
+      <c r="I146" t="s">
         <v>4345</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>4511</v>
       </c>
-      <c r="G145" t="s">
+      <c r="C147" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E147" s="4">
+        <v>1</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G147" s="4">
+        <v>1</v>
+      </c>
+      <c r="I147" t="s">
         <v>4346</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>4512</v>
       </c>
-      <c r="G146" t="s">
+      <c r="C148" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E148" s="4">
+        <v>1</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G148" s="4">
+        <v>1</v>
+      </c>
+      <c r="I148" t="s">
         <v>4347</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>4513</v>
       </c>
-      <c r="G147" t="s">
+      <c r="C149" s="4" t="s">
+        <v>4606</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E149" s="4">
+        <v>1</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G149" s="4">
+        <v>1</v>
+      </c>
+      <c r="I149" t="s">
         <v>4348</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>4514</v>
-      </c>
-      <c r="G148" t="s">
-        <v>4349</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>4525</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E150" s="4">
+        <v>1</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G150" s="4">
+        <v>1</v>
+      </c>
+      <c r="I150" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>4515</v>
       </c>
-      <c r="G149" t="s">
+      <c r="C151" s="4" t="s">
+        <v>4607</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E151" s="4">
+        <v>1</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G151" s="4">
+        <v>1</v>
+      </c>
+      <c r="I151" t="s">
         <v>4350</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>4516</v>
       </c>
-      <c r="G150" t="s">
+      <c r="C152" s="4" t="s">
+        <v>4608</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E152" s="4">
+        <v>1</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G152" s="4">
+        <v>1</v>
+      </c>
+      <c r="I152" t="s">
         <v>4351</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>4517</v>
       </c>
-      <c r="G151" t="s">
+      <c r="C153" s="4" t="s">
+        <v>4609</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E153" s="4">
+        <v>1</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G153" s="4">
+        <v>1</v>
+      </c>
+      <c r="I153" t="s">
         <v>4352</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>4518</v>
       </c>
-      <c r="G152" t="s">
+      <c r="C154" s="4" t="s">
+        <v>4610</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E154" s="4">
+        <v>1</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G154" s="4">
+        <v>1</v>
+      </c>
+      <c r="I154" t="s">
         <v>4353</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>4519</v>
       </c>
-      <c r="G153" t="s">
+      <c r="C155" s="4" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E155" s="4">
+        <v>1</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G155" s="4">
+        <v>1</v>
+      </c>
+      <c r="I155" t="s">
         <v>4354</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>4520</v>
       </c>
-      <c r="G154" t="s">
+      <c r="C156" s="4" t="s">
+        <v>4597</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E156" s="4">
+        <v>1</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G156" s="4">
+        <v>1</v>
+      </c>
+      <c r="I156" t="s">
         <v>4355</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>4521</v>
       </c>
-      <c r="G155" t="s">
+      <c r="C157" s="4" t="s">
+        <v>4611</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E157" s="4">
+        <v>1</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G157" s="4">
+        <v>1</v>
+      </c>
+      <c r="I157" t="s">
         <v>4356</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>4522</v>
       </c>
-      <c r="G156" t="s">
+      <c r="C158" s="4" t="s">
+        <v>4598</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E158" s="4">
+        <v>1</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G158" s="4">
+        <v>1</v>
+      </c>
+      <c r="I158" t="s">
         <v>4357</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>4523</v>
       </c>
-      <c r="G157" t="s">
+      <c r="C159" s="4" t="s">
+        <v>4599</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E159" s="4">
+        <v>1</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G159" s="4">
+        <v>1</v>
+      </c>
+      <c r="I159" t="s">
         <v>4358</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>4524</v>
       </c>
-      <c r="G158" t="s">
+      <c r="C160" s="4" t="s">
+        <v>4600</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E160" s="4">
+        <v>1</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G160" s="4">
+        <v>1</v>
+      </c>
+      <c r="I160" t="s">
         <v>4359</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>4525</v>
-      </c>
-      <c r="G159" t="s">
-        <v>4360</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>4536</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>4606</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E161" s="4">
+        <v>1</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G161" s="4">
+        <v>1</v>
+      </c>
+      <c r="I161" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>4526</v>
       </c>
-      <c r="G160" t="s">
+      <c r="C162" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E162" s="4">
+        <v>1</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G162" s="4">
+        <v>1</v>
+      </c>
+      <c r="I162" t="s">
         <v>4361</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>4527</v>
       </c>
-      <c r="G161" t="s">
+      <c r="C163" s="4" t="s">
+        <v>4601</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E163" s="4">
+        <v>1</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G163" s="4">
+        <v>1</v>
+      </c>
+      <c r="I163" t="s">
         <v>4362</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>4528</v>
       </c>
-      <c r="G162" t="s">
+      <c r="C164" s="4" t="s">
+        <v>4602</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E164" s="4">
+        <v>1</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G164" s="4">
+        <v>1</v>
+      </c>
+      <c r="I164" t="s">
         <v>4363</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>4529</v>
       </c>
-      <c r="G163" t="s">
+      <c r="C165" s="4" t="s">
+        <v>4603</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E165" s="4">
+        <v>1</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G165" s="4">
+        <v>1</v>
+      </c>
+      <c r="I165" t="s">
         <v>4364</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>4530</v>
       </c>
-      <c r="G164" t="s">
+      <c r="C166" s="4" t="s">
+        <v>4604</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E166" s="4">
+        <v>1</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G166" s="4">
+        <v>1</v>
+      </c>
+      <c r="I166" t="s">
         <v>4365</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>4531</v>
       </c>
-      <c r="G165" t="s">
+      <c r="C167" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E167" s="4">
+        <v>1</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G167" s="4">
+        <v>1</v>
+      </c>
+      <c r="I167" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>4532</v>
       </c>
-      <c r="G166" t="s">
+      <c r="C168" s="4" t="s">
+        <v>4605</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E168" s="4">
+        <v>1</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G168" s="4">
+        <v>1</v>
+      </c>
+      <c r="I168" t="s">
         <v>4367</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>4533</v>
       </c>
-      <c r="G167" t="s">
+      <c r="C169" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E169" s="4">
+        <v>1</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G169" s="4">
+        <v>1</v>
+      </c>
+      <c r="I169" t="s">
         <v>4368</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>4534</v>
       </c>
-      <c r="G168" t="s">
+      <c r="C170" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E170" s="4">
+        <v>1</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G170" s="4">
+        <v>1</v>
+      </c>
+      <c r="I170" t="s">
         <v>4369</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>4535</v>
       </c>
-      <c r="G169" t="s">
+      <c r="C171" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E171" s="4">
+        <v>1</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G171" s="4">
+        <v>1</v>
+      </c>
+      <c r="I171" t="s">
         <v>4370</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>4536</v>
-      </c>
-      <c r="G170" t="s">
-        <v>4371</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>4547</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>4607</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E172" s="4">
+        <v>1</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G172" s="4">
+        <v>1</v>
+      </c>
+      <c r="I172" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>4537</v>
       </c>
-      <c r="G171" t="s">
+      <c r="C173" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E173" s="4">
+        <v>1</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G173" s="4">
+        <v>1</v>
+      </c>
+      <c r="I173" t="s">
         <v>4372</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>4538</v>
       </c>
-      <c r="G172" t="s">
+      <c r="C174" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E174" s="4">
+        <v>25</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G174" s="4">
+        <v>1</v>
+      </c>
+      <c r="I174" t="s">
         <v>4373</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>4539</v>
       </c>
-      <c r="G173" t="s">
+      <c r="C175" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E175" s="4">
+        <v>25</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G175" s="4">
+        <v>1</v>
+      </c>
+      <c r="I175" t="s">
         <v>4374</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>4540</v>
       </c>
-      <c r="G174" t="s">
+      <c r="C176" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E176" s="4">
+        <v>25</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G176" s="4">
+        <v>1</v>
+      </c>
+      <c r="I176" t="s">
         <v>4375</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>4541</v>
       </c>
-      <c r="G175" t="s">
+      <c r="C177" s="4" t="s">
+        <v>4606</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E177" s="4">
+        <v>25</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G177" s="4">
+        <v>1</v>
+      </c>
+      <c r="I177" t="s">
         <v>4376</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>4542</v>
       </c>
-      <c r="G176" t="s">
+      <c r="C178" s="4" t="s">
+        <v>4607</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E178" s="4">
+        <v>25</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G178" s="4">
+        <v>1</v>
+      </c>
+      <c r="I178" t="s">
         <v>4377</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>4543</v>
       </c>
-      <c r="G177" t="s">
+      <c r="C179" s="4" t="s">
+        <v>4608</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E179" s="4">
+        <v>25</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G179" s="4">
+        <v>1</v>
+      </c>
+      <c r="I179" t="s">
         <v>4378</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>4544</v>
       </c>
-      <c r="G178" t="s">
+      <c r="C180" s="4" t="s">
+        <v>4609</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E180" s="4">
+        <v>25</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G180" s="4">
+        <v>1</v>
+      </c>
+      <c r="I180" t="s">
         <v>4379</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>4545</v>
       </c>
-      <c r="G179" t="s">
+      <c r="C181" s="4" t="s">
+        <v>4610</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E181" s="4">
+        <v>25</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G181" s="4">
+        <v>1</v>
+      </c>
+      <c r="I181" t="s">
         <v>4380</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>4546</v>
       </c>
-      <c r="G180" t="s">
+      <c r="C182" s="4" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E182" s="4">
+        <v>25</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G182" s="4">
+        <v>1</v>
+      </c>
+      <c r="I182" t="s">
         <v>4381</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>4547</v>
-      </c>
-      <c r="G181" t="s">
-        <v>4382</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>4558</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>4608</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E183" s="4">
+        <v>1</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G183" s="4">
+        <v>1</v>
+      </c>
+      <c r="I183" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>4548</v>
       </c>
-      <c r="G182" t="s">
+      <c r="C184" s="4" t="s">
+        <v>4597</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E184" s="4">
+        <v>25</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G184" s="4">
+        <v>1</v>
+      </c>
+      <c r="I184" t="s">
         <v>4383</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>4549</v>
       </c>
-      <c r="G183" t="s">
+      <c r="C185" s="4" t="s">
+        <v>4611</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E185" s="4">
+        <v>25</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G185" s="4">
+        <v>1</v>
+      </c>
+      <c r="I185" t="s">
         <v>4384</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>4550</v>
       </c>
-      <c r="G184" t="s">
+      <c r="C186" s="4" t="s">
+        <v>4598</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E186" s="4">
+        <v>25</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G186" s="4">
+        <v>1</v>
+      </c>
+      <c r="I186" t="s">
         <v>4385</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>4551</v>
       </c>
-      <c r="G185" t="s">
+      <c r="C187" s="4" t="s">
+        <v>4599</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E187" s="4">
+        <v>25</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G187" s="4">
+        <v>1</v>
+      </c>
+      <c r="I187" t="s">
         <v>4386</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>4552</v>
       </c>
-      <c r="G186" t="s">
+      <c r="C188" s="4" t="s">
+        <v>4600</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E188" s="4">
+        <v>25</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G188" s="4">
+        <v>1</v>
+      </c>
+      <c r="I188" t="s">
         <v>4387</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>4553</v>
       </c>
-      <c r="G187" t="s">
+      <c r="C189" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E189" s="4">
+        <v>25</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G189" s="4">
+        <v>1</v>
+      </c>
+      <c r="I189" t="s">
         <v>4388</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>4554</v>
       </c>
-      <c r="G188" t="s">
+      <c r="C190" s="4" t="s">
+        <v>4601</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E190" s="4">
+        <v>25</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G190" s="4">
+        <v>1</v>
+      </c>
+      <c r="I190" t="s">
         <v>4389</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>4555</v>
       </c>
-      <c r="G189" t="s">
+      <c r="C191" s="4" t="s">
+        <v>4602</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E191" s="4">
+        <v>25</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G191" s="4">
+        <v>1</v>
+      </c>
+      <c r="I191" t="s">
         <v>4390</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>4556</v>
       </c>
-      <c r="G190" t="s">
+      <c r="C192" s="4" t="s">
+        <v>4603</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E192" s="4">
+        <v>25</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G192" s="4">
+        <v>1</v>
+      </c>
+      <c r="I192" t="s">
         <v>4391</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>4557</v>
       </c>
-      <c r="G191" t="s">
+      <c r="C193" s="4" t="s">
+        <v>4604</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E193" s="4">
+        <v>25</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G193" s="4">
+        <v>1</v>
+      </c>
+      <c r="I193" t="s">
         <v>4392</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>4558</v>
-      </c>
-      <c r="G192" t="s">
-        <v>4393</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>4569</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>4609</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E194" s="4">
+        <v>1</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G194" s="4">
+        <v>1</v>
+      </c>
+      <c r="I194" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>4559</v>
       </c>
-      <c r="G193" t="s">
+      <c r="C195" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E195" s="4">
+        <v>25</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G195" s="4">
+        <v>1</v>
+      </c>
+      <c r="I195" t="s">
         <v>4394</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>4560</v>
       </c>
-      <c r="G194" t="s">
+      <c r="C196" s="4" t="s">
+        <v>4605</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E196" s="4">
+        <v>25</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G196" s="4">
+        <v>1</v>
+      </c>
+      <c r="I196" t="s">
         <v>4395</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>4561</v>
       </c>
-      <c r="G195" t="s">
+      <c r="C197" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E197" s="4">
+        <v>25</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G197" s="4">
+        <v>1</v>
+      </c>
+      <c r="I197" t="s">
         <v>4396</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>4562</v>
       </c>
-      <c r="G196" t="s">
+      <c r="C198" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E198" s="4">
+        <v>25</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G198" s="4">
+        <v>1</v>
+      </c>
+      <c r="I198" t="s">
         <v>4397</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>4563</v>
       </c>
-      <c r="G197" t="s">
+      <c r="C199" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E199" s="4">
+        <v>25</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G199" s="4">
+        <v>1</v>
+      </c>
+      <c r="I199" t="s">
         <v>4398</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>4564</v>
       </c>
-      <c r="G198" t="s">
+      <c r="C200" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E200" s="4">
+        <v>25</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G200" s="4">
+        <v>1</v>
+      </c>
+      <c r="I200" t="s">
         <v>4399</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>4565</v>
       </c>
-      <c r="G199" t="s">
+      <c r="C201" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E201" s="4">
+        <v>25</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G201" s="4">
+        <v>1</v>
+      </c>
+      <c r="I201" t="s">
         <v>4400</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>4566</v>
       </c>
-      <c r="G200" t="s">
+      <c r="C202" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E202" s="4">
+        <v>25</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G202" s="4">
+        <v>1</v>
+      </c>
+      <c r="I202" t="s">
         <v>4401</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>4567</v>
       </c>
-      <c r="G201" t="s">
+      <c r="C203" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E203" s="4">
+        <v>25</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G203" s="4">
+        <v>1</v>
+      </c>
+      <c r="I203" t="s">
         <v>4402</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>4568</v>
       </c>
-      <c r="G202" t="s">
+      <c r="C204" s="4" t="s">
+        <v>4606</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E204" s="4">
+        <v>25</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G204" s="4">
+        <v>1</v>
+      </c>
+      <c r="I204" t="s">
         <v>4403</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>4569</v>
-      </c>
-      <c r="G203" t="s">
-        <v>4404</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>4580</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>4610</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E205" s="4">
+        <v>1</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G205" s="4">
+        <v>1</v>
+      </c>
+      <c r="I205" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>4570</v>
       </c>
-      <c r="G204" t="s">
+      <c r="C206" s="4" t="s">
+        <v>4607</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E206" s="4">
+        <v>25</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G206" s="4">
+        <v>1</v>
+      </c>
+      <c r="I206" t="s">
         <v>4405</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>4571</v>
       </c>
-      <c r="G205" t="s">
+      <c r="C207" s="4" t="s">
+        <v>4608</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E207" s="4">
+        <v>25</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G207" s="4">
+        <v>1</v>
+      </c>
+      <c r="I207" t="s">
         <v>4406</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>4572</v>
       </c>
-      <c r="G206" t="s">
+      <c r="C208" s="4" t="s">
+        <v>4609</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E208" s="4">
+        <v>25</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G208" s="4">
+        <v>1</v>
+      </c>
+      <c r="I208" t="s">
         <v>4407</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>4573</v>
       </c>
-      <c r="G207" t="s">
+      <c r="C209" s="4" t="s">
+        <v>4610</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E209" s="4">
+        <v>25</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G209" s="4">
+        <v>1</v>
+      </c>
+      <c r="I209" t="s">
         <v>4408</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>4574</v>
       </c>
-      <c r="G208" t="s">
+      <c r="C210" s="4" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E210" s="4">
+        <v>25</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G210" s="4">
+        <v>1</v>
+      </c>
+      <c r="I210" t="s">
         <v>4409</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
         <v>4575</v>
       </c>
-      <c r="G209" t="s">
+      <c r="C211" s="4" t="s">
+        <v>4597</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E211" s="4">
+        <v>25</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G211" s="4">
+        <v>1</v>
+      </c>
+      <c r="I211" t="s">
         <v>4410</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>4576</v>
       </c>
-      <c r="G210" t="s">
+      <c r="C212" s="4" t="s">
+        <v>4611</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E212" s="4">
+        <v>25</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G212" s="4">
+        <v>1</v>
+      </c>
+      <c r="I212" t="s">
         <v>4411</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
         <v>4577</v>
       </c>
-      <c r="G211" t="s">
+      <c r="C213" s="4" t="s">
+        <v>4598</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E213" s="4">
+        <v>25</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G213" s="4">
+        <v>1</v>
+      </c>
+      <c r="I213" t="s">
         <v>4412</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
         <v>4578</v>
       </c>
-      <c r="G212" t="s">
+      <c r="C214" s="4" t="s">
+        <v>4599</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E214" s="4">
+        <v>25</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G214" s="4">
+        <v>1</v>
+      </c>
+      <c r="I214" t="s">
         <v>4413</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
         <v>4579</v>
       </c>
-      <c r="G213" t="s">
+      <c r="C215" s="4" t="s">
+        <v>4600</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E215" s="4">
+        <v>25</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G215" s="4">
+        <v>1</v>
+      </c>
+      <c r="I215" t="s">
         <v>4414</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>4580</v>
-      </c>
-      <c r="G214" t="s">
-        <v>4415</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>4591</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E216" s="4">
+        <v>1</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G216" s="4">
+        <v>1</v>
+      </c>
+      <c r="I216" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
         <v>4581</v>
       </c>
-      <c r="G215" t="s">
+      <c r="C217" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E217" s="4">
+        <v>25</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G217" s="4">
+        <v>1</v>
+      </c>
+      <c r="I217" t="s">
         <v>4416</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>4582</v>
       </c>
-      <c r="G216" t="s">
+      <c r="C218" s="4" t="s">
+        <v>4601</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E218" s="4">
+        <v>25</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G218" s="4">
+        <v>1</v>
+      </c>
+      <c r="I218" t="s">
         <v>4417</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>4583</v>
       </c>
-      <c r="G217" t="s">
+      <c r="C219" s="4" t="s">
+        <v>4602</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E219" s="4">
+        <v>25</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G219" s="4">
+        <v>1</v>
+      </c>
+      <c r="I219" t="s">
         <v>4418</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>4584</v>
       </c>
-      <c r="G218" t="s">
+      <c r="C220" s="4" t="s">
+        <v>4603</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E220" s="4">
+        <v>25</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G220" s="4">
+        <v>1</v>
+      </c>
+      <c r="I220" t="s">
         <v>4419</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>4585</v>
       </c>
-      <c r="G219" t="s">
+      <c r="C221" s="4" t="s">
+        <v>4604</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E221" s="4">
+        <v>25</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G221" s="4">
+        <v>1</v>
+      </c>
+      <c r="I221" t="s">
         <v>4420</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>4586</v>
       </c>
-      <c r="G220" t="s">
+      <c r="C222" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E222" s="4">
+        <v>25</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G222" s="4">
+        <v>1</v>
+      </c>
+      <c r="I222" t="s">
         <v>4421</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
         <v>4587</v>
       </c>
-      <c r="G221" t="s">
+      <c r="C223" s="4" t="s">
+        <v>4605</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E223" s="4">
+        <v>25</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G223" s="4">
+        <v>1</v>
+      </c>
+      <c r="I223" t="s">
         <v>4422</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>4588</v>
       </c>
-      <c r="G222" t="s">
+      <c r="C224" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E224" s="4">
+        <v>25</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G224" s="4">
+        <v>1</v>
+      </c>
+      <c r="I224" t="s">
         <v>4423</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
         <v>4589</v>
       </c>
-      <c r="G223" t="s">
+      <c r="C225" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E225" s="4">
+        <v>25</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G225" s="4">
+        <v>1</v>
+      </c>
+      <c r="I225" t="s">
         <v>4424</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>4590</v>
       </c>
-      <c r="G224" t="s">
+      <c r="C226" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E226" s="4">
+        <v>25</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G226" s="4">
+        <v>1</v>
+      </c>
+      <c r="I226" t="s">
         <v>4425</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>4591</v>
-      </c>
-      <c r="G225" t="s">
-        <v>4426</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E227" s="4">
+        <v>0</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G227" s="4">
+        <v>1</v>
+      </c>
+      <c r="I227" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>3388</v>
       </c>
-      <c r="G226" t="s">
+      <c r="C228" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E228" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G228" s="4">
+        <v>1</v>
+      </c>
+      <c r="I228" t="s">
         <v>4427</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>3390</v>
       </c>
-      <c r="G227" t="s">
+      <c r="C229" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E229" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G229" s="4">
+        <v>1</v>
+      </c>
+      <c r="I229" t="s">
         <v>4428</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
         <v>3391</v>
       </c>
-      <c r="G228" t="s">
+      <c r="C230" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E230" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G230" s="4">
+        <v>1</v>
+      </c>
+      <c r="I230" t="s">
         <v>4429</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>3393</v>
       </c>
-      <c r="G229" t="s">
+      <c r="C231" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E231" s="4">
+        <v>1</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G231" s="4">
+        <v>1</v>
+      </c>
+      <c r="I231" t="s">
         <v>4430</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>3395</v>
       </c>
-      <c r="G230" t="s">
+      <c r="C232" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E232" s="4">
+        <v>1</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G232" s="4">
+        <v>1</v>
+      </c>
+      <c r="I232" t="s">
         <v>4431</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
         <v>3397</v>
       </c>
-      <c r="G231" t="s">
+      <c r="C233" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E233" s="4">
+        <v>1</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G233" s="4">
+        <v>1</v>
+      </c>
+      <c r="I233" t="s">
         <v>4432</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>3399</v>
       </c>
-      <c r="G232" t="s">
+      <c r="C234" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E234" s="4">
+        <v>1</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G234" s="4">
+        <v>1</v>
+      </c>
+      <c r="I234" t="s">
         <v>4433</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>3401</v>
       </c>
-      <c r="G233" t="s">
+      <c r="C235" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E235" s="4">
+        <v>1</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G235" s="4">
+        <v>1</v>
+      </c>
+      <c r="I235" t="s">
         <v>4434</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>3403</v>
       </c>
-      <c r="G234" t="s">
+      <c r="C236" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E236" s="4">
+        <v>1</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G236" s="4">
+        <v>1</v>
+      </c>
+      <c r="I236" t="s">
         <v>4435</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
         <v>3405</v>
       </c>
-      <c r="G235" t="s">
+      <c r="C237" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E237" s="4">
+        <v>1</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G237" s="4">
+        <v>1</v>
+      </c>
+      <c r="I237" t="s">
         <v>4436</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>3370</v>
-      </c>
-      <c r="G236" t="s">
-        <v>4437</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>3372</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E238" s="4">
+        <v>0</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G238" s="4">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
         <v>3407</v>
       </c>
-      <c r="G237" t="s">
+      <c r="C239" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E239" s="4">
+        <v>1</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G239" s="4">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>4438</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
         <v>3409</v>
       </c>
-      <c r="G238" t="s">
+      <c r="C240" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E240" s="4">
+        <v>1</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G240" s="4">
+        <v>1</v>
+      </c>
+      <c r="I240" t="s">
         <v>4439</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
         <v>3411</v>
       </c>
-      <c r="G239" t="s">
+      <c r="C241" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E241" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G241" s="4">
+        <v>1</v>
+      </c>
+      <c r="I241" t="s">
         <v>4440</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
         <v>3413</v>
       </c>
-      <c r="G240" t="s">
+      <c r="C242" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E242" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G242" s="4">
+        <v>1</v>
+      </c>
+      <c r="I242" t="s">
         <v>4441</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
         <v>3415</v>
       </c>
-      <c r="G241" t="s">
+      <c r="C243" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E243" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G243" s="4">
+        <v>1</v>
+      </c>
+      <c r="I243" t="s">
         <v>4442</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
         <v>3417</v>
       </c>
-      <c r="G242" t="s">
+      <c r="C244" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E244" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G244" s="4">
+        <v>1</v>
+      </c>
+      <c r="I244" t="s">
         <v>4443</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
         <v>3419</v>
       </c>
-      <c r="G243" t="s">
+      <c r="C245" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E245" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G245" s="4">
+        <v>1</v>
+      </c>
+      <c r="I245" t="s">
         <v>4444</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
         <v>3421</v>
       </c>
-      <c r="G244" t="s">
+      <c r="C246" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E246" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G246" s="4">
+        <v>1</v>
+      </c>
+      <c r="I246" t="s">
         <v>4445</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
         <v>3423</v>
       </c>
-      <c r="G245" t="s">
+      <c r="C247" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E247" s="4">
+        <v>2</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G247" s="4">
+        <v>1</v>
+      </c>
+      <c r="I247" t="s">
         <v>4446</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>3425</v>
       </c>
-      <c r="G246" t="s">
+      <c r="C248" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E248" s="4">
+        <v>2</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G248" s="4">
+        <v>1</v>
+      </c>
+      <c r="I248" t="s">
         <v>4447</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>3372</v>
-      </c>
-      <c r="G247" t="s">
-        <v>4448</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E249" s="4">
+        <v>0</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G249" s="4">
+        <v>1</v>
+      </c>
+      <c r="I249" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
         <v>3427</v>
       </c>
-      <c r="G248" t="s">
+      <c r="C250" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E250" s="4">
+        <v>2</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G250" s="4">
+        <v>1</v>
+      </c>
+      <c r="I250" t="s">
         <v>4449</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>3429</v>
       </c>
-      <c r="G249" t="s">
+      <c r="C251" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E251" s="4">
+        <v>2</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G251" s="4">
+        <v>1</v>
+      </c>
+      <c r="I251" t="s">
         <v>4450</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
         <v>3431</v>
       </c>
-      <c r="G250" t="s">
+      <c r="C252" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E252" s="4">
+        <v>2</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G252" s="4">
+        <v>1</v>
+      </c>
+      <c r="I252" t="s">
         <v>4451</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
         <v>3433</v>
       </c>
-      <c r="G251" t="s">
+      <c r="C253" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E253" s="4">
+        <v>2</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G253" s="4">
+        <v>1</v>
+      </c>
+      <c r="I253" t="s">
         <v>4452</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
         <v>3435</v>
       </c>
-      <c r="G252" t="s">
+      <c r="C254" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E254" s="4">
+        <v>2</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G254" s="4">
+        <v>1</v>
+      </c>
+      <c r="I254" t="s">
         <v>4453</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>3437</v>
       </c>
-      <c r="G253" t="s">
+      <c r="C255" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E255" s="4">
+        <v>2</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G255" s="4">
+        <v>1</v>
+      </c>
+      <c r="I255" t="s">
         <v>4454</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
         <v>3439</v>
       </c>
-      <c r="G254" t="s">
+      <c r="C256" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E256" s="4">
+        <v>2</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G256" s="4">
+        <v>1</v>
+      </c>
+      <c r="I256" t="s">
         <v>4455</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
         <v>3441</v>
       </c>
-      <c r="G255" t="s">
+      <c r="C257" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E257" s="4">
+        <v>3</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G257" s="4">
+        <v>1</v>
+      </c>
+      <c r="I257" t="s">
         <v>4456</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
         <v>3443</v>
       </c>
-      <c r="G256" t="s">
+      <c r="C258" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E258" s="4">
+        <v>3</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G258" s="4">
+        <v>1</v>
+      </c>
+      <c r="I258" t="s">
         <v>4457</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
         <v>3445</v>
       </c>
-      <c r="G257" t="s">
+      <c r="C259" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E259" s="4">
+        <v>3</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G259" s="4">
+        <v>1</v>
+      </c>
+      <c r="I259" t="s">
         <v>4458</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>3374</v>
-      </c>
-      <c r="G258" t="s">
-        <v>4459</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E260" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G260" s="4">
+        <v>1</v>
+      </c>
+      <c r="I260" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
         <v>3447</v>
       </c>
-      <c r="G259" t="s">
+      <c r="C261" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E261" s="4">
+        <v>3</v>
+      </c>
+      <c r="F261" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G261" s="4">
+        <v>1</v>
+      </c>
+      <c r="I261" t="s">
         <v>4460</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
         <v>3449</v>
       </c>
-      <c r="G260" t="s">
+      <c r="C262" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E262" s="4">
+        <v>3</v>
+      </c>
+      <c r="F262" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G262" s="4">
+        <v>1</v>
+      </c>
+      <c r="I262" t="s">
         <v>4461</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
         <v>3451</v>
       </c>
-      <c r="G261" t="s">
+      <c r="C263" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E263" s="4">
+        <v>3</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G263" s="4">
+        <v>1</v>
+      </c>
+      <c r="I263" t="s">
         <v>4462</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
         <v>3453</v>
       </c>
-      <c r="G262" t="s">
+      <c r="C264" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E264" s="4">
+        <v>4</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G264" s="4">
+        <v>1</v>
+      </c>
+      <c r="I264" t="s">
         <v>4463</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
         <v>3455</v>
       </c>
-      <c r="G263" t="s">
+      <c r="C265" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E265" s="4">
+        <v>4</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G265" s="4">
+        <v>1</v>
+      </c>
+      <c r="I265" t="s">
         <v>4464</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
         <v>3457</v>
       </c>
-      <c r="G264" t="s">
+      <c r="C266" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E266" s="4">
+        <v>4</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G266" s="4">
+        <v>1</v>
+      </c>
+      <c r="I266" t="s">
         <v>4465</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
         <v>3459</v>
       </c>
-      <c r="G265" t="s">
+      <c r="C267" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E267" s="4">
+        <v>4</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G267" s="4">
+        <v>1</v>
+      </c>
+      <c r="I267" t="s">
         <v>4466</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
         <v>3461</v>
       </c>
-      <c r="G266" t="s">
+      <c r="C268" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E268" s="4">
+        <v>4</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G268" s="4">
+        <v>1</v>
+      </c>
+      <c r="I268" t="s">
         <v>4467</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
         <v>3463</v>
       </c>
-      <c r="G267" t="s">
+      <c r="C269" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E269" s="4">
+        <v>4</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G269" s="4">
+        <v>1</v>
+      </c>
+      <c r="I269" t="s">
         <v>4468</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
         <v>3465</v>
       </c>
-      <c r="G268" t="s">
+      <c r="C270" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E270" s="4">
+        <v>4</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G270" s="4">
+        <v>1</v>
+      </c>
+      <c r="I270" t="s">
         <v>4469</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>3376</v>
-      </c>
-      <c r="G269" t="s">
-        <v>4470</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E271" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G271" s="4">
+        <v>1</v>
+      </c>
+      <c r="I271" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
         <v>3467</v>
       </c>
-      <c r="G270" t="s">
+      <c r="C272" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E272" s="4">
+        <v>4</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G272" s="4">
+        <v>1</v>
+      </c>
+      <c r="I272" t="s">
         <v>4471</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
         <v>3469</v>
       </c>
-      <c r="G271" t="s">
+      <c r="C273" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E273" s="4">
+        <v>4</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G273" s="4">
+        <v>1</v>
+      </c>
+      <c r="I273" t="s">
         <v>4472</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
         <v>3471</v>
       </c>
-      <c r="G272" t="s">
+      <c r="C274" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E274" s="4">
+        <v>8</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G274" s="4">
+        <v>1</v>
+      </c>
+      <c r="I274" t="s">
         <v>4473</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
         <v>3473</v>
       </c>
-      <c r="G273" t="s">
+      <c r="C275" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E275" s="4">
+        <v>8</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G275" s="4">
+        <v>1</v>
+      </c>
+      <c r="I275" t="s">
         <v>4474</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
         <v>3475</v>
       </c>
-      <c r="G274" t="s">
+      <c r="C276" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E276" s="4">
+        <v>8</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G276" s="4">
+        <v>1</v>
+      </c>
+      <c r="I276" t="s">
         <v>4475</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
         <v>3477</v>
       </c>
-      <c r="G275" t="s">
+      <c r="C277" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E277" s="4">
+        <v>8</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G277" s="4">
+        <v>1</v>
+      </c>
+      <c r="I277" t="s">
         <v>4476</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
         <v>3479</v>
       </c>
-      <c r="G276" t="s">
+      <c r="C278" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E278" s="4">
+        <v>8</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G278" s="4">
+        <v>1</v>
+      </c>
+      <c r="I278" t="s">
         <v>4477</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
         <v>3481</v>
       </c>
-      <c r="G277" t="s">
+      <c r="C279" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E279" s="4">
+        <v>8</v>
+      </c>
+      <c r="F279" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G279" s="4">
+        <v>1</v>
+      </c>
+      <c r="I279" t="s">
         <v>4478</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
         <v>3483</v>
       </c>
-      <c r="G278" t="s">
+      <c r="C280" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E280" s="4">
+        <v>25</v>
+      </c>
+      <c r="F280" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G280" s="4">
+        <v>1</v>
+      </c>
+      <c r="I280" t="s">
         <v>4479</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
         <v>3485</v>
       </c>
-      <c r="G279" t="s">
+      <c r="C281" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E281" s="4">
+        <v>25</v>
+      </c>
+      <c r="F281" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G281" s="4">
+        <v>1</v>
+      </c>
+      <c r="I281" t="s">
         <v>4480</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>3378</v>
-      </c>
-      <c r="G280" t="s">
-        <v>4481</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E282" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F282" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G282" s="4">
+        <v>1</v>
+      </c>
+      <c r="I282" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
         <v>3487</v>
       </c>
-      <c r="G281" t="s">
+      <c r="C283" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E283" s="4">
+        <v>25</v>
+      </c>
+      <c r="F283" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G283" s="4">
+        <v>1</v>
+      </c>
+      <c r="I283" t="s">
         <v>4482</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
         <v>3489</v>
       </c>
-      <c r="G282" t="s">
+      <c r="C284" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E284" s="4">
+        <v>25</v>
+      </c>
+      <c r="F284" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G284" s="4">
+        <v>1</v>
+      </c>
+      <c r="I284" t="s">
         <v>4483</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
         <v>3491</v>
       </c>
-      <c r="G283" t="s">
+      <c r="C285" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E285" s="4">
+        <v>25</v>
+      </c>
+      <c r="F285" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G285" s="4">
+        <v>1</v>
+      </c>
+      <c r="I285" t="s">
         <v>4484</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
         <v>3493</v>
       </c>
-      <c r="G284" t="s">
+      <c r="C286" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E286" s="4">
+        <v>25</v>
+      </c>
+      <c r="F286" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G286" s="4">
+        <v>1</v>
+      </c>
+      <c r="I286" t="s">
         <v>4485</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
         <v>3495</v>
       </c>
-      <c r="G285" t="s">
+      <c r="C287" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E287" s="4">
+        <v>25</v>
+      </c>
+      <c r="F287" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G287" s="4">
+        <v>1</v>
+      </c>
+      <c r="I287" t="s">
         <v>4486</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
         <v>3497</v>
       </c>
-      <c r="G286" t="s">
+      <c r="C288" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E288" s="4">
+        <v>25</v>
+      </c>
+      <c r="F288" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G288" s="4">
+        <v>1</v>
+      </c>
+      <c r="I288" t="s">
         <v>4487</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
         <v>3499</v>
       </c>
-      <c r="G287" t="s">
+      <c r="C289" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E289" s="4">
+        <v>25</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G289" s="4">
+        <v>1</v>
+      </c>
+      <c r="I289" t="s">
         <v>4488</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>3380</v>
-      </c>
-      <c r="G288" t="s">
-        <v>4489</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
         <v>3382</v>
       </c>
-      <c r="G289" t="s">
+      <c r="C290" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E290" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F290" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G290" s="4">
+        <v>1</v>
+      </c>
+      <c r="I290" t="s">
         <v>4490</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
         <v>3384</v>
       </c>
-      <c r="G290" t="s">
+      <c r="C291" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E291" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F291" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G291" s="4">
+        <v>1</v>
+      </c>
+      <c r="I291" t="s">
         <v>4491</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
         <v>3386</v>
       </c>
-      <c r="G291" t="s">
+      <c r="C292" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E292" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F292" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="G292" s="4">
+        <v>1</v>
+      </c>
+      <c r="I292" t="s">
         <v>4492</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
-        <v>3535</v>
-      </c>
-      <c r="F292" t="s">
-        <v>4592</v>
-      </c>
-      <c r="G292" t="s">
-        <v>4593</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:I292">
+    <sortCondition ref="A2:A292"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
